--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #10 OCTUBRE 2023/BALANCE  ZAVALETA   OCTUBRE  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #10 OCTUBRE 2023/BALANCE  ZAVALETA   OCTUBRE  2023.xlsx
@@ -793,7 +793,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1218">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4231,6 +4231,222 @@
   </si>
   <si>
     <t>NOMINA # 39</t>
+  </si>
+  <si>
+    <t>QUESOS-JAMON-CHISTORRA</t>
+  </si>
+  <si>
+    <t>4-sep-2023</t>
+  </si>
+  <si>
+    <t>E-21478</t>
+  </si>
+  <si>
+    <t>5-sep-2023</t>
+  </si>
+  <si>
+    <t>E-21588</t>
+  </si>
+  <si>
+    <t>6-sep-2023</t>
+  </si>
+  <si>
+    <t>E-21664</t>
+  </si>
+  <si>
+    <t>E-21680</t>
+  </si>
+  <si>
+    <t>E-21736</t>
+  </si>
+  <si>
+    <t>E-21738</t>
+  </si>
+  <si>
+    <t>7-sep-2023</t>
+  </si>
+  <si>
+    <t>E-21805</t>
+  </si>
+  <si>
+    <t>E-21806</t>
+  </si>
+  <si>
+    <t>8-sep-2023</t>
+  </si>
+  <si>
+    <t>E-21956</t>
+  </si>
+  <si>
+    <t>9-sep-2023</t>
+  </si>
+  <si>
+    <t>E-22075</t>
+  </si>
+  <si>
+    <t>11-sep-2023</t>
+  </si>
+  <si>
+    <t>E-22150</t>
+  </si>
+  <si>
+    <t>E-22157</t>
+  </si>
+  <si>
+    <t>12-sep-2023</t>
+  </si>
+  <si>
+    <t>E-22288</t>
+  </si>
+  <si>
+    <t>13-sep-2023</t>
+  </si>
+  <si>
+    <t>E-22367</t>
+  </si>
+  <si>
+    <t>14-sep-2023</t>
+  </si>
+  <si>
+    <t>E-22587</t>
+  </si>
+  <si>
+    <t>E-22588</t>
+  </si>
+  <si>
+    <t>E-22591</t>
+  </si>
+  <si>
+    <t>E-22593</t>
+  </si>
+  <si>
+    <t>E-22594</t>
+  </si>
+  <si>
+    <t>E-22595</t>
+  </si>
+  <si>
+    <t>15-sep-2023</t>
+  </si>
+  <si>
+    <t>E-22607</t>
+  </si>
+  <si>
+    <t>18-sep-2023</t>
+  </si>
+  <si>
+    <t>E-22884</t>
+  </si>
+  <si>
+    <t>19-sep-2023</t>
+  </si>
+  <si>
+    <t>E-22920</t>
+  </si>
+  <si>
+    <t>E-22926</t>
+  </si>
+  <si>
+    <t>20-sep-2023</t>
+  </si>
+  <si>
+    <t>E-23069</t>
+  </si>
+  <si>
+    <t>E-23076</t>
+  </si>
+  <si>
+    <t>E-23095</t>
+  </si>
+  <si>
+    <t>21-sep-2023</t>
+  </si>
+  <si>
+    <t>E-23167</t>
+  </si>
+  <si>
+    <t>E-23179</t>
+  </si>
+  <si>
+    <t>22-sep-2023</t>
+  </si>
+  <si>
+    <t>E-23336</t>
+  </si>
+  <si>
+    <t>23-sep-2023</t>
+  </si>
+  <si>
+    <t>E-23445</t>
+  </si>
+  <si>
+    <t>E-23490</t>
+  </si>
+  <si>
+    <t>25-sep-2023</t>
+  </si>
+  <si>
+    <t>E-23547</t>
+  </si>
+  <si>
+    <t>26-sep-2023</t>
+  </si>
+  <si>
+    <t>E-23676</t>
+  </si>
+  <si>
+    <t>E-23682</t>
+  </si>
+  <si>
+    <t>E-23722</t>
+  </si>
+  <si>
+    <t>27-sep-2023</t>
+  </si>
+  <si>
+    <t>E-23799</t>
+  </si>
+  <si>
+    <t>E-23835</t>
+  </si>
+  <si>
+    <t>28-sep-2023</t>
+  </si>
+  <si>
+    <t>E-23902</t>
+  </si>
+  <si>
+    <t>E-23903</t>
+  </si>
+  <si>
+    <t>E-23904</t>
+  </si>
+  <si>
+    <t>E-23915</t>
+  </si>
+  <si>
+    <t>29-sep-2023</t>
+  </si>
+  <si>
+    <t>E-24022</t>
+  </si>
+  <si>
+    <t>30-sep-2023</t>
+  </si>
+  <si>
+    <t>E-24187</t>
+  </si>
+  <si>
+    <t>E-24214</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-JAMON-SALCHICHA-PASTOR</t>
+  </si>
+  <si>
+    <t>BIMBO-ARABE-CHORIZO-POLLO-QUESOS-PASTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacaciones Juana </t>
   </si>
 </sst>
 </file>
@@ -6008,7 +6224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="699">
+  <cellXfs count="704">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7195,6 +7411,68 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7270,39 +7548,6 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7369,6 +7614,15 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="15" fillId="19" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="19" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="19" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="17" fillId="25" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7378,44 +7632,15 @@
     <xf numFmtId="165" fontId="17" fillId="25" borderId="93" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="19" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="19" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="19" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -12127,23 +12352,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="639"/>
+      <c r="C1" s="641" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="642"/>
+      <c r="E1" s="642"/>
+      <c r="F1" s="642"/>
+      <c r="G1" s="642"/>
+      <c r="H1" s="642"/>
+      <c r="I1" s="642"/>
+      <c r="J1" s="642"/>
+      <c r="K1" s="642"/>
+      <c r="L1" s="642"/>
+      <c r="M1" s="642"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="640"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -12153,24 +12378,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="643" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="644"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="645" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="645"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="637" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="618" t="s">
+      <c r="R3" s="646" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12185,14 +12410,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="648" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="649"/>
+      <c r="H4" s="650" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="651"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -12202,11 +12427,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="638"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="619"/>
+      <c r="R4" s="647"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -14041,11 +14266,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="629">
+      <c r="M49" s="657">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="657">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -14053,7 +14278,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="669">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -14074,10 +14299,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="658"/>
+      <c r="N50" s="658"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="670"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -14132,11 +14357,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="643">
+      <c r="M53" s="635">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="636"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -14561,26 +14786,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="637" t="s">
+      <c r="H77" s="665" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="638"/>
+      <c r="I77" s="666"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="639">
+      <c r="K77" s="667">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="640"/>
+      <c r="L77" s="668"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="631" t="s">
+      <c r="D78" s="659" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="631"/>
+      <c r="E78" s="659"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -14589,22 +14814,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="632" t="s">
+      <c r="D79" s="660" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="632"/>
+      <c r="E79" s="660"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="633" t="s">
+      <c r="I79" s="661" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="634"/>
-      <c r="K79" s="635">
+      <c r="J79" s="662"/>
+      <c r="K79" s="663">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="635"/>
+      <c r="L79" s="663"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -14645,11 +14870,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="636">
+      <c r="K81" s="664">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="635"/>
+      <c r="L81" s="663"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -14666,22 +14891,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="624" t="s">
+      <c r="D83" s="652" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="625"/>
+      <c r="E83" s="653"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="626" t="s">
+      <c r="I83" s="654" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="627"/>
-      <c r="K83" s="628">
+      <c r="J83" s="655"/>
+      <c r="K83" s="656">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="628"/>
+      <c r="L83" s="656"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -14828,12 +15053,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14850,6 +15069,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16019,10 +16244,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="657" t="s">
+      <c r="I37" s="674" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="658"/>
+      <c r="J37" s="675"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -16041,8 +16266,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="659"/>
-      <c r="J38" s="660"/>
+      <c r="I38" s="676"/>
+      <c r="J38" s="677"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -16061,8 +16286,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="661"/>
-      <c r="J39" s="662"/>
+      <c r="I39" s="678"/>
+      <c r="J39" s="679"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -16620,10 +16845,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="663" t="s">
+      <c r="I67" s="680" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="664"/>
+      <c r="J67" s="681"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -16645,11 +16870,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="667" t="s">
+      <c r="G68" s="684" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="672"/>
-      <c r="J68" s="673"/>
+      <c r="I68" s="689"/>
+      <c r="J68" s="690"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -16660,7 +16885,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="668"/>
+      <c r="G69" s="685"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -17248,23 +17473,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="639"/>
+      <c r="C1" s="641" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="642"/>
+      <c r="E1" s="642"/>
+      <c r="F1" s="642"/>
+      <c r="G1" s="642"/>
+      <c r="H1" s="642"/>
+      <c r="I1" s="642"/>
+      <c r="J1" s="642"/>
+      <c r="K1" s="642"/>
+      <c r="L1" s="642"/>
+      <c r="M1" s="642"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="640"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -17274,27 +17499,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="643" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="644"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="645" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="645"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="637" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="674" t="s">
+      <c r="R3" s="691" t="s">
         <v>3</v>
       </c>
     </row>
@@ -17309,14 +17534,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="648" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="649"/>
+      <c r="H4" s="650" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="651"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -17326,11 +17551,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="638"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="675"/>
+      <c r="R4" s="692"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -19386,11 +19611,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="657">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="657">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -19398,7 +19623,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="669">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -19431,10 +19656,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="658"/>
+      <c r="N50" s="658"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="670"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -19519,11 +19744,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="635">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="636"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -19852,26 +20077,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="637" t="s">
+      <c r="H69" s="665" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="638"/>
+      <c r="I69" s="666"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="639">
+      <c r="K69" s="667">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="640"/>
+      <c r="L69" s="668"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="631" t="s">
+      <c r="D70" s="659" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="631"/>
+      <c r="E70" s="659"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -19880,23 +20105,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="632" t="s">
+      <c r="D71" s="660" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="632"/>
+      <c r="E71" s="660"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="633" t="s">
+      <c r="I71" s="661" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="634"/>
-      <c r="K71" s="635">
+      <c r="J71" s="662"/>
+      <c r="K71" s="663">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="635"/>
+      <c r="L71" s="663"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -19938,11 +20163,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="636">
+      <c r="K73" s="664">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="635"/>
+      <c r="L73" s="663"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -19959,22 +20184,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="624" t="s">
+      <c r="D75" s="652" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="625"/>
+      <c r="E75" s="653"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="626" t="s">
+      <c r="I75" s="654" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="627"/>
-      <c r="K75" s="628">
+      <c r="J75" s="655"/>
+      <c r="K75" s="656">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="628"/>
+      <c r="L75" s="656"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -20122,6 +20347,12 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20138,12 +20369,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21313,10 +21538,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="657" t="s">
+      <c r="I37" s="674" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="658"/>
+      <c r="J37" s="675"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -21335,8 +21560,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="659"/>
-      <c r="J38" s="660"/>
+      <c r="I38" s="676"/>
+      <c r="J38" s="677"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -21355,8 +21580,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="661"/>
-      <c r="J39" s="662"/>
+      <c r="I39" s="678"/>
+      <c r="J39" s="679"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -21914,10 +22139,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="663" t="s">
+      <c r="I67" s="680" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="664"/>
+      <c r="J67" s="681"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -21939,11 +22164,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="667" t="s">
+      <c r="G68" s="684" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="672"/>
-      <c r="J68" s="673"/>
+      <c r="I68" s="689"/>
+      <c r="J68" s="690"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -21954,7 +22179,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="668"/>
+      <c r="G69" s="685"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -22543,23 +22768,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="639"/>
+      <c r="C1" s="641" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="642"/>
+      <c r="E1" s="642"/>
+      <c r="F1" s="642"/>
+      <c r="G1" s="642"/>
+      <c r="H1" s="642"/>
+      <c r="I1" s="642"/>
+      <c r="J1" s="642"/>
+      <c r="K1" s="642"/>
+      <c r="L1" s="642"/>
+      <c r="M1" s="642"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="640"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -22569,25 +22794,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="643" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="644"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="645" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="645"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="637" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="674" t="s">
+      <c r="R3" s="691" t="s">
         <v>3</v>
       </c>
     </row>
@@ -22602,14 +22827,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="648" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="649"/>
+      <c r="H4" s="650" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="651"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -22619,11 +22844,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="638"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="675"/>
+      <c r="R4" s="692"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -24752,11 +24977,11 @@
       <c r="L49" s="49">
         <v>5250</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="657">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="657">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -24764,7 +24989,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="669">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -24797,10 +25022,10 @@
       <c r="L50" s="89">
         <v>3420</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="658"/>
+      <c r="N50" s="658"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="670"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -24891,11 +25116,11 @@
       <c r="L53" s="49">
         <v>8015.92</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="635">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="636"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -25272,26 +25497,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="637" t="s">
+      <c r="H69" s="665" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="638"/>
+      <c r="I69" s="666"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="639">
+      <c r="K69" s="667">
         <f>I67+L67</f>
         <v>792651.90999999992</v>
       </c>
-      <c r="L69" s="640"/>
+      <c r="L69" s="668"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="631" t="s">
+      <c r="D70" s="659" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="631"/>
+      <c r="E70" s="659"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>896993.63999999966</v>
@@ -25300,22 +25525,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="632" t="s">
+      <c r="D71" s="660" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="632"/>
+      <c r="E71" s="660"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="633" t="s">
+      <c r="I71" s="661" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="634"/>
-      <c r="K71" s="635">
+      <c r="J71" s="662"/>
+      <c r="K71" s="663">
         <f>F73+F74+F75</f>
         <v>2818686.5799999996</v>
       </c>
-      <c r="L71" s="635"/>
+      <c r="L71" s="663"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -25360,11 +25585,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="636">
+      <c r="K73" s="664">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="635"/>
+      <c r="L73" s="663"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -25385,22 +25610,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="624" t="s">
+      <c r="D75" s="652" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="625"/>
+      <c r="E75" s="653"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="626" t="s">
+      <c r="I75" s="654" t="s">
         <v>220</v>
       </c>
-      <c r="J75" s="627"/>
-      <c r="K75" s="628">
+      <c r="J75" s="655"/>
+      <c r="K75" s="656">
         <f>K71+K73</f>
         <v>-312700.46000000043</v>
       </c>
-      <c r="L75" s="628"/>
+      <c r="L75" s="656"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -25548,6 +25773,12 @@
     <sortCondition ref="J40:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25564,12 +25795,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26837,10 +27062,10 @@
         <f t="shared" si="0"/>
         <v>9903.85</v>
       </c>
-      <c r="I37" s="657" t="s">
+      <c r="I37" s="674" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="658"/>
+      <c r="J37" s="675"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -26865,8 +27090,8 @@
         <f t="shared" si="0"/>
         <v>11767.68</v>
       </c>
-      <c r="I38" s="659"/>
-      <c r="J38" s="660"/>
+      <c r="I38" s="676"/>
+      <c r="J38" s="677"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -26891,8 +27116,8 @@
         <f t="shared" si="0"/>
         <v>24157.14</v>
       </c>
-      <c r="I39" s="661"/>
-      <c r="J39" s="662"/>
+      <c r="I39" s="678"/>
+      <c r="J39" s="679"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -27498,10 +27723,10 @@
         <f>SUM(G3:G66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I67" s="663" t="s">
+      <c r="I67" s="680" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="664"/>
+      <c r="J67" s="681"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>122543.6</v>
@@ -27523,11 +27748,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="667" t="s">
+      <c r="G68" s="684" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="672"/>
-      <c r="J68" s="673"/>
+      <c r="I68" s="689"/>
+      <c r="J68" s="690"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -27538,7 +27763,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="668"/>
+      <c r="G69" s="685"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -28126,23 +28351,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="639"/>
+      <c r="C1" s="641" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="642"/>
+      <c r="E1" s="642"/>
+      <c r="F1" s="642"/>
+      <c r="G1" s="642"/>
+      <c r="H1" s="642"/>
+      <c r="I1" s="642"/>
+      <c r="J1" s="642"/>
+      <c r="K1" s="642"/>
+      <c r="L1" s="642"/>
+      <c r="M1" s="642"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="640"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -28152,25 +28377,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="643" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="644"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="645" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="645"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="637" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="674" t="s">
+      <c r="R3" s="691" t="s">
         <v>3</v>
       </c>
     </row>
@@ -28185,14 +28410,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="648" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="649"/>
+      <c r="H4" s="650" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="651"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -28202,11 +28427,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="638"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="675"/>
+      <c r="R4" s="692"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -30433,11 +30658,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="349"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="629">
+      <c r="M49" s="657">
         <f>SUM(M5:M40)</f>
         <v>2901103.23</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="657">
         <f>SUM(N5:N40)</f>
         <v>2054394</v>
       </c>
@@ -30445,7 +30670,7 @@
         <f>SUM(P5:P40)</f>
         <v>6121324.54</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="669">
         <f>SUM(Q5:Q40)</f>
         <v>-1197.4599999999919</v>
       </c>
@@ -30478,10 +30703,10 @@
       <c r="L50" s="89">
         <v>2958</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="658"/>
+      <c r="N50" s="658"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="670"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>146522</v>
@@ -30572,11 +30797,11 @@
       <c r="L53" s="49">
         <v>1100.01</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="635">
         <f>M49+N49</f>
         <v>4955497.2300000004</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="636"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -31291,26 +31516,26 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="637" t="s">
+      <c r="H81" s="665" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="638"/>
+      <c r="I81" s="666"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="639">
+      <c r="K81" s="667">
         <f>I79+L79</f>
         <v>778945.87000000011</v>
       </c>
-      <c r="L81" s="640"/>
+      <c r="L81" s="668"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="631" t="s">
+      <c r="D82" s="659" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="631"/>
+      <c r="E82" s="659"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
         <v>1583916.4599999995</v>
@@ -31319,22 +31544,22 @@
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="632" t="s">
+      <c r="D83" s="660" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="632"/>
+      <c r="E83" s="660"/>
       <c r="F83" s="101">
         <v>-1249902.31</v>
       </c>
-      <c r="I83" s="633" t="s">
+      <c r="I83" s="661" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="634"/>
-      <c r="K83" s="635">
+      <c r="J83" s="662"/>
+      <c r="K83" s="663">
         <f>F85+F86+F87</f>
         <v>3373322.2099999995</v>
       </c>
-      <c r="L83" s="635"/>
+      <c r="L83" s="663"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -31375,11 +31600,11 @@
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="636">
+      <c r="K85" s="664">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L85" s="635"/>
+      <c r="L85" s="663"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -31397,22 +31622,22 @@
       <c r="C87" s="172">
         <v>45171</v>
       </c>
-      <c r="D87" s="624" t="s">
+      <c r="D87" s="652" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="625"/>
+      <c r="E87" s="653"/>
       <c r="F87" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I87" s="696" t="s">
+      <c r="I87" s="693" t="s">
         <v>1143</v>
       </c>
-      <c r="J87" s="697"/>
-      <c r="K87" s="698">
+      <c r="J87" s="694"/>
+      <c r="K87" s="695">
         <f>K83+K85</f>
         <v>552770.89999999944</v>
       </c>
-      <c r="L87" s="698"/>
+      <c r="L87" s="695"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -31560,12 +31785,6 @@
     <sortCondition ref="B44:B74"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -31582,6 +31801,12 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -31597,7 +31822,7 @@
   </sheetPr>
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
@@ -33323,10 +33548,10 @@
         <f t="shared" si="0"/>
         <v>11880</v>
       </c>
-      <c r="I49" s="657" t="s">
+      <c r="I49" s="674" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="658"/>
+      <c r="J49" s="675"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -33351,8 +33576,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="659"/>
-      <c r="J50" s="660"/>
+      <c r="I50" s="676"/>
+      <c r="J50" s="677"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -33377,8 +33602,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="661"/>
-      <c r="J51" s="662"/>
+      <c r="I51" s="678"/>
+      <c r="J51" s="679"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -33738,10 +33963,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="663" t="s">
+      <c r="I65" s="680" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="664"/>
+      <c r="J65" s="681"/>
       <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>226585.60000000003</v>
@@ -33770,8 +33995,8 @@
         <f t="shared" ref="G66:G68" si="2">D66-F66</f>
         <v>0</v>
       </c>
-      <c r="I66" s="672"/>
-      <c r="J66" s="673"/>
+      <c r="I66" s="689"/>
+      <c r="J66" s="690"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -33847,7 +34072,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="667" t="s">
+      <c r="G70" s="684" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -33863,7 +34088,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="668"/>
+      <c r="G71" s="685"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="550"/>
@@ -34379,7 +34604,7 @@
   <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="I88" sqref="I88"/>
@@ -34408,54 +34633,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="639"/>
+      <c r="C1" s="641" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="642"/>
+      <c r="E1" s="642"/>
+      <c r="F1" s="642"/>
+      <c r="G1" s="642"/>
+      <c r="H1" s="642"/>
+      <c r="I1" s="642"/>
+      <c r="J1" s="642"/>
+      <c r="K1" s="642"/>
+      <c r="L1" s="642"/>
+      <c r="M1" s="642"/>
     </row>
     <row r="2" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="648"/>
+      <c r="B2" s="640"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="676" t="s">
+      <c r="J2" s="696" t="s">
         <v>1122</v>
       </c>
-      <c r="K2" s="677"/>
-      <c r="L2" s="677"/>
-      <c r="M2" s="678"/>
+      <c r="K2" s="697"/>
+      <c r="L2" s="697"/>
+      <c r="M2" s="698"/>
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="643" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="644"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="645" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="645"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="637" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="674" t="s">
+      <c r="R3" s="691" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34470,14 +34695,14 @@
       <c r="D4" s="24">
         <v>45171</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="648" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="649"/>
+      <c r="H4" s="650" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="651"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -34487,11 +34712,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="638"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="675"/>
+      <c r="R4" s="692"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -36608,11 +36833,11 @@
       <c r="L49" s="369">
         <v>8488</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="657">
         <f>SUM(M5:M40)</f>
         <v>2549017.7400000002</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="657">
         <f>SUM(N5:N40)</f>
         <v>1551885</v>
       </c>
@@ -36620,7 +36845,7 @@
         <f>SUM(P5:P40)</f>
         <v>4761795.24</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="669">
         <f>SUM(Q5:Q40)</f>
         <v>5.2399999999906868</v>
       </c>
@@ -36653,10 +36878,10 @@
       <c r="L50" s="369">
         <v>1856</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="658"/>
+      <c r="N50" s="658"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="670"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>37814</v>
@@ -36741,11 +36966,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="643">
+      <c r="M53" s="635">
         <f>M49+N49</f>
         <v>4100902.74</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="636"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -37254,26 +37479,26 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="637" t="s">
+      <c r="H81" s="665" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="638"/>
+      <c r="I81" s="666"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="639">
+      <c r="K81" s="667">
         <f>I79+L79</f>
         <v>366832.13999999996</v>
       </c>
-      <c r="L81" s="640"/>
+      <c r="L81" s="668"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="631" t="s">
+      <c r="D82" s="659" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="631"/>
+      <c r="E82" s="659"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
         <v>1964745.67</v>
@@ -37282,22 +37507,22 @@
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="632" t="s">
+      <c r="D83" s="660" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="632"/>
+      <c r="E83" s="660"/>
       <c r="F83" s="101">
         <v>0</v>
       </c>
-      <c r="I83" s="633" t="s">
+      <c r="I83" s="661" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="634"/>
-      <c r="K83" s="635">
+      <c r="J83" s="662"/>
+      <c r="K83" s="663">
         <f>F85+F86+F87</f>
         <v>5604393.8799999999</v>
       </c>
-      <c r="L83" s="635"/>
+      <c r="L83" s="663"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -37338,11 +37563,11 @@
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="636">
+      <c r="K85" s="664">
         <f>-C4</f>
         <v>-3146460.66</v>
       </c>
-      <c r="L85" s="635"/>
+      <c r="L85" s="663"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -37360,20 +37585,20 @@
       <c r="C87" s="172">
         <v>45198</v>
       </c>
-      <c r="D87" s="624" t="s">
+      <c r="D87" s="652" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="625"/>
+      <c r="E87" s="653"/>
       <c r="F87" s="173">
         <v>3340512.21</v>
       </c>
-      <c r="I87" s="626"/>
-      <c r="J87" s="627"/>
-      <c r="K87" s="628">
+      <c r="I87" s="654"/>
+      <c r="J87" s="655"/>
+      <c r="K87" s="656">
         <f>K83+K85</f>
         <v>2457933.2199999997</v>
       </c>
-      <c r="L87" s="628"/>
+      <c r="L87" s="656"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -37518,13 +37743,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J2:M2"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -37541,6 +37759,13 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37556,8 +37781,8 @@
   </sheetPr>
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -37639,16 +37864,20 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="215"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="217">
-        <v>0</v>
+      <c r="B3" s="699" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C3" s="700" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D3" s="515">
+        <v>24992.6</v>
       </c>
       <c r="E3" s="218"/>
       <c r="F3" s="217"/>
       <c r="G3" s="219">
         <f>D3-F3</f>
-        <v>0</v>
+        <v>24992.6</v>
       </c>
       <c r="I3" s="235"/>
       <c r="J3" s="236"/>
@@ -37661,14 +37890,20 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="235"/>
-      <c r="C4" s="461"/>
-      <c r="D4" s="237"/>
+      <c r="B4" s="699" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C4" s="700" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D4" s="515">
+        <v>64002.8</v>
+      </c>
       <c r="E4" s="224"/>
       <c r="F4" s="101"/>
       <c r="G4" s="225">
         <f t="shared" ref="G4:G67" si="0">D4-F4</f>
-        <v>0</v>
+        <v>64002.8</v>
       </c>
       <c r="H4" s="226"/>
       <c r="I4" s="235"/>
@@ -37682,9 +37917,15 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="235"/>
-      <c r="C5" s="461"/>
-      <c r="D5" s="237"/>
+      <c r="B5" s="699" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C5" s="700" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D5" s="515">
+        <v>0</v>
+      </c>
       <c r="E5" s="224"/>
       <c r="F5" s="101"/>
       <c r="G5" s="225">
@@ -37702,14 +37943,20 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="235"/>
-      <c r="C6" s="461"/>
-      <c r="D6" s="237"/>
+      <c r="B6" s="699" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C6" s="700" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D6" s="515">
+        <v>13769.2</v>
+      </c>
       <c r="E6" s="224"/>
       <c r="F6" s="101"/>
       <c r="G6" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13769.2</v>
       </c>
       <c r="I6" s="235"/>
       <c r="J6" s="236"/>
@@ -37722,9 +37969,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="235"/>
-      <c r="C7" s="461"/>
-      <c r="D7" s="237"/>
+      <c r="B7" s="699" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C7" s="700" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D7" s="515">
+        <v>0</v>
+      </c>
       <c r="E7" s="224"/>
       <c r="F7" s="101"/>
       <c r="G7" s="225">
@@ -37742,9 +37995,15 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="235"/>
-      <c r="C8" s="461"/>
-      <c r="D8" s="237"/>
+      <c r="B8" s="699" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C8" s="700" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D8" s="515">
+        <v>0</v>
+      </c>
       <c r="E8" s="224"/>
       <c r="F8" s="101"/>
       <c r="G8" s="225">
@@ -37763,14 +38022,20 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="235"/>
-      <c r="C9" s="461"/>
-      <c r="D9" s="237"/>
+      <c r="B9" s="701" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C9" s="702" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D9" s="703">
+        <v>40309.5</v>
+      </c>
       <c r="E9" s="224"/>
       <c r="F9" s="101"/>
       <c r="G9" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40309.5</v>
       </c>
       <c r="I9" s="235"/>
       <c r="J9" s="236"/>
@@ -37783,9 +38048,15 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="235"/>
-      <c r="C10" s="461"/>
-      <c r="D10" s="237"/>
+      <c r="B10" s="699" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C10" s="700" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D10" s="515">
+        <v>0</v>
+      </c>
       <c r="E10" s="224"/>
       <c r="F10" s="101"/>
       <c r="G10" s="225">
@@ -37803,14 +38074,20 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="235"/>
-      <c r="C11" s="461"/>
-      <c r="D11" s="237"/>
+      <c r="B11" s="699" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C11" s="700" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D11" s="515">
+        <v>23991.599999999999</v>
+      </c>
       <c r="E11" s="224"/>
       <c r="F11" s="101"/>
       <c r="G11" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23991.599999999999</v>
       </c>
       <c r="I11" s="235"/>
       <c r="J11" s="236"/>
@@ -37823,14 +38100,20 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="235"/>
-      <c r="C12" s="461"/>
-      <c r="D12" s="237"/>
+      <c r="B12" s="701" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C12" s="702" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D12" s="703">
+        <v>33026.25</v>
+      </c>
       <c r="E12" s="224"/>
       <c r="F12" s="101"/>
       <c r="G12" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33026.25</v>
       </c>
       <c r="I12" s="235"/>
       <c r="J12" s="236"/>
@@ -37843,14 +38126,20 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="235"/>
-      <c r="C13" s="461"/>
-      <c r="D13" s="237"/>
+      <c r="B13" s="699" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C13" s="700" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D13" s="515">
+        <v>172810.09</v>
+      </c>
       <c r="E13" s="224"/>
       <c r="F13" s="101"/>
       <c r="G13" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>172810.09</v>
       </c>
       <c r="I13" s="235"/>
       <c r="J13" s="236"/>
@@ -37863,14 +38152,20 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="235"/>
-      <c r="C14" s="461"/>
-      <c r="D14" s="237"/>
+      <c r="B14" s="701" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C14" s="702" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D14" s="703">
+        <v>11397</v>
+      </c>
       <c r="E14" s="224"/>
       <c r="F14" s="101"/>
       <c r="G14" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11397</v>
       </c>
       <c r="I14" s="235"/>
       <c r="J14" s="236"/>
@@ -37883,14 +38178,20 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="235"/>
-      <c r="C15" s="461"/>
-      <c r="D15" s="237"/>
+      <c r="B15" s="699" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C15" s="700" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D15" s="515">
+        <v>38347.919999999998</v>
+      </c>
       <c r="E15" s="224"/>
       <c r="F15" s="101"/>
       <c r="G15" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38347.919999999998</v>
       </c>
       <c r="I15" s="235"/>
       <c r="J15" s="236"/>
@@ -37903,14 +38204,20 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="235"/>
-      <c r="C16" s="461"/>
-      <c r="D16" s="237"/>
+      <c r="B16" s="701" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C16" s="702" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D16" s="703">
+        <v>1773</v>
+      </c>
       <c r="E16" s="224"/>
       <c r="F16" s="101"/>
       <c r="G16" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1773</v>
       </c>
       <c r="I16" s="235"/>
       <c r="J16" s="236"/>
@@ -37923,9 +38230,15 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="235"/>
-      <c r="C17" s="461"/>
-      <c r="D17" s="237"/>
+      <c r="B17" s="701" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C17" s="702" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D17" s="703">
+        <v>0</v>
+      </c>
       <c r="E17" s="224"/>
       <c r="F17" s="101"/>
       <c r="G17" s="225">
@@ -37943,14 +38256,20 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="235"/>
-      <c r="C18" s="461"/>
-      <c r="D18" s="237"/>
+      <c r="B18" s="699" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C18" s="700" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D18" s="515">
+        <v>12208.45</v>
+      </c>
       <c r="E18" s="224"/>
       <c r="F18" s="101"/>
       <c r="G18" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12208.45</v>
       </c>
       <c r="I18" s="235"/>
       <c r="J18" s="236"/>
@@ -37963,14 +38282,20 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="235"/>
-      <c r="C19" s="461"/>
-      <c r="D19" s="237"/>
+      <c r="B19" s="701" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C19" s="702" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D19" s="703">
+        <v>18427.7</v>
+      </c>
       <c r="E19" s="224"/>
       <c r="F19" s="101"/>
       <c r="G19" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18427.7</v>
       </c>
       <c r="I19" s="235"/>
       <c r="J19" s="236"/>
@@ -37983,9 +38308,15 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="235"/>
-      <c r="C20" s="461"/>
-      <c r="D20" s="237"/>
+      <c r="B20" s="701" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C20" s="702" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D20" s="703">
+        <v>0</v>
+      </c>
       <c r="E20" s="224"/>
       <c r="F20" s="101"/>
       <c r="G20" s="225">
@@ -38004,14 +38335,20 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="235"/>
-      <c r="C21" s="461"/>
-      <c r="D21" s="237"/>
+      <c r="B21" s="699" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C21" s="700" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D21" s="515">
+        <v>19000.8</v>
+      </c>
       <c r="E21" s="224"/>
       <c r="F21" s="101"/>
       <c r="G21" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19000.8</v>
       </c>
       <c r="H21" s="233"/>
       <c r="I21" s="235"/>
@@ -38025,9 +38362,15 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="235"/>
-      <c r="C22" s="461"/>
-      <c r="D22" s="237"/>
+      <c r="B22" s="701" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C22" s="702" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D22" s="703">
+        <v>0</v>
+      </c>
       <c r="E22" s="224"/>
       <c r="F22" s="101"/>
       <c r="G22" s="225">
@@ -38046,14 +38389,20 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="235"/>
-      <c r="C23" s="461"/>
-      <c r="D23" s="237"/>
+      <c r="B23" s="701" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C23" s="702" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D23" s="703">
+        <v>17511.2</v>
+      </c>
       <c r="E23" s="224"/>
       <c r="F23" s="101"/>
       <c r="G23" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17511.2</v>
       </c>
       <c r="H23" s="234"/>
       <c r="I23" s="235"/>
@@ -38067,14 +38416,20 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="235"/>
-      <c r="C24" s="461"/>
-      <c r="D24" s="237"/>
+      <c r="B24" s="699" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C24" s="700" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D24" s="515">
+        <v>36100.5</v>
+      </c>
       <c r="E24" s="224"/>
       <c r="F24" s="101"/>
       <c r="G24" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36100.5</v>
       </c>
       <c r="H24" s="234"/>
       <c r="I24" s="235"/>
@@ -38088,14 +38443,20 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="235"/>
-      <c r="C25" s="461"/>
-      <c r="D25" s="237"/>
+      <c r="B25" s="699" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C25" s="700" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D25" s="515">
+        <v>19530.599999999999</v>
+      </c>
       <c r="E25" s="224"/>
       <c r="F25" s="101"/>
       <c r="G25" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19530.599999999999</v>
       </c>
       <c r="H25" s="234"/>
       <c r="I25" s="235"/>
@@ -38109,14 +38470,20 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="235"/>
-      <c r="C26" s="461"/>
-      <c r="D26" s="237"/>
+      <c r="B26" s="699" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C26" s="700" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D26" s="515">
+        <v>10912</v>
+      </c>
       <c r="E26" s="224"/>
       <c r="F26" s="101"/>
       <c r="G26" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10912</v>
       </c>
       <c r="H26" s="234"/>
       <c r="I26" s="235"/>
@@ -38130,14 +38497,20 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="235"/>
-      <c r="C27" s="461"/>
-      <c r="D27" s="237"/>
+      <c r="B27" s="701" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C27" s="702" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D27" s="703">
+        <v>12699.73</v>
+      </c>
       <c r="E27" s="224"/>
       <c r="F27" s="101"/>
       <c r="G27" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12699.73</v>
       </c>
       <c r="H27" s="234"/>
       <c r="I27" s="235"/>
@@ -38152,9 +38525,15 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
-      <c r="B28" s="235"/>
-      <c r="C28" s="461"/>
-      <c r="D28" s="237"/>
+      <c r="B28" s="699" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C28" s="700" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D28" s="515">
+        <v>0</v>
+      </c>
       <c r="E28" s="224"/>
       <c r="F28" s="101"/>
       <c r="G28" s="225">
@@ -38173,9 +38552,15 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="235"/>
-      <c r="C29" s="461"/>
-      <c r="D29" s="237"/>
+      <c r="B29" s="701" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C29" s="702" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D29" s="703">
+        <v>0</v>
+      </c>
       <c r="E29" s="224"/>
       <c r="F29" s="101"/>
       <c r="G29" s="225">
@@ -38194,9 +38579,15 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="235"/>
-      <c r="C30" s="461"/>
-      <c r="D30" s="237"/>
+      <c r="B30" s="701" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C30" s="702" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D30" s="703">
+        <v>0</v>
+      </c>
       <c r="E30" s="224"/>
       <c r="F30" s="101"/>
       <c r="G30" s="225">
@@ -38215,14 +38606,20 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="235"/>
-      <c r="C31" s="461"/>
-      <c r="D31" s="237"/>
+      <c r="B31" s="701" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C31" s="702" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D31" s="703">
+        <v>151306.5</v>
+      </c>
       <c r="E31" s="224"/>
       <c r="F31" s="101"/>
       <c r="G31" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>151306.5</v>
       </c>
       <c r="I31" s="235"/>
       <c r="J31" s="236"/>
@@ -38235,14 +38632,20 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="235"/>
-      <c r="C32" s="461"/>
-      <c r="D32" s="237"/>
+      <c r="B32" s="699" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C32" s="700" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D32" s="515">
+        <v>44832.6</v>
+      </c>
       <c r="E32" s="224"/>
       <c r="F32" s="101"/>
       <c r="G32" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44832.6</v>
       </c>
       <c r="I32" s="235"/>
       <c r="J32" s="236"/>
@@ -38255,14 +38658,20 @@
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="235"/>
-      <c r="C33" s="461"/>
-      <c r="D33" s="237"/>
+      <c r="B33" s="701" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C33" s="702" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D33" s="703">
+        <v>25796.65</v>
+      </c>
       <c r="E33" s="224"/>
       <c r="F33" s="101"/>
       <c r="G33" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25796.65</v>
       </c>
       <c r="I33" s="235"/>
       <c r="J33" s="236"/>
@@ -38275,14 +38684,20 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="235"/>
-      <c r="C34" s="461"/>
-      <c r="D34" s="237"/>
+      <c r="B34" s="699" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C34" s="700" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D34" s="515">
+        <v>26980</v>
+      </c>
       <c r="E34" s="224"/>
       <c r="F34" s="101"/>
       <c r="G34" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26980</v>
       </c>
       <c r="I34" s="235"/>
       <c r="J34" s="236"/>
@@ -38295,14 +38710,20 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="235"/>
-      <c r="C35" s="461"/>
-      <c r="D35" s="237"/>
+      <c r="B35" s="701" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C35" s="702" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D35" s="703">
+        <v>9028.2800000000007</v>
+      </c>
       <c r="E35" s="224"/>
       <c r="F35" s="101"/>
       <c r="G35" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9028.2800000000007</v>
       </c>
       <c r="I35" s="235"/>
       <c r="J35" s="236"/>
@@ -38315,9 +38736,15 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="235"/>
-      <c r="C36" s="461"/>
-      <c r="D36" s="237"/>
+      <c r="B36" s="699" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C36" s="700" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D36" s="515">
+        <v>0</v>
+      </c>
       <c r="E36" s="224"/>
       <c r="F36" s="101"/>
       <c r="G36" s="225">
@@ -38335,14 +38762,20 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="235"/>
-      <c r="C37" s="461"/>
-      <c r="D37" s="237"/>
+      <c r="B37" s="699" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C37" s="700" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D37" s="515">
+        <v>25626</v>
+      </c>
       <c r="E37" s="238"/>
       <c r="F37" s="84"/>
       <c r="G37" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25626</v>
       </c>
       <c r="I37" s="235"/>
       <c r="J37" s="236"/>
@@ -38355,14 +38788,20 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="235"/>
-      <c r="C38" s="461"/>
-      <c r="D38" s="237"/>
+      <c r="B38" s="699" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C38" s="700" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D38" s="515">
+        <v>2012.8</v>
+      </c>
       <c r="E38" s="238"/>
       <c r="F38" s="84"/>
       <c r="G38" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2012.8</v>
       </c>
       <c r="I38" s="235"/>
       <c r="J38" s="236"/>
@@ -38375,14 +38814,20 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="235"/>
-      <c r="C39" s="461"/>
-      <c r="D39" s="237"/>
+      <c r="B39" s="701" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C39" s="702" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D39" s="703">
+        <v>10211.08</v>
+      </c>
       <c r="E39" s="238"/>
       <c r="F39" s="84"/>
       <c r="G39" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10211.08</v>
       </c>
       <c r="I39" s="235"/>
       <c r="J39" s="236"/>
@@ -38395,14 +38840,20 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="235"/>
-      <c r="C40" s="461"/>
-      <c r="D40" s="237"/>
+      <c r="B40" s="701" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C40" s="702" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D40" s="703">
+        <v>16114.29</v>
+      </c>
       <c r="E40" s="238"/>
       <c r="F40" s="84"/>
       <c r="G40" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16114.29</v>
       </c>
       <c r="I40" s="235"/>
       <c r="J40" s="236"/>
@@ -38415,14 +38866,20 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="235"/>
-      <c r="C41" s="461"/>
-      <c r="D41" s="237"/>
+      <c r="B41" s="699" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C41" s="700" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D41" s="515">
+        <v>10315.6</v>
+      </c>
       <c r="E41" s="238"/>
       <c r="F41" s="84"/>
       <c r="G41" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10315.6</v>
       </c>
       <c r="I41" s="235"/>
       <c r="J41" s="236"/>
@@ -38435,14 +38892,20 @@
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="235"/>
-      <c r="C42" s="461"/>
-      <c r="D42" s="237"/>
+      <c r="B42" s="701" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C42" s="702" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D42" s="703">
+        <v>614.20000000000005</v>
+      </c>
       <c r="E42" s="238"/>
       <c r="F42" s="84"/>
       <c r="G42" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>614.20000000000005</v>
       </c>
       <c r="I42" s="235"/>
       <c r="J42" s="236"/>
@@ -38455,9 +38918,15 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="235"/>
-      <c r="C43" s="461"/>
-      <c r="D43" s="237"/>
+      <c r="B43" s="699" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C43" s="700" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D43" s="515">
+        <v>0</v>
+      </c>
       <c r="E43" s="238"/>
       <c r="F43" s="84"/>
       <c r="G43" s="101">
@@ -38475,14 +38944,20 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="235"/>
-      <c r="C44" s="461"/>
-      <c r="D44" s="237"/>
+      <c r="B44" s="701" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C44" s="702" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D44" s="703">
+        <v>3422</v>
+      </c>
       <c r="E44" s="238"/>
       <c r="F44" s="84"/>
       <c r="G44" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3422</v>
       </c>
       <c r="I44" s="235"/>
       <c r="J44" s="236"/>
@@ -38495,14 +38970,20 @@
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="235"/>
-      <c r="C45" s="461"/>
-      <c r="D45" s="237"/>
+      <c r="B45" s="699" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C45" s="700" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D45" s="515">
+        <v>2997</v>
+      </c>
       <c r="E45" s="238"/>
       <c r="F45" s="84"/>
       <c r="G45" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2997</v>
       </c>
       <c r="I45" s="235"/>
       <c r="J45" s="236"/>
@@ -38515,9 +38996,15 @@
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="235"/>
-      <c r="C46" s="461"/>
-      <c r="D46" s="237"/>
+      <c r="B46" s="701" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C46" s="702" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D46" s="703">
+        <v>0</v>
+      </c>
       <c r="E46" s="238"/>
       <c r="F46" s="84"/>
       <c r="G46" s="101">
@@ -38535,14 +39022,20 @@
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="235"/>
-      <c r="C47" s="461"/>
-      <c r="D47" s="237"/>
+      <c r="B47" s="699" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C47" s="700" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D47" s="515">
+        <v>19438.78</v>
+      </c>
       <c r="E47" s="238"/>
       <c r="F47" s="84"/>
       <c r="G47" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19438.78</v>
       </c>
       <c r="I47" s="239"/>
       <c r="J47" s="544"/>
@@ -38584,10 +39077,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="657" t="s">
+      <c r="I49" s="674" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="658"/>
+      <c r="J49" s="675"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -38606,8 +39099,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="659"/>
-      <c r="J50" s="660"/>
+      <c r="I50" s="676"/>
+      <c r="J50" s="677"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -38626,8 +39119,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="661"/>
-      <c r="J51" s="662"/>
+      <c r="I51" s="678"/>
+      <c r="J51" s="679"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -38903,10 +39396,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="663" t="s">
+      <c r="I65" s="680" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="664"/>
+      <c r="J65" s="681"/>
       <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>0</v>
@@ -38929,8 +39422,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I66" s="672"/>
-      <c r="J66" s="673"/>
+      <c r="I66" s="689"/>
+      <c r="J66" s="690"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -38970,8 +39463,8 @@
       <c r="B69" s="272"/>
       <c r="C69" s="259"/>
       <c r="D69" s="260">
-        <f>SUM(D7:D68)</f>
-        <v>0</v>
+        <f>SUM(D3:D68)</f>
+        <v>919506.72</v>
       </c>
       <c r="E69" s="261"/>
       <c r="F69" s="262">
@@ -38979,8 +39472,8 @@
         <v>0</v>
       </c>
       <c r="G69" s="263">
-        <f>SUM(G7:G68)</f>
-        <v>0</v>
+        <f>SUM(G3:G68)</f>
+        <v>919506.72</v>
       </c>
       <c r="H69" s="233"/>
       <c r="I69" s="300"/>
@@ -38994,7 +39487,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="667" t="s">
+      <c r="G70" s="684" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -39010,7 +39503,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="668"/>
+      <c r="G71" s="685"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="550"/>
@@ -39527,10 +40020,10 @@
   <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -39556,54 +40049,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="639"/>
+      <c r="C1" s="641" t="s">
         <v>1142</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="642"/>
+      <c r="E1" s="642"/>
+      <c r="F1" s="642"/>
+      <c r="G1" s="642"/>
+      <c r="H1" s="642"/>
+      <c r="I1" s="642"/>
+      <c r="J1" s="642"/>
+      <c r="K1" s="642"/>
+      <c r="L1" s="642"/>
+      <c r="M1" s="642"/>
     </row>
     <row r="2" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="648"/>
+      <c r="B2" s="640"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="676" t="s">
+      <c r="J2" s="696" t="s">
         <v>1122</v>
       </c>
-      <c r="K2" s="677"/>
-      <c r="L2" s="677"/>
-      <c r="M2" s="678"/>
+      <c r="K2" s="697"/>
+      <c r="L2" s="697"/>
+      <c r="M2" s="698"/>
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="643" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="644"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="645" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="645"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="637" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="674" t="s">
+      <c r="R3" s="691" t="s">
         <v>3</v>
       </c>
     </row>
@@ -39618,14 +40111,14 @@
       <c r="D4" s="24">
         <v>45198</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="648" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="649"/>
+      <c r="H4" s="650" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="651"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -39635,11 +40128,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="638"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="675"/>
+      <c r="R4" s="692"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -39651,7 +40144,7 @@
       <c r="C5" s="33">
         <v>31066</v>
       </c>
-      <c r="D5" s="679" t="s">
+      <c r="D5" s="618" t="s">
         <v>1144</v>
       </c>
       <c r="E5" s="35">
@@ -39702,33 +40195,41 @@
       <c r="B6" s="32">
         <v>45200</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="680"/>
+      <c r="C6" s="33">
+        <v>12893</v>
+      </c>
+      <c r="D6" s="619" t="s">
+        <v>1146</v>
+      </c>
       <c r="E6" s="35">
         <v>45200</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="36">
+        <v>117177</v>
+      </c>
       <c r="G6" s="37"/>
       <c r="H6" s="38">
         <v>45200</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="39">
+        <v>1439.5</v>
+      </c>
       <c r="J6" s="40"/>
       <c r="K6" s="65"/>
       <c r="L6" s="49"/>
       <c r="M6" s="42">
-        <v>0</v>
+        <v>49300</v>
       </c>
       <c r="N6" s="43">
-        <v>0</v>
+        <v>53549</v>
       </c>
       <c r="P6" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>117181.5</v>
       </c>
       <c r="Q6" s="45">
         <f t="shared" ref="Q6:Q11" si="1">P6-F6</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="R6" s="390">
         <v>0</v>
@@ -39745,29 +40246,38 @@
       <c r="B7" s="32">
         <v>45201</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="681"/>
+      <c r="C7" s="33">
+        <v>14902</v>
+      </c>
+      <c r="D7" s="620" t="s">
+        <v>1215</v>
+      </c>
       <c r="E7" s="35">
         <v>45201</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="36">
+        <v>178843</v>
+      </c>
       <c r="G7" s="37"/>
       <c r="H7" s="38">
         <v>45201</v>
       </c>
-      <c r="I7" s="39"/>
+      <c r="I7" s="39">
+        <v>2161.5</v>
+      </c>
       <c r="J7" s="40"/>
       <c r="K7" s="65"/>
       <c r="L7" s="49"/>
       <c r="M7" s="42">
-        <v>0</v>
+        <f>83243.5+31387</f>
+        <v>114630.5</v>
       </c>
       <c r="N7" s="43">
-        <v>0</v>
+        <v>47149</v>
       </c>
       <c r="P7" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>178843</v>
       </c>
       <c r="Q7" s="45">
         <f t="shared" si="1"/>
@@ -39788,29 +40298,44 @@
       <c r="B8" s="32">
         <v>45202</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="682"/>
+      <c r="C8" s="33">
+        <v>18845</v>
+      </c>
+      <c r="D8" s="621" t="s">
+        <v>1216</v>
+      </c>
       <c r="E8" s="35">
         <v>45202</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="36">
+        <v>186455</v>
+      </c>
       <c r="G8" s="37"/>
       <c r="H8" s="38">
         <v>45202</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="342"/>
-      <c r="L8" s="49"/>
+      <c r="I8" s="39">
+        <v>3401.5</v>
+      </c>
+      <c r="J8" s="52">
+        <v>45202</v>
+      </c>
+      <c r="K8" s="342" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L8" s="49">
+        <v>3953</v>
+      </c>
       <c r="M8" s="42">
-        <v>0</v>
+        <f>95746.5+3345+8800</f>
+        <v>107891.5</v>
       </c>
       <c r="N8" s="43">
-        <v>0</v>
+        <v>52364</v>
       </c>
       <c r="P8" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>186455</v>
       </c>
       <c r="Q8" s="45">
         <f t="shared" si="1"/>
@@ -39832,7 +40357,7 @@
         <v>45203</v>
       </c>
       <c r="C9" s="33"/>
-      <c r="D9" s="682"/>
+      <c r="D9" s="621"/>
       <c r="E9" s="35">
         <v>45203</v>
       </c>
@@ -39875,7 +40400,7 @@
         <v>45204</v>
       </c>
       <c r="C10" s="33"/>
-      <c r="D10" s="681"/>
+      <c r="D10" s="620"/>
       <c r="E10" s="35">
         <v>45204</v>
       </c>
@@ -39918,7 +40443,7 @@
         <v>45205</v>
       </c>
       <c r="C11" s="33"/>
-      <c r="D11" s="680"/>
+      <c r="D11" s="619"/>
       <c r="E11" s="35">
         <v>45205</v>
       </c>
@@ -39961,7 +40486,7 @@
         <v>45206</v>
       </c>
       <c r="C12" s="33"/>
-      <c r="D12" s="680"/>
+      <c r="D12" s="619"/>
       <c r="E12" s="35">
         <v>45206</v>
       </c>
@@ -39986,7 +40511,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="45">
-        <f t="shared" ref="Q9:Q47" si="2">P12-F12</f>
+        <f t="shared" ref="Q12:Q47" si="2">P12-F12</f>
         <v>0</v>
       </c>
       <c r="R12" s="46">
@@ -40005,7 +40530,7 @@
         <v>45207</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="682"/>
+      <c r="D13" s="621"/>
       <c r="E13" s="35">
         <v>45207</v>
       </c>
@@ -40049,7 +40574,7 @@
         <v>45208</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="681"/>
+      <c r="D14" s="620"/>
       <c r="E14" s="35">
         <v>45208</v>
       </c>
@@ -40093,7 +40618,7 @@
         <v>45209</v>
       </c>
       <c r="C15" s="33"/>
-      <c r="D15" s="681"/>
+      <c r="D15" s="620"/>
       <c r="E15" s="35">
         <v>45209</v>
       </c>
@@ -40136,7 +40661,7 @@
         <v>45210</v>
       </c>
       <c r="C16" s="33"/>
-      <c r="D16" s="681"/>
+      <c r="D16" s="620"/>
       <c r="E16" s="35">
         <v>45210</v>
       </c>
@@ -40181,7 +40706,7 @@
         <v>45211</v>
       </c>
       <c r="C17" s="33"/>
-      <c r="D17" s="680"/>
+      <c r="D17" s="619"/>
       <c r="E17" s="35">
         <v>45211</v>
       </c>
@@ -40225,7 +40750,7 @@
         <v>45212</v>
       </c>
       <c r="C18" s="33"/>
-      <c r="D18" s="682"/>
+      <c r="D18" s="621"/>
       <c r="E18" s="35">
         <v>45212</v>
       </c>
@@ -40268,7 +40793,7 @@
         <v>45213</v>
       </c>
       <c r="C19" s="33"/>
-      <c r="D19" s="680"/>
+      <c r="D19" s="619"/>
       <c r="E19" s="35">
         <v>45213</v>
       </c>
@@ -40312,7 +40837,7 @@
         <v>45214</v>
       </c>
       <c r="C20" s="33"/>
-      <c r="D20" s="680"/>
+      <c r="D20" s="619"/>
       <c r="E20" s="35">
         <v>45214</v>
       </c>
@@ -40355,7 +40880,7 @@
         <v>45215</v>
       </c>
       <c r="C21" s="33"/>
-      <c r="D21" s="680"/>
+      <c r="D21" s="619"/>
       <c r="E21" s="35">
         <v>45215</v>
       </c>
@@ -40395,7 +40920,7 @@
         <v>45216</v>
       </c>
       <c r="C22" s="33"/>
-      <c r="D22" s="680"/>
+      <c r="D22" s="619"/>
       <c r="E22" s="35">
         <v>45216</v>
       </c>
@@ -40406,7 +40931,7 @@
       </c>
       <c r="I22" s="359"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="683"/>
+      <c r="K22" s="622"/>
       <c r="L22" s="62"/>
       <c r="M22" s="42">
         <v>0</v>
@@ -40435,7 +40960,7 @@
         <v>45217</v>
       </c>
       <c r="C23" s="33"/>
-      <c r="D23" s="680"/>
+      <c r="D23" s="619"/>
       <c r="E23" s="35">
         <v>45217</v>
       </c>
@@ -40475,7 +41000,7 @@
         <v>45218</v>
       </c>
       <c r="C24" s="33"/>
-      <c r="D24" s="682"/>
+      <c r="D24" s="621"/>
       <c r="E24" s="35">
         <v>45218</v>
       </c>
@@ -40515,7 +41040,7 @@
         <v>45219</v>
       </c>
       <c r="C25" s="33"/>
-      <c r="D25" s="680"/>
+      <c r="D25" s="619"/>
       <c r="E25" s="35">
         <v>45219</v>
       </c>
@@ -40555,7 +41080,7 @@
         <v>45220</v>
       </c>
       <c r="C26" s="33"/>
-      <c r="D26" s="680"/>
+      <c r="D26" s="619"/>
       <c r="E26" s="35">
         <v>45220</v>
       </c>
@@ -40600,7 +41125,7 @@
         <v>45221</v>
       </c>
       <c r="C27" s="33"/>
-      <c r="D27" s="682"/>
+      <c r="D27" s="621"/>
       <c r="E27" s="35">
         <v>45221</v>
       </c>
@@ -40640,7 +41165,7 @@
         <v>45222</v>
       </c>
       <c r="C28" s="33"/>
-      <c r="D28" s="682"/>
+      <c r="D28" s="621"/>
       <c r="E28" s="35">
         <v>45222</v>
       </c>
@@ -40680,7 +41205,7 @@
         <v>45223</v>
       </c>
       <c r="C29" s="33"/>
-      <c r="D29" s="684"/>
+      <c r="D29" s="623"/>
       <c r="E29" s="35">
         <v>45223</v>
       </c>
@@ -40720,7 +41245,7 @@
         <v>45224</v>
       </c>
       <c r="C30" s="33"/>
-      <c r="D30" s="684"/>
+      <c r="D30" s="623"/>
       <c r="E30" s="35">
         <v>45224</v>
       </c>
@@ -40760,7 +41285,7 @@
         <v>45225</v>
       </c>
       <c r="C31" s="33"/>
-      <c r="D31" s="685"/>
+      <c r="D31" s="624"/>
       <c r="E31" s="35">
         <v>45225</v>
       </c>
@@ -40799,7 +41324,7 @@
         <v>45226</v>
       </c>
       <c r="C32" s="33"/>
-      <c r="D32" s="686"/>
+      <c r="D32" s="625"/>
       <c r="E32" s="35">
         <v>45226</v>
       </c>
@@ -40837,7 +41362,7 @@
       <c r="A33" s="504"/>
       <c r="B33" s="32"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="687"/>
+      <c r="D33" s="626"/>
       <c r="E33" s="35"/>
       <c r="F33" s="36"/>
       <c r="G33" s="37"/>
@@ -40868,7 +41393,7 @@
       <c r="A34" s="504"/>
       <c r="B34" s="32"/>
       <c r="C34" s="33"/>
-      <c r="D34" s="687"/>
+      <c r="D34" s="626"/>
       <c r="E34" s="35"/>
       <c r="F34" s="36"/>
       <c r="G34" s="37"/>
@@ -40907,7 +41432,7 @@
       <c r="A35" s="504"/>
       <c r="B35" s="32"/>
       <c r="C35" s="86"/>
-      <c r="D35" s="685"/>
+      <c r="D35" s="624"/>
       <c r="E35" s="35"/>
       <c r="F35" s="36"/>
       <c r="G35" s="37"/>
@@ -40937,7 +41462,7 @@
       <c r="A36" s="504"/>
       <c r="B36" s="32"/>
       <c r="C36" s="90"/>
-      <c r="D36" s="688"/>
+      <c r="D36" s="627"/>
       <c r="E36" s="35"/>
       <c r="F36" s="36"/>
       <c r="G36" s="37"/>
@@ -40967,7 +41492,7 @@
       <c r="A37" s="504"/>
       <c r="B37" s="32"/>
       <c r="C37" s="93"/>
-      <c r="D37" s="688"/>
+      <c r="D37" s="627"/>
       <c r="E37" s="35"/>
       <c r="F37" s="36"/>
       <c r="G37" s="37"/>
@@ -40997,7 +41522,7 @@
       <c r="A38" s="504"/>
       <c r="B38" s="32"/>
       <c r="C38" s="93"/>
-      <c r="D38" s="688"/>
+      <c r="D38" s="627"/>
       <c r="E38" s="35"/>
       <c r="F38" s="36"/>
       <c r="G38" s="37"/>
@@ -41027,7 +41552,7 @@
       <c r="A39" s="504"/>
       <c r="B39" s="32"/>
       <c r="C39" s="93"/>
-      <c r="D39" s="688"/>
+      <c r="D39" s="627"/>
       <c r="E39" s="35"/>
       <c r="F39" s="97"/>
       <c r="G39" s="37"/>
@@ -41057,7 +41582,7 @@
       <c r="A40" s="504"/>
       <c r="B40" s="32"/>
       <c r="C40" s="93"/>
-      <c r="D40" s="688"/>
+      <c r="D40" s="627"/>
       <c r="E40" s="35"/>
       <c r="F40" s="97"/>
       <c r="G40" s="37"/>
@@ -41087,7 +41612,7 @@
       <c r="A41" s="31"/>
       <c r="B41" s="32"/>
       <c r="C41" s="93"/>
-      <c r="D41" s="689"/>
+      <c r="D41" s="628"/>
       <c r="E41" s="35"/>
       <c r="F41" s="97"/>
       <c r="G41" s="37"/>
@@ -41118,7 +41643,7 @@
       <c r="A42" s="31"/>
       <c r="B42" s="32"/>
       <c r="C42" s="93"/>
-      <c r="D42" s="689"/>
+      <c r="D42" s="628"/>
       <c r="E42" s="35"/>
       <c r="F42" s="97"/>
       <c r="G42" s="37"/>
@@ -41148,7 +41673,7 @@
       <c r="A43" s="31"/>
       <c r="B43" s="32"/>
       <c r="C43" s="93"/>
-      <c r="D43" s="690"/>
+      <c r="D43" s="629"/>
       <c r="E43" s="35"/>
       <c r="F43" s="97"/>
       <c r="G43" s="37"/>
@@ -41178,7 +41703,7 @@
       <c r="A44" s="31"/>
       <c r="B44" s="32"/>
       <c r="C44" s="93"/>
-      <c r="D44" s="689"/>
+      <c r="D44" s="628"/>
       <c r="E44" s="35"/>
       <c r="F44" s="97"/>
       <c r="G44" s="37"/>
@@ -41208,7 +41733,7 @@
       <c r="A45" s="31"/>
       <c r="B45" s="32"/>
       <c r="C45" s="93"/>
-      <c r="D45" s="691"/>
+      <c r="D45" s="630"/>
       <c r="E45" s="35"/>
       <c r="F45" s="97"/>
       <c r="G45" s="37"/>
@@ -41238,7 +41763,7 @@
       <c r="A46" s="31"/>
       <c r="B46" s="32"/>
       <c r="C46" s="93"/>
-      <c r="D46" s="691"/>
+      <c r="D46" s="630"/>
       <c r="E46" s="35"/>
       <c r="F46" s="97"/>
       <c r="G46" s="37"/>
@@ -41268,14 +41793,14 @@
       <c r="A47" s="31"/>
       <c r="B47" s="32"/>
       <c r="C47" s="93"/>
-      <c r="D47" s="691"/>
+      <c r="D47" s="630"/>
       <c r="E47" s="104"/>
-      <c r="F47" s="692"/>
+      <c r="F47" s="631"/>
       <c r="G47" s="37"/>
       <c r="H47" s="38"/>
       <c r="I47" s="103"/>
       <c r="J47" s="340"/>
-      <c r="K47" s="693"/>
+      <c r="K47" s="632"/>
       <c r="L47" s="49"/>
       <c r="M47" s="42">
         <v>0</v>
@@ -41298,9 +41823,9 @@
       <c r="A48" s="31"/>
       <c r="B48" s="32"/>
       <c r="C48" s="93"/>
-      <c r="D48" s="694"/>
+      <c r="D48" s="633"/>
       <c r="E48" s="104"/>
-      <c r="F48" s="692"/>
+      <c r="F48" s="631"/>
       <c r="G48" s="37"/>
       <c r="H48" s="38"/>
       <c r="I48" s="103"/>
@@ -41323,30 +41848,30 @@
       <c r="A49" s="31"/>
       <c r="B49" s="32"/>
       <c r="C49" s="93"/>
-      <c r="D49" s="691"/>
+      <c r="D49" s="630"/>
       <c r="E49" s="104"/>
-      <c r="F49" s="695"/>
+      <c r="F49" s="634"/>
       <c r="G49" s="37"/>
       <c r="H49" s="38"/>
       <c r="I49" s="103"/>
       <c r="J49" s="338"/>
       <c r="K49" s="471"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="629">
+      <c r="M49" s="657">
         <f>SUM(M5:M40)</f>
-        <v>49811.5</v>
-      </c>
-      <c r="N49" s="629">
+        <v>321633.5</v>
+      </c>
+      <c r="N49" s="657">
         <f>SUM(N5:N40)</f>
-        <v>85345</v>
+        <v>238407</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>198467</v>
-      </c>
-      <c r="Q49" s="641">
+        <v>680946.5</v>
+      </c>
+      <c r="Q49" s="669">
         <f>SUM(Q5:Q40)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -41356,19 +41881,19 @@
       <c r="A50" s="31"/>
       <c r="B50" s="32"/>
       <c r="C50" s="93"/>
-      <c r="D50" s="691"/>
+      <c r="D50" s="630"/>
       <c r="E50" s="104"/>
-      <c r="F50" s="695"/>
+      <c r="F50" s="634"/>
       <c r="G50" s="37"/>
       <c r="H50" s="106"/>
       <c r="I50" s="103"/>
       <c r="J50" s="338"/>
       <c r="K50" s="343"/>
       <c r="L50" s="49"/>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="658"/>
+      <c r="N50" s="658"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="670"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>5952</v>
@@ -41378,9 +41903,9 @@
       <c r="A51" s="31"/>
       <c r="B51" s="32"/>
       <c r="C51" s="93"/>
-      <c r="D51" s="691"/>
+      <c r="D51" s="630"/>
       <c r="E51" s="104"/>
-      <c r="F51" s="695"/>
+      <c r="F51" s="634"/>
       <c r="G51" s="37"/>
       <c r="H51" s="106"/>
       <c r="I51" s="103"/>
@@ -41396,9 +41921,9 @@
       <c r="A52" s="31"/>
       <c r="B52" s="32"/>
       <c r="C52" s="93"/>
-      <c r="D52" s="691"/>
+      <c r="D52" s="630"/>
       <c r="E52" s="104"/>
-      <c r="F52" s="695"/>
+      <c r="F52" s="634"/>
       <c r="G52" s="37"/>
       <c r="H52" s="106"/>
       <c r="I52" s="103"/>
@@ -41414,20 +41939,20 @@
       <c r="A53" s="31"/>
       <c r="B53" s="32"/>
       <c r="C53" s="93"/>
-      <c r="D53" s="691"/>
+      <c r="D53" s="630"/>
       <c r="E53" s="104"/>
-      <c r="F53" s="695"/>
+      <c r="F53" s="634"/>
       <c r="G53" s="37"/>
       <c r="H53" s="106"/>
       <c r="I53" s="103"/>
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="643">
+      <c r="M53" s="635">
         <f>M49+N49</f>
-        <v>135156.5</v>
-      </c>
-      <c r="N53" s="644"/>
+        <v>560040.5</v>
+      </c>
+      <c r="N53" s="636"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41435,9 +41960,9 @@
       <c r="A54" s="31"/>
       <c r="B54" s="32"/>
       <c r="C54" s="93"/>
-      <c r="D54" s="691"/>
+      <c r="D54" s="630"/>
       <c r="E54" s="104"/>
-      <c r="F54" s="695"/>
+      <c r="F54" s="634"/>
       <c r="G54" s="37"/>
       <c r="H54" s="106"/>
       <c r="I54" s="103"/>
@@ -41888,7 +42413,7 @@
       </c>
       <c r="C79" s="519">
         <f>SUM(C5:C78)</f>
-        <v>31066</v>
+        <v>77706</v>
       </c>
       <c r="D79" s="520"/>
       <c r="E79" s="521" t="s">
@@ -41896,7 +42421,7 @@
       </c>
       <c r="F79" s="522">
         <f>SUM(F5:F61)</f>
-        <v>193765</v>
+        <v>676240</v>
       </c>
       <c r="G79" s="523"/>
       <c r="H79" s="521" t="s">
@@ -41904,7 +42429,7 @@
       </c>
       <c r="I79" s="524">
         <f>SUM(I5:I61)</f>
-        <v>6563.5</v>
+        <v>13566</v>
       </c>
       <c r="J79" s="525"/>
       <c r="K79" s="526" t="s">
@@ -41912,7 +42437,7 @@
       </c>
       <c r="L79" s="527">
         <f>SUM(L5:L77)-L26</f>
-        <v>50192</v>
+        <v>54145</v>
       </c>
       <c r="M79" s="150"/>
       <c r="N79" s="150"/>
@@ -41930,50 +42455,50 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="637" t="s">
+      <c r="H81" s="665" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="638"/>
+      <c r="I81" s="666"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="639">
+      <c r="K81" s="667">
         <f>I79+L79</f>
-        <v>56755.5</v>
-      </c>
-      <c r="L81" s="640"/>
+        <v>67711</v>
+      </c>
+      <c r="L81" s="668"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="631" t="s">
+      <c r="D82" s="659" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="631"/>
+      <c r="E82" s="659"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
-        <v>105943.5</v>
+        <v>530823</v>
       </c>
       <c r="I82" s="157"/>
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="632" t="s">
+      <c r="D83" s="660" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="632"/>
+      <c r="E83" s="660"/>
       <c r="F83" s="101">
         <v>0</v>
       </c>
-      <c r="I83" s="633" t="s">
+      <c r="I83" s="661" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="634"/>
-      <c r="K83" s="635">
+      <c r="J83" s="662"/>
+      <c r="K83" s="663">
         <f>F85+F86+F87</f>
-        <v>3879446.9</v>
-      </c>
-      <c r="L83" s="635"/>
+        <v>4304326.4000000004</v>
+      </c>
+      <c r="L83" s="663"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -42007,18 +42532,18 @@
       </c>
       <c r="F85" s="150">
         <f>SUM(F82:F84)</f>
-        <v>105943.5</v>
+        <v>530823</v>
       </c>
       <c r="H85" s="168"/>
       <c r="I85" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="636">
+      <c r="K85" s="664">
         <f>-C4</f>
         <v>-3340512.21</v>
       </c>
-      <c r="L85" s="635"/>
+      <c r="L85" s="663"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -42036,20 +42561,20 @@
       <c r="C87" s="172">
         <v>45226</v>
       </c>
-      <c r="D87" s="624" t="s">
+      <c r="D87" s="652" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="625"/>
+      <c r="E87" s="653"/>
       <c r="F87" s="173">
         <v>3773503.4</v>
       </c>
-      <c r="I87" s="626"/>
-      <c r="J87" s="627"/>
-      <c r="K87" s="628">
+      <c r="I87" s="654"/>
+      <c r="J87" s="655"/>
+      <c r="K87" s="656">
         <f>K83+K85</f>
-        <v>538934.68999999994</v>
-      </c>
-      <c r="L87" s="628"/>
+        <v>963814.19000000041</v>
+      </c>
+      <c r="L87" s="656"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -42194,6 +42719,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="K85:L85"/>
     <mergeCell ref="D87:E87"/>
     <mergeCell ref="I87:J87"/>
@@ -42205,18 +42742,6 @@
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="I83:J83"/>
     <mergeCell ref="K83:L83"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -43592,10 +44117,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="654"/>
-      <c r="J36" s="655"/>
-      <c r="K36" s="655"/>
-      <c r="L36" s="656"/>
+      <c r="I36" s="671"/>
+      <c r="J36" s="672"/>
+      <c r="K36" s="672"/>
+      <c r="L36" s="673"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -43622,10 +44147,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="654"/>
-      <c r="J37" s="655"/>
-      <c r="K37" s="655"/>
-      <c r="L37" s="656"/>
+      <c r="I37" s="671"/>
+      <c r="J37" s="672"/>
+      <c r="K37" s="672"/>
+      <c r="L37" s="673"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -43682,10 +44207,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="657" t="s">
+      <c r="I40" s="674" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="658"/>
+      <c r="J40" s="675"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -43704,8 +44229,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="659"/>
-      <c r="J41" s="660"/>
+      <c r="I41" s="676"/>
+      <c r="J41" s="677"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -43724,8 +44249,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="661"/>
-      <c r="J42" s="662"/>
+      <c r="I42" s="678"/>
+      <c r="J42" s="679"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -44229,10 +44754,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="663" t="s">
+      <c r="I67" s="680" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="664"/>
+      <c r="J67" s="681"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -44252,11 +44777,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="667" t="s">
+      <c r="G68" s="684" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="665"/>
-      <c r="J68" s="666"/>
+      <c r="I68" s="682"/>
+      <c r="J68" s="683"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -44267,7 +44792,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="668"/>
+      <c r="G69" s="685"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -44869,7 +45394,7 @@
   <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -45896,10 +46421,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="657" t="s">
+      <c r="I49" s="674" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="658"/>
+      <c r="J49" s="675"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -45918,8 +46443,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="659"/>
-      <c r="J50" s="660"/>
+      <c r="I50" s="676"/>
+      <c r="J50" s="677"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -45938,8 +46463,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="661"/>
-      <c r="J51" s="662"/>
+      <c r="I51" s="678"/>
+      <c r="J51" s="679"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -46215,10 +46740,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="663" t="s">
+      <c r="I65" s="680" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="664"/>
+      <c r="J65" s="681"/>
       <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>0</v>
@@ -46241,8 +46766,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I66" s="672"/>
-      <c r="J66" s="673"/>
+      <c r="I66" s="689"/>
+      <c r="J66" s="690"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -46306,7 +46831,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="667" t="s">
+      <c r="G70" s="684" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -46322,7 +46847,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="668"/>
+      <c r="G71" s="685"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="550"/>
@@ -46891,23 +47416,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="639"/>
+      <c r="C1" s="641" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="642"/>
+      <c r="E1" s="642"/>
+      <c r="F1" s="642"/>
+      <c r="G1" s="642"/>
+      <c r="H1" s="642"/>
+      <c r="I1" s="642"/>
+      <c r="J1" s="642"/>
+      <c r="K1" s="642"/>
+      <c r="L1" s="642"/>
+      <c r="M1" s="642"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="640"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -46917,24 +47442,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="643" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="644"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="645" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="645"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="637" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="618" t="s">
+      <c r="R3" s="646" t="s">
         <v>3</v>
       </c>
     </row>
@@ -46949,14 +47474,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="648" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="649"/>
+      <c r="H4" s="650" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="651"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -46966,11 +47491,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="638"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="619"/>
+      <c r="R4" s="647"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -48946,11 +49471,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="657">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="657">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -48958,7 +49483,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="669">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -48991,10 +49516,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="658"/>
+      <c r="N50" s="658"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="670"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -49085,11 +49610,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="635">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="636"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -49648,26 +50173,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="637" t="s">
+      <c r="H77" s="665" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="638"/>
+      <c r="I77" s="666"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="639">
+      <c r="K77" s="667">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="640"/>
+      <c r="L77" s="668"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="631" t="s">
+      <c r="D78" s="659" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="631"/>
+      <c r="E78" s="659"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -49676,22 +50201,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="632" t="s">
+      <c r="D79" s="660" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="632"/>
+      <c r="E79" s="660"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="633" t="s">
+      <c r="I79" s="661" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="634"/>
-      <c r="K79" s="635">
+      <c r="J79" s="662"/>
+      <c r="K79" s="663">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="635"/>
+      <c r="L79" s="663"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -49732,11 +50257,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="636">
+      <c r="K81" s="664">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="635"/>
+      <c r="L81" s="663"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -49753,22 +50278,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="624" t="s">
+      <c r="D83" s="652" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="625"/>
+      <c r="E83" s="653"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="669" t="s">
+      <c r="I83" s="686" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="670"/>
-      <c r="K83" s="671">
+      <c r="J83" s="687"/>
+      <c r="K83" s="688">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="671"/>
+      <c r="L83" s="688"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -49915,6 +50440,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -49931,12 +50462,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51348,10 +51873,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="654"/>
-      <c r="J36" s="655"/>
-      <c r="K36" s="655"/>
-      <c r="L36" s="656"/>
+      <c r="I36" s="671"/>
+      <c r="J36" s="672"/>
+      <c r="K36" s="672"/>
+      <c r="L36" s="673"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -51378,10 +51903,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="654"/>
-      <c r="J37" s="655"/>
-      <c r="K37" s="655"/>
-      <c r="L37" s="656"/>
+      <c r="I37" s="671"/>
+      <c r="J37" s="672"/>
+      <c r="K37" s="672"/>
+      <c r="L37" s="673"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -51448,10 +51973,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="657" t="s">
+      <c r="I40" s="674" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="658"/>
+      <c r="J40" s="675"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -51470,8 +51995,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="659"/>
-      <c r="J41" s="660"/>
+      <c r="I41" s="676"/>
+      <c r="J41" s="677"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -51490,8 +52015,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="661"/>
-      <c r="J42" s="662"/>
+      <c r="I42" s="678"/>
+      <c r="J42" s="679"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -51995,10 +52520,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="663" t="s">
+      <c r="I67" s="680" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="664"/>
+      <c r="J67" s="681"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -52018,11 +52543,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="667" t="s">
+      <c r="G68" s="684" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="672"/>
-      <c r="J68" s="673"/>
+      <c r="I68" s="689"/>
+      <c r="J68" s="690"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -52033,7 +52558,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="668"/>
+      <c r="G69" s="685"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -52648,23 +53173,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="639"/>
+      <c r="C1" s="641" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="642"/>
+      <c r="E1" s="642"/>
+      <c r="F1" s="642"/>
+      <c r="G1" s="642"/>
+      <c r="H1" s="642"/>
+      <c r="I1" s="642"/>
+      <c r="J1" s="642"/>
+      <c r="K1" s="642"/>
+      <c r="L1" s="642"/>
+      <c r="M1" s="642"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="640"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -52674,24 +53199,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="643" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="644"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="645" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="645"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="637" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="674" t="s">
+      <c r="R3" s="691" t="s">
         <v>3</v>
       </c>
     </row>
@@ -52706,14 +53231,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="648" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="649"/>
+      <c r="H4" s="650" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="651"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -52723,11 +53248,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="638"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="675"/>
+      <c r="R4" s="692"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -54708,11 +55233,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="657">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="657">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -54720,7 +55245,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="669">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -54753,10 +55278,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="658"/>
+      <c r="N50" s="658"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="670"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -54847,11 +55372,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="635">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="636"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -55330,26 +55855,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="637" t="s">
+      <c r="H77" s="665" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="638"/>
+      <c r="I77" s="666"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="639">
+      <c r="K77" s="667">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="640"/>
+      <c r="L77" s="668"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="631" t="s">
+      <c r="D78" s="659" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="631"/>
+      <c r="E78" s="659"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -55358,22 +55883,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="632" t="s">
+      <c r="D79" s="660" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="632"/>
+      <c r="E79" s="660"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="633" t="s">
+      <c r="I79" s="661" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="634"/>
-      <c r="K79" s="635">
+      <c r="J79" s="662"/>
+      <c r="K79" s="663">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="635"/>
+      <c r="L79" s="663"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -55414,11 +55939,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="636">
+      <c r="K81" s="664">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="635"/>
+      <c r="L81" s="663"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -55435,22 +55960,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="624" t="s">
+      <c r="D83" s="652" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="625"/>
+      <c r="E83" s="653"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="626" t="s">
+      <c r="I83" s="654" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="627"/>
-      <c r="K83" s="628">
+      <c r="J83" s="655"/>
+      <c r="K83" s="656">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="628"/>
+      <c r="L83" s="656"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -55597,12 +56122,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -55619,6 +56138,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -56921,10 +57446,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="654"/>
-      <c r="J36" s="655"/>
-      <c r="K36" s="655"/>
-      <c r="L36" s="656"/>
+      <c r="I36" s="671"/>
+      <c r="J36" s="672"/>
+      <c r="K36" s="672"/>
+      <c r="L36" s="673"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -56941,10 +57466,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="654"/>
-      <c r="J37" s="655"/>
-      <c r="K37" s="655"/>
-      <c r="L37" s="656"/>
+      <c r="I37" s="671"/>
+      <c r="J37" s="672"/>
+      <c r="K37" s="672"/>
+      <c r="L37" s="673"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -57001,10 +57526,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="657" t="s">
+      <c r="I40" s="674" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="658"/>
+      <c r="J40" s="675"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -57023,8 +57548,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="659"/>
-      <c r="J41" s="660"/>
+      <c r="I41" s="676"/>
+      <c r="J41" s="677"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -57043,8 +57568,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="661"/>
-      <c r="J42" s="662"/>
+      <c r="I42" s="678"/>
+      <c r="J42" s="679"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -57548,10 +58073,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="663" t="s">
+      <c r="I67" s="680" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="664"/>
+      <c r="J67" s="681"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -57571,11 +58096,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="667" t="s">
+      <c r="G68" s="684" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="672"/>
-      <c r="J68" s="673"/>
+      <c r="I68" s="689"/>
+      <c r="J68" s="690"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -57586,7 +58111,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="668"/>
+      <c r="G69" s="685"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -58192,23 +58717,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="639"/>
+      <c r="C1" s="641" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="642"/>
+      <c r="E1" s="642"/>
+      <c r="F1" s="642"/>
+      <c r="G1" s="642"/>
+      <c r="H1" s="642"/>
+      <c r="I1" s="642"/>
+      <c r="J1" s="642"/>
+      <c r="K1" s="642"/>
+      <c r="L1" s="642"/>
+      <c r="M1" s="642"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="640"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -58218,24 +58743,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="643" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="644"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="645" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="645"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="637" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="674" t="s">
+      <c r="R3" s="691" t="s">
         <v>3</v>
       </c>
     </row>
@@ -58250,14 +58775,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="648" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="649"/>
+      <c r="H4" s="650" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="651"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -58267,11 +58792,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="638"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="675"/>
+      <c r="R4" s="692"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -60292,11 +60817,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="657">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="657">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -60304,7 +60829,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="669">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -60331,10 +60856,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="658"/>
+      <c r="N50" s="658"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="670"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -60408,11 +60933,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="643">
+      <c r="M53" s="635">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="636"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -61041,26 +61566,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="637" t="s">
+      <c r="H79" s="665" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="638"/>
+      <c r="I79" s="666"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="639">
+      <c r="K79" s="667">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="640"/>
+      <c r="L79" s="668"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="631" t="s">
+      <c r="D80" s="659" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="631"/>
+      <c r="E80" s="659"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -61069,22 +61594,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="632" t="s">
+      <c r="D81" s="660" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="632"/>
+      <c r="E81" s="660"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="633" t="s">
+      <c r="I81" s="661" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="634"/>
-      <c r="K81" s="635">
+      <c r="J81" s="662"/>
+      <c r="K81" s="663">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="635"/>
+      <c r="L81" s="663"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -61125,11 +61650,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="636">
+      <c r="K83" s="664">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="635"/>
+      <c r="L83" s="663"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -61146,22 +61671,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="624" t="s">
+      <c r="D85" s="652" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="625"/>
+      <c r="E85" s="653"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="626" t="s">
+      <c r="I85" s="654" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="627"/>
-      <c r="K85" s="628">
+      <c r="J85" s="655"/>
+      <c r="K85" s="656">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="628"/>
+      <c r="L85" s="656"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -61309,6 +61834,12 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -61325,12 +61856,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -62650,10 +63175,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="654"/>
-      <c r="J36" s="655"/>
-      <c r="K36" s="655"/>
-      <c r="L36" s="656"/>
+      <c r="I36" s="671"/>
+      <c r="J36" s="672"/>
+      <c r="K36" s="672"/>
+      <c r="L36" s="673"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -62676,10 +63201,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="654"/>
-      <c r="J37" s="655"/>
-      <c r="K37" s="655"/>
-      <c r="L37" s="656"/>
+      <c r="I37" s="671"/>
+      <c r="J37" s="672"/>
+      <c r="K37" s="672"/>
+      <c r="L37" s="673"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -62754,10 +63279,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="657" t="s">
+      <c r="I40" s="674" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="658"/>
+      <c r="J40" s="675"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -62782,8 +63307,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="659"/>
-      <c r="J41" s="660"/>
+      <c r="I41" s="676"/>
+      <c r="J41" s="677"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -62808,8 +63333,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="661"/>
-      <c r="J42" s="662"/>
+      <c r="I42" s="678"/>
+      <c r="J42" s="679"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -63331,10 +63856,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="663" t="s">
+      <c r="I67" s="680" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="664"/>
+      <c r="J67" s="681"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -63354,11 +63879,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="667" t="s">
+      <c r="G68" s="684" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="672"/>
-      <c r="J68" s="673"/>
+      <c r="I68" s="689"/>
+      <c r="J68" s="690"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -63369,7 +63894,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="668"/>
+      <c r="G69" s="685"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -63985,23 +64510,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="639"/>
+      <c r="C1" s="641" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="642"/>
+      <c r="E1" s="642"/>
+      <c r="F1" s="642"/>
+      <c r="G1" s="642"/>
+      <c r="H1" s="642"/>
+      <c r="I1" s="642"/>
+      <c r="J1" s="642"/>
+      <c r="K1" s="642"/>
+      <c r="L1" s="642"/>
+      <c r="M1" s="642"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="640"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -64011,27 +64536,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="643" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="644"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="645" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="645"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="637" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="674" t="s">
+      <c r="R3" s="691" t="s">
         <v>3</v>
       </c>
     </row>
@@ -64046,14 +64571,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="648" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="649"/>
+      <c r="H4" s="650" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="651"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -64063,11 +64588,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="638"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="675"/>
+      <c r="R4" s="692"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -66070,11 +66595,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="657">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="657">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -66082,7 +66607,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="669">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -66115,10 +66640,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="658"/>
+      <c r="N50" s="658"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="670"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -66197,11 +66722,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="635">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="636"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -66680,26 +67205,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="637" t="s">
+      <c r="H77" s="665" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="638"/>
+      <c r="I77" s="666"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="639">
+      <c r="K77" s="667">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="640"/>
+      <c r="L77" s="668"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="631" t="s">
+      <c r="D78" s="659" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="631"/>
+      <c r="E78" s="659"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -66708,22 +67233,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="632" t="s">
+      <c r="D79" s="660" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="632"/>
+      <c r="E79" s="660"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="633" t="s">
+      <c r="I79" s="661" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="634"/>
-      <c r="K79" s="635">
+      <c r="J79" s="662"/>
+      <c r="K79" s="663">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="635"/>
+      <c r="L79" s="663"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -66764,11 +67289,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="636">
+      <c r="K81" s="664">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="635"/>
+      <c r="L81" s="663"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -66785,22 +67310,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="624" t="s">
+      <c r="D83" s="652" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="625"/>
+      <c r="E83" s="653"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="669" t="s">
+      <c r="I83" s="686" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="670"/>
-      <c r="K83" s="671">
+      <c r="J83" s="687"/>
+      <c r="K83" s="688">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="671"/>
+      <c r="L83" s="688"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -66948,12 +67473,6 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -66970,6 +67489,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #10 OCTUBRE 2023/BALANCE  ZAVALETA   OCTUBRE  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #10 OCTUBRE 2023/BALANCE  ZAVALETA   OCTUBRE  2023.xlsx
@@ -793,7 +793,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="1231">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4447,6 +4447,45 @@
   </si>
   <si>
     <t xml:space="preserve">Vacaciones Juana </t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-SALCHICHA-CEBOLLA</t>
+  </si>
+  <si>
+    <t>CHICHARRON--POLLO-QUESILLO-RIB-EYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TURNOS</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-PASTOR--LONGANIZA-SALCHICHA</t>
+  </si>
+  <si>
+    <t>Proteccion civil-</t>
+  </si>
+  <si>
+    <t>POLLO-CHICHARRON-ATES-MOLE-SALCHICHA</t>
+  </si>
+  <si>
+    <t>NOMINA # 40</t>
+  </si>
+  <si>
+    <t>QUESOS-TOCINETA-CHISTORRA-PEPERONI</t>
+  </si>
+  <si>
+    <t>QUESOS-PASTOR-JAMONES-POSTRES-POLLO-CHICHARRON-SALCHICHA-CHORIZO</t>
+  </si>
+  <si>
+    <t>BIMBO-POLLO-PASTOR-QUESOS-CHORIZO-CHICHARRON-ZORAYDA</t>
+  </si>
+  <si>
+    <t>CHICHARRON--POLLO-QUESILLO-ARABE-SALCHICHAS</t>
+  </si>
+  <si>
+    <t>QUESOS-POSTRES-POLLO-LONGANIZA</t>
+  </si>
+  <si>
+    <t>Vacaciones Daniela--KAREN</t>
   </si>
 </sst>
 </file>
@@ -6224,7 +6263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="704">
+  <cellXfs count="706">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7440,39 +7479,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7547,6 +7562,39 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7632,15 +7680,12 @@
     <xf numFmtId="165" fontId="17" fillId="25" borderId="93" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="22" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -12352,23 +12397,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="639"/>
-      <c r="C1" s="641" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="671" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="642"/>
-      <c r="E1" s="642"/>
-      <c r="F1" s="642"/>
-      <c r="G1" s="642"/>
-      <c r="H1" s="642"/>
-      <c r="I1" s="642"/>
-      <c r="J1" s="642"/>
-      <c r="K1" s="642"/>
-      <c r="L1" s="642"/>
-      <c r="M1" s="642"/>
+      <c r="D1" s="672"/>
+      <c r="E1" s="672"/>
+      <c r="F1" s="672"/>
+      <c r="G1" s="672"/>
+      <c r="H1" s="672"/>
+      <c r="I1" s="672"/>
+      <c r="J1" s="672"/>
+      <c r="K1" s="672"/>
+      <c r="L1" s="672"/>
+      <c r="M1" s="672"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="640"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -12378,24 +12423,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="643" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="644"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="645" t="s">
+      <c r="H3" s="675" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="645"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="637" t="s">
+      <c r="P3" s="667" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="646" t="s">
+      <c r="R3" s="640" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12410,14 +12455,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="648" t="s">
+      <c r="E4" s="642" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="649"/>
-      <c r="H4" s="650" t="s">
+      <c r="F4" s="643"/>
+      <c r="H4" s="644" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="651"/>
+      <c r="I4" s="645"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -12427,11 +12472,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="638"/>
+      <c r="P4" s="668"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="647"/>
+      <c r="R4" s="641"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -14266,11 +14311,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="657">
+      <c r="M49" s="651">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="657">
+      <c r="N49" s="651">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -14278,7 +14323,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="669">
+      <c r="Q49" s="663">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -14299,10 +14344,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="658"/>
-      <c r="N50" s="658"/>
+      <c r="M50" s="652"/>
+      <c r="N50" s="652"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="670"/>
+      <c r="Q50" s="664"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -14357,11 +14402,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="635">
+      <c r="M53" s="665">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="636"/>
+      <c r="N53" s="666"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -14786,26 +14831,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="665" t="s">
+      <c r="H77" s="659" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="666"/>
+      <c r="I77" s="660"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="667">
+      <c r="K77" s="661">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="668"/>
+      <c r="L77" s="662"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="659" t="s">
+      <c r="D78" s="653" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="659"/>
+      <c r="E78" s="653"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -14814,22 +14859,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="660" t="s">
+      <c r="D79" s="654" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="660"/>
+      <c r="E79" s="654"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="661" t="s">
+      <c r="I79" s="655" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="662"/>
-      <c r="K79" s="663">
+      <c r="J79" s="656"/>
+      <c r="K79" s="657">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="663"/>
+      <c r="L79" s="657"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -14870,11 +14915,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="664">
+      <c r="K81" s="658">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="663"/>
+      <c r="L81" s="657"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -14891,22 +14936,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="652" t="s">
+      <c r="D83" s="646" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="653"/>
+      <c r="E83" s="647"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="654" t="s">
+      <c r="I83" s="648" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="655"/>
-      <c r="K83" s="656">
+      <c r="J83" s="649"/>
+      <c r="K83" s="650">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="656"/>
+      <c r="L83" s="650"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -15053,6 +15098,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15069,12 +15120,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16244,10 +16289,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="674" t="s">
+      <c r="I37" s="679" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="675"/>
+      <c r="J37" s="680"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -16266,8 +16311,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="676"/>
-      <c r="J38" s="677"/>
+      <c r="I38" s="681"/>
+      <c r="J38" s="682"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -16286,8 +16331,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="678"/>
-      <c r="J39" s="679"/>
+      <c r="I39" s="683"/>
+      <c r="J39" s="684"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -16845,10 +16890,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="680" t="s">
+      <c r="I67" s="685" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="681"/>
+      <c r="J67" s="686"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -16870,11 +16915,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="684" t="s">
+      <c r="G68" s="689" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="689"/>
-      <c r="J68" s="690"/>
+      <c r="I68" s="694"/>
+      <c r="J68" s="695"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -16885,7 +16930,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="685"/>
+      <c r="G69" s="690"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -17473,23 +17518,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="639"/>
-      <c r="C1" s="641" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="671" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="642"/>
-      <c r="E1" s="642"/>
-      <c r="F1" s="642"/>
-      <c r="G1" s="642"/>
-      <c r="H1" s="642"/>
-      <c r="I1" s="642"/>
-      <c r="J1" s="642"/>
-      <c r="K1" s="642"/>
-      <c r="L1" s="642"/>
-      <c r="M1" s="642"/>
+      <c r="D1" s="672"/>
+      <c r="E1" s="672"/>
+      <c r="F1" s="672"/>
+      <c r="G1" s="672"/>
+      <c r="H1" s="672"/>
+      <c r="I1" s="672"/>
+      <c r="J1" s="672"/>
+      <c r="K1" s="672"/>
+      <c r="L1" s="672"/>
+      <c r="M1" s="672"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="640"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -17499,27 +17544,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="643" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="644"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="645" t="s">
+      <c r="H3" s="675" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="645"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="637" t="s">
+      <c r="P3" s="667" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="691" t="s">
+      <c r="R3" s="696" t="s">
         <v>3</v>
       </c>
     </row>
@@ -17534,14 +17579,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="648" t="s">
+      <c r="E4" s="642" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="649"/>
-      <c r="H4" s="650" t="s">
+      <c r="F4" s="643"/>
+      <c r="H4" s="644" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="651"/>
+      <c r="I4" s="645"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -17551,11 +17596,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="638"/>
+      <c r="P4" s="668"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="692"/>
+      <c r="R4" s="697"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -19611,11 +19656,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="657">
+      <c r="M49" s="651">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="657">
+      <c r="N49" s="651">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -19623,7 +19668,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="669">
+      <c r="Q49" s="663">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -19656,10 +19701,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="658"/>
-      <c r="N50" s="658"/>
+      <c r="M50" s="652"/>
+      <c r="N50" s="652"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="670"/>
+      <c r="Q50" s="664"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -19744,11 +19789,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="635">
+      <c r="M53" s="665">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="636"/>
+      <c r="N53" s="666"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -20077,26 +20122,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="665" t="s">
+      <c r="H69" s="659" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="666"/>
+      <c r="I69" s="660"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="667">
+      <c r="K69" s="661">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="668"/>
+      <c r="L69" s="662"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="659" t="s">
+      <c r="D70" s="653" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="659"/>
+      <c r="E70" s="653"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -20105,23 +20150,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="660" t="s">
+      <c r="D71" s="654" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="660"/>
+      <c r="E71" s="654"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="661" t="s">
+      <c r="I71" s="655" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="662"/>
-      <c r="K71" s="663">
+      <c r="J71" s="656"/>
+      <c r="K71" s="657">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="663"/>
+      <c r="L71" s="657"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -20163,11 +20208,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="664">
+      <c r="K73" s="658">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="663"/>
+      <c r="L73" s="657"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -20184,22 +20229,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="652" t="s">
+      <c r="D75" s="646" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="653"/>
+      <c r="E75" s="647"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="654" t="s">
+      <c r="I75" s="648" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="655"/>
-      <c r="K75" s="656">
+      <c r="J75" s="649"/>
+      <c r="K75" s="650">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="656"/>
+      <c r="L75" s="650"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -20347,12 +20392,6 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20369,6 +20408,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21538,10 +21583,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="674" t="s">
+      <c r="I37" s="679" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="675"/>
+      <c r="J37" s="680"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -21560,8 +21605,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="676"/>
-      <c r="J38" s="677"/>
+      <c r="I38" s="681"/>
+      <c r="J38" s="682"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -21580,8 +21625,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="678"/>
-      <c r="J39" s="679"/>
+      <c r="I39" s="683"/>
+      <c r="J39" s="684"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -22139,10 +22184,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="680" t="s">
+      <c r="I67" s="685" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="681"/>
+      <c r="J67" s="686"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -22164,11 +22209,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="684" t="s">
+      <c r="G68" s="689" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="689"/>
-      <c r="J68" s="690"/>
+      <c r="I68" s="694"/>
+      <c r="J68" s="695"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -22179,7 +22224,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="685"/>
+      <c r="G69" s="690"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -22768,23 +22813,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="639"/>
-      <c r="C1" s="641" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="671" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="642"/>
-      <c r="E1" s="642"/>
-      <c r="F1" s="642"/>
-      <c r="G1" s="642"/>
-      <c r="H1" s="642"/>
-      <c r="I1" s="642"/>
-      <c r="J1" s="642"/>
-      <c r="K1" s="642"/>
-      <c r="L1" s="642"/>
-      <c r="M1" s="642"/>
+      <c r="D1" s="672"/>
+      <c r="E1" s="672"/>
+      <c r="F1" s="672"/>
+      <c r="G1" s="672"/>
+      <c r="H1" s="672"/>
+      <c r="I1" s="672"/>
+      <c r="J1" s="672"/>
+      <c r="K1" s="672"/>
+      <c r="L1" s="672"/>
+      <c r="M1" s="672"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="640"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -22794,25 +22839,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="643" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="644"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="645" t="s">
+      <c r="H3" s="675" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="645"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="637" t="s">
+      <c r="P3" s="667" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="691" t="s">
+      <c r="R3" s="696" t="s">
         <v>3</v>
       </c>
     </row>
@@ -22827,14 +22872,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="648" t="s">
+      <c r="E4" s="642" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="649"/>
-      <c r="H4" s="650" t="s">
+      <c r="F4" s="643"/>
+      <c r="H4" s="644" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="651"/>
+      <c r="I4" s="645"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -22844,11 +22889,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="638"/>
+      <c r="P4" s="668"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="692"/>
+      <c r="R4" s="697"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -24977,11 +25022,11 @@
       <c r="L49" s="49">
         <v>5250</v>
       </c>
-      <c r="M49" s="657">
+      <c r="M49" s="651">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="657">
+      <c r="N49" s="651">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -24989,7 +25034,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="669">
+      <c r="Q49" s="663">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -25022,10 +25067,10 @@
       <c r="L50" s="89">
         <v>3420</v>
       </c>
-      <c r="M50" s="658"/>
-      <c r="N50" s="658"/>
+      <c r="M50" s="652"/>
+      <c r="N50" s="652"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="670"/>
+      <c r="Q50" s="664"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -25116,11 +25161,11 @@
       <c r="L53" s="49">
         <v>8015.92</v>
       </c>
-      <c r="M53" s="635">
+      <c r="M53" s="665">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="636"/>
+      <c r="N53" s="666"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -25497,26 +25542,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="665" t="s">
+      <c r="H69" s="659" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="666"/>
+      <c r="I69" s="660"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="667">
+      <c r="K69" s="661">
         <f>I67+L67</f>
         <v>792651.90999999992</v>
       </c>
-      <c r="L69" s="668"/>
+      <c r="L69" s="662"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="659" t="s">
+      <c r="D70" s="653" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="659"/>
+      <c r="E70" s="653"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>896993.63999999966</v>
@@ -25525,22 +25570,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="660" t="s">
+      <c r="D71" s="654" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="660"/>
+      <c r="E71" s="654"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="661" t="s">
+      <c r="I71" s="655" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="662"/>
-      <c r="K71" s="663">
+      <c r="J71" s="656"/>
+      <c r="K71" s="657">
         <f>F73+F74+F75</f>
         <v>2818686.5799999996</v>
       </c>
-      <c r="L71" s="663"/>
+      <c r="L71" s="657"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -25585,11 +25630,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="664">
+      <c r="K73" s="658">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="663"/>
+      <c r="L73" s="657"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -25610,22 +25655,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="652" t="s">
+      <c r="D75" s="646" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="653"/>
+      <c r="E75" s="647"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="654" t="s">
+      <c r="I75" s="648" t="s">
         <v>220</v>
       </c>
-      <c r="J75" s="655"/>
-      <c r="K75" s="656">
+      <c r="J75" s="649"/>
+      <c r="K75" s="650">
         <f>K71+K73</f>
         <v>-312700.46000000043</v>
       </c>
-      <c r="L75" s="656"/>
+      <c r="L75" s="650"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -25773,12 +25818,6 @@
     <sortCondition ref="J40:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25795,6 +25834,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27062,10 +27107,10 @@
         <f t="shared" si="0"/>
         <v>9903.85</v>
       </c>
-      <c r="I37" s="674" t="s">
+      <c r="I37" s="679" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="675"/>
+      <c r="J37" s="680"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -27090,8 +27135,8 @@
         <f t="shared" si="0"/>
         <v>11767.68</v>
       </c>
-      <c r="I38" s="676"/>
-      <c r="J38" s="677"/>
+      <c r="I38" s="681"/>
+      <c r="J38" s="682"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -27116,8 +27161,8 @@
         <f t="shared" si="0"/>
         <v>24157.14</v>
       </c>
-      <c r="I39" s="678"/>
-      <c r="J39" s="679"/>
+      <c r="I39" s="683"/>
+      <c r="J39" s="684"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -27723,10 +27768,10 @@
         <f>SUM(G3:G66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I67" s="680" t="s">
+      <c r="I67" s="685" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="681"/>
+      <c r="J67" s="686"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>122543.6</v>
@@ -27748,11 +27793,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="684" t="s">
+      <c r="G68" s="689" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="689"/>
-      <c r="J68" s="690"/>
+      <c r="I68" s="694"/>
+      <c r="J68" s="695"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -27763,7 +27808,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="685"/>
+      <c r="G69" s="690"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -28351,23 +28396,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="639"/>
-      <c r="C1" s="641" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="671" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="642"/>
-      <c r="E1" s="642"/>
-      <c r="F1" s="642"/>
-      <c r="G1" s="642"/>
-      <c r="H1" s="642"/>
-      <c r="I1" s="642"/>
-      <c r="J1" s="642"/>
-      <c r="K1" s="642"/>
-      <c r="L1" s="642"/>
-      <c r="M1" s="642"/>
+      <c r="D1" s="672"/>
+      <c r="E1" s="672"/>
+      <c r="F1" s="672"/>
+      <c r="G1" s="672"/>
+      <c r="H1" s="672"/>
+      <c r="I1" s="672"/>
+      <c r="J1" s="672"/>
+      <c r="K1" s="672"/>
+      <c r="L1" s="672"/>
+      <c r="M1" s="672"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="640"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -28377,25 +28422,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="643" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="644"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="645" t="s">
+      <c r="H3" s="675" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="645"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="637" t="s">
+      <c r="P3" s="667" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="691" t="s">
+      <c r="R3" s="696" t="s">
         <v>3</v>
       </c>
     </row>
@@ -28410,14 +28455,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="648" t="s">
+      <c r="E4" s="642" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="649"/>
-      <c r="H4" s="650" t="s">
+      <c r="F4" s="643"/>
+      <c r="H4" s="644" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="651"/>
+      <c r="I4" s="645"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -28427,11 +28472,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="638"/>
+      <c r="P4" s="668"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="692"/>
+      <c r="R4" s="697"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -30658,11 +30703,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="349"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="657">
+      <c r="M49" s="651">
         <f>SUM(M5:M40)</f>
         <v>2901103.23</v>
       </c>
-      <c r="N49" s="657">
+      <c r="N49" s="651">
         <f>SUM(N5:N40)</f>
         <v>2054394</v>
       </c>
@@ -30670,7 +30715,7 @@
         <f>SUM(P5:P40)</f>
         <v>6121324.54</v>
       </c>
-      <c r="Q49" s="669">
+      <c r="Q49" s="663">
         <f>SUM(Q5:Q40)</f>
         <v>-1197.4599999999919</v>
       </c>
@@ -30703,10 +30748,10 @@
       <c r="L50" s="89">
         <v>2958</v>
       </c>
-      <c r="M50" s="658"/>
-      <c r="N50" s="658"/>
+      <c r="M50" s="652"/>
+      <c r="N50" s="652"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="670"/>
+      <c r="Q50" s="664"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>146522</v>
@@ -30797,11 +30842,11 @@
       <c r="L53" s="49">
         <v>1100.01</v>
       </c>
-      <c r="M53" s="635">
+      <c r="M53" s="665">
         <f>M49+N49</f>
         <v>4955497.2300000004</v>
       </c>
-      <c r="N53" s="636"/>
+      <c r="N53" s="666"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -31516,26 +31561,26 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="665" t="s">
+      <c r="H81" s="659" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="666"/>
+      <c r="I81" s="660"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="667">
+      <c r="K81" s="661">
         <f>I79+L79</f>
         <v>778945.87000000011</v>
       </c>
-      <c r="L81" s="668"/>
+      <c r="L81" s="662"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="659" t="s">
+      <c r="D82" s="653" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="659"/>
+      <c r="E82" s="653"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
         <v>1583916.4599999995</v>
@@ -31544,22 +31589,22 @@
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="660" t="s">
+      <c r="D83" s="654" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="660"/>
+      <c r="E83" s="654"/>
       <c r="F83" s="101">
         <v>-1249902.31</v>
       </c>
-      <c r="I83" s="661" t="s">
+      <c r="I83" s="655" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="662"/>
-      <c r="K83" s="663">
+      <c r="J83" s="656"/>
+      <c r="K83" s="657">
         <f>F85+F86+F87</f>
         <v>3373322.2099999995</v>
       </c>
-      <c r="L83" s="663"/>
+      <c r="L83" s="657"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -31600,11 +31645,11 @@
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="664">
+      <c r="K85" s="658">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L85" s="663"/>
+      <c r="L85" s="657"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -31622,22 +31667,22 @@
       <c r="C87" s="172">
         <v>45171</v>
       </c>
-      <c r="D87" s="652" t="s">
+      <c r="D87" s="646" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="653"/>
+      <c r="E87" s="647"/>
       <c r="F87" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I87" s="693" t="s">
+      <c r="I87" s="698" t="s">
         <v>1143</v>
       </c>
-      <c r="J87" s="694"/>
-      <c r="K87" s="695">
+      <c r="J87" s="699"/>
+      <c r="K87" s="700">
         <f>K83+K85</f>
         <v>552770.89999999944</v>
       </c>
-      <c r="L87" s="695"/>
+      <c r="L87" s="700"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -31785,6 +31830,12 @@
     <sortCondition ref="B44:B74"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -31801,12 +31852,6 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33548,10 +33593,10 @@
         <f t="shared" si="0"/>
         <v>11880</v>
       </c>
-      <c r="I49" s="674" t="s">
+      <c r="I49" s="679" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="675"/>
+      <c r="J49" s="680"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -33576,8 +33621,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="676"/>
-      <c r="J50" s="677"/>
+      <c r="I50" s="681"/>
+      <c r="J50" s="682"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -33602,8 +33647,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="678"/>
-      <c r="J51" s="679"/>
+      <c r="I51" s="683"/>
+      <c r="J51" s="684"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -33963,10 +34008,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="680" t="s">
+      <c r="I65" s="685" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="681"/>
+      <c r="J65" s="686"/>
       <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>226585.60000000003</v>
@@ -33995,8 +34040,8 @@
         <f t="shared" ref="G66:G68" si="2">D66-F66</f>
         <v>0</v>
       </c>
-      <c r="I66" s="689"/>
-      <c r="J66" s="690"/>
+      <c r="I66" s="694"/>
+      <c r="J66" s="695"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -34072,7 +34117,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="684" t="s">
+      <c r="G70" s="689" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -34088,7 +34133,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="685"/>
+      <c r="G71" s="690"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="550"/>
@@ -34633,54 +34678,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="639"/>
-      <c r="C1" s="641" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="671" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="642"/>
-      <c r="E1" s="642"/>
-      <c r="F1" s="642"/>
-      <c r="G1" s="642"/>
-      <c r="H1" s="642"/>
-      <c r="I1" s="642"/>
-      <c r="J1" s="642"/>
-      <c r="K1" s="642"/>
-      <c r="L1" s="642"/>
-      <c r="M1" s="642"/>
+      <c r="D1" s="672"/>
+      <c r="E1" s="672"/>
+      <c r="F1" s="672"/>
+      <c r="G1" s="672"/>
+      <c r="H1" s="672"/>
+      <c r="I1" s="672"/>
+      <c r="J1" s="672"/>
+      <c r="K1" s="672"/>
+      <c r="L1" s="672"/>
+      <c r="M1" s="672"/>
     </row>
     <row r="2" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="640"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="696" t="s">
+      <c r="J2" s="701" t="s">
         <v>1122</v>
       </c>
-      <c r="K2" s="697"/>
-      <c r="L2" s="697"/>
-      <c r="M2" s="698"/>
+      <c r="K2" s="702"/>
+      <c r="L2" s="702"/>
+      <c r="M2" s="703"/>
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="643" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="644"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="645" t="s">
+      <c r="H3" s="675" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="645"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="637" t="s">
+      <c r="P3" s="667" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="691" t="s">
+      <c r="R3" s="696" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34695,14 +34740,14 @@
       <c r="D4" s="24">
         <v>45171</v>
       </c>
-      <c r="E4" s="648" t="s">
+      <c r="E4" s="642" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="649"/>
-      <c r="H4" s="650" t="s">
+      <c r="F4" s="643"/>
+      <c r="H4" s="644" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="651"/>
+      <c r="I4" s="645"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -34712,11 +34757,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="638"/>
+      <c r="P4" s="668"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="692"/>
+      <c r="R4" s="697"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -36833,11 +36878,11 @@
       <c r="L49" s="369">
         <v>8488</v>
       </c>
-      <c r="M49" s="657">
+      <c r="M49" s="651">
         <f>SUM(M5:M40)</f>
         <v>2549017.7400000002</v>
       </c>
-      <c r="N49" s="657">
+      <c r="N49" s="651">
         <f>SUM(N5:N40)</f>
         <v>1551885</v>
       </c>
@@ -36845,7 +36890,7 @@
         <f>SUM(P5:P40)</f>
         <v>4761795.24</v>
       </c>
-      <c r="Q49" s="669">
+      <c r="Q49" s="663">
         <f>SUM(Q5:Q40)</f>
         <v>5.2399999999906868</v>
       </c>
@@ -36878,10 +36923,10 @@
       <c r="L50" s="369">
         <v>1856</v>
       </c>
-      <c r="M50" s="658"/>
-      <c r="N50" s="658"/>
+      <c r="M50" s="652"/>
+      <c r="N50" s="652"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="670"/>
+      <c r="Q50" s="664"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>37814</v>
@@ -36966,11 +37011,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="635">
+      <c r="M53" s="665">
         <f>M49+N49</f>
         <v>4100902.74</v>
       </c>
-      <c r="N53" s="636"/>
+      <c r="N53" s="666"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -37479,26 +37524,26 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="665" t="s">
+      <c r="H81" s="659" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="666"/>
+      <c r="I81" s="660"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="667">
+      <c r="K81" s="661">
         <f>I79+L79</f>
         <v>366832.13999999996</v>
       </c>
-      <c r="L81" s="668"/>
+      <c r="L81" s="662"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="659" t="s">
+      <c r="D82" s="653" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="659"/>
+      <c r="E82" s="653"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
         <v>1964745.67</v>
@@ -37507,22 +37552,22 @@
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="660" t="s">
+      <c r="D83" s="654" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="660"/>
+      <c r="E83" s="654"/>
       <c r="F83" s="101">
         <v>0</v>
       </c>
-      <c r="I83" s="661" t="s">
+      <c r="I83" s="655" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="662"/>
-      <c r="K83" s="663">
+      <c r="J83" s="656"/>
+      <c r="K83" s="657">
         <f>F85+F86+F87</f>
         <v>5604393.8799999999</v>
       </c>
-      <c r="L83" s="663"/>
+      <c r="L83" s="657"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -37563,11 +37608,11 @@
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="664">
+      <c r="K85" s="658">
         <f>-C4</f>
         <v>-3146460.66</v>
       </c>
-      <c r="L85" s="663"/>
+      <c r="L85" s="657"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -37585,20 +37630,20 @@
       <c r="C87" s="172">
         <v>45198</v>
       </c>
-      <c r="D87" s="652" t="s">
+      <c r="D87" s="646" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="653"/>
+      <c r="E87" s="647"/>
       <c r="F87" s="173">
         <v>3340512.21</v>
       </c>
-      <c r="I87" s="654"/>
-      <c r="J87" s="655"/>
-      <c r="K87" s="656">
+      <c r="I87" s="648"/>
+      <c r="J87" s="649"/>
+      <c r="K87" s="650">
         <f>K83+K85</f>
         <v>2457933.2199999997</v>
       </c>
-      <c r="L87" s="656"/>
+      <c r="L87" s="650"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -37743,6 +37788,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J2:M2"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -37759,13 +37811,6 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37864,10 +37909,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="699" t="s">
+      <c r="B3" s="635" t="s">
         <v>1147</v>
       </c>
-      <c r="C3" s="700" t="s">
+      <c r="C3" s="636" t="s">
         <v>1148</v>
       </c>
       <c r="D3" s="515">
@@ -37890,10 +37935,10 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="699" t="s">
+      <c r="B4" s="635" t="s">
         <v>1149</v>
       </c>
-      <c r="C4" s="700" t="s">
+      <c r="C4" s="636" t="s">
         <v>1150</v>
       </c>
       <c r="D4" s="515">
@@ -37917,10 +37962,10 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="699" t="s">
+      <c r="B5" s="635" t="s">
         <v>1151</v>
       </c>
-      <c r="C5" s="700" t="s">
+      <c r="C5" s="636" t="s">
         <v>1152</v>
       </c>
       <c r="D5" s="515">
@@ -37943,10 +37988,10 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="699" t="s">
+      <c r="B6" s="635" t="s">
         <v>1151</v>
       </c>
-      <c r="C6" s="700" t="s">
+      <c r="C6" s="636" t="s">
         <v>1153</v>
       </c>
       <c r="D6" s="515">
@@ -37969,10 +38014,10 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="699" t="s">
+      <c r="B7" s="635" t="s">
         <v>1151</v>
       </c>
-      <c r="C7" s="700" t="s">
+      <c r="C7" s="636" t="s">
         <v>1154</v>
       </c>
       <c r="D7" s="515">
@@ -37995,10 +38040,10 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="699" t="s">
+      <c r="B8" s="635" t="s">
         <v>1151</v>
       </c>
-      <c r="C8" s="700" t="s">
+      <c r="C8" s="636" t="s">
         <v>1155</v>
       </c>
       <c r="D8" s="515">
@@ -38022,13 +38067,13 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="701" t="s">
+      <c r="B9" s="637" t="s">
         <v>1156</v>
       </c>
-      <c r="C9" s="702" t="s">
+      <c r="C9" s="638" t="s">
         <v>1157</v>
       </c>
-      <c r="D9" s="703">
+      <c r="D9" s="639">
         <v>40309.5</v>
       </c>
       <c r="E9" s="224"/>
@@ -38048,10 +38093,10 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="699" t="s">
+      <c r="B10" s="635" t="s">
         <v>1156</v>
       </c>
-      <c r="C10" s="700" t="s">
+      <c r="C10" s="636" t="s">
         <v>1158</v>
       </c>
       <c r="D10" s="515">
@@ -38074,10 +38119,10 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="699" t="s">
+      <c r="B11" s="635" t="s">
         <v>1159</v>
       </c>
-      <c r="C11" s="700" t="s">
+      <c r="C11" s="636" t="s">
         <v>1160</v>
       </c>
       <c r="D11" s="515">
@@ -38100,13 +38145,13 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="701" t="s">
+      <c r="B12" s="637" t="s">
         <v>1161</v>
       </c>
-      <c r="C12" s="702" t="s">
+      <c r="C12" s="638" t="s">
         <v>1162</v>
       </c>
-      <c r="D12" s="703">
+      <c r="D12" s="639">
         <v>33026.25</v>
       </c>
       <c r="E12" s="224"/>
@@ -38126,10 +38171,10 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="699" t="s">
+      <c r="B13" s="635" t="s">
         <v>1163</v>
       </c>
-      <c r="C13" s="700" t="s">
+      <c r="C13" s="636" t="s">
         <v>1164</v>
       </c>
       <c r="D13" s="515">
@@ -38152,13 +38197,13 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="701" t="s">
+      <c r="B14" s="637" t="s">
         <v>1163</v>
       </c>
-      <c r="C14" s="702" t="s">
+      <c r="C14" s="638" t="s">
         <v>1165</v>
       </c>
-      <c r="D14" s="703">
+      <c r="D14" s="639">
         <v>11397</v>
       </c>
       <c r="E14" s="224"/>
@@ -38178,10 +38223,10 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="699" t="s">
+      <c r="B15" s="635" t="s">
         <v>1166</v>
       </c>
-      <c r="C15" s="700" t="s">
+      <c r="C15" s="636" t="s">
         <v>1167</v>
       </c>
       <c r="D15" s="515">
@@ -38204,13 +38249,13 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="701" t="s">
+      <c r="B16" s="637" t="s">
         <v>1168</v>
       </c>
-      <c r="C16" s="702" t="s">
+      <c r="C16" s="638" t="s">
         <v>1169</v>
       </c>
-      <c r="D16" s="703">
+      <c r="D16" s="639">
         <v>1773</v>
       </c>
       <c r="E16" s="224"/>
@@ -38230,13 +38275,13 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="701" t="s">
+      <c r="B17" s="637" t="s">
         <v>1170</v>
       </c>
-      <c r="C17" s="702" t="s">
+      <c r="C17" s="638" t="s">
         <v>1171</v>
       </c>
-      <c r="D17" s="703">
+      <c r="D17" s="639">
         <v>0</v>
       </c>
       <c r="E17" s="224"/>
@@ -38256,10 +38301,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="699" t="s">
+      <c r="B18" s="635" t="s">
         <v>1170</v>
       </c>
-      <c r="C18" s="700" t="s">
+      <c r="C18" s="636" t="s">
         <v>1172</v>
       </c>
       <c r="D18" s="515">
@@ -38282,13 +38327,13 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="701" t="s">
+      <c r="B19" s="637" t="s">
         <v>1170</v>
       </c>
-      <c r="C19" s="702" t="s">
+      <c r="C19" s="638" t="s">
         <v>1173</v>
       </c>
-      <c r="D19" s="703">
+      <c r="D19" s="639">
         <v>18427.7</v>
       </c>
       <c r="E19" s="224"/>
@@ -38308,13 +38353,13 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="701" t="s">
+      <c r="B20" s="637" t="s">
         <v>1170</v>
       </c>
-      <c r="C20" s="702" t="s">
+      <c r="C20" s="638" t="s">
         <v>1174</v>
       </c>
-      <c r="D20" s="703">
+      <c r="D20" s="639">
         <v>0</v>
       </c>
       <c r="E20" s="224"/>
@@ -38335,10 +38380,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="699" t="s">
+      <c r="B21" s="635" t="s">
         <v>1170</v>
       </c>
-      <c r="C21" s="700" t="s">
+      <c r="C21" s="636" t="s">
         <v>1175</v>
       </c>
       <c r="D21" s="515">
@@ -38362,13 +38407,13 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="701" t="s">
+      <c r="B22" s="637" t="s">
         <v>1170</v>
       </c>
-      <c r="C22" s="702" t="s">
+      <c r="C22" s="638" t="s">
         <v>1176</v>
       </c>
-      <c r="D22" s="703">
+      <c r="D22" s="639">
         <v>0</v>
       </c>
       <c r="E22" s="224"/>
@@ -38389,13 +38434,13 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="701" t="s">
+      <c r="B23" s="637" t="s">
         <v>1177</v>
       </c>
-      <c r="C23" s="702" t="s">
+      <c r="C23" s="638" t="s">
         <v>1178</v>
       </c>
-      <c r="D23" s="703">
+      <c r="D23" s="639">
         <v>17511.2</v>
       </c>
       <c r="E23" s="224"/>
@@ -38416,10 +38461,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="699" t="s">
+      <c r="B24" s="635" t="s">
         <v>1179</v>
       </c>
-      <c r="C24" s="700" t="s">
+      <c r="C24" s="636" t="s">
         <v>1180</v>
       </c>
       <c r="D24" s="515">
@@ -38443,10 +38488,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="699" t="s">
+      <c r="B25" s="635" t="s">
         <v>1181</v>
       </c>
-      <c r="C25" s="700" t="s">
+      <c r="C25" s="636" t="s">
         <v>1182</v>
       </c>
       <c r="D25" s="515">
@@ -38470,10 +38515,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="699" t="s">
+      <c r="B26" s="635" t="s">
         <v>1181</v>
       </c>
-      <c r="C26" s="700" t="s">
+      <c r="C26" s="636" t="s">
         <v>1183</v>
       </c>
       <c r="D26" s="515">
@@ -38497,13 +38542,13 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="701" t="s">
+      <c r="B27" s="637" t="s">
         <v>1184</v>
       </c>
-      <c r="C27" s="702" t="s">
+      <c r="C27" s="638" t="s">
         <v>1185</v>
       </c>
-      <c r="D27" s="703">
+      <c r="D27" s="639">
         <v>12699.73</v>
       </c>
       <c r="E27" s="224"/>
@@ -38525,10 +38570,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
-      <c r="B28" s="699" t="s">
+      <c r="B28" s="635" t="s">
         <v>1184</v>
       </c>
-      <c r="C28" s="700" t="s">
+      <c r="C28" s="636" t="s">
         <v>1186</v>
       </c>
       <c r="D28" s="515">
@@ -38552,13 +38597,13 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="701" t="s">
+      <c r="B29" s="637" t="s">
         <v>1184</v>
       </c>
-      <c r="C29" s="702" t="s">
+      <c r="C29" s="638" t="s">
         <v>1187</v>
       </c>
-      <c r="D29" s="703">
+      <c r="D29" s="639">
         <v>0</v>
       </c>
       <c r="E29" s="224"/>
@@ -38579,13 +38624,13 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="701" t="s">
+      <c r="B30" s="637" t="s">
         <v>1188</v>
       </c>
-      <c r="C30" s="702" t="s">
+      <c r="C30" s="638" t="s">
         <v>1189</v>
       </c>
-      <c r="D30" s="703">
+      <c r="D30" s="639">
         <v>0</v>
       </c>
       <c r="E30" s="224"/>
@@ -38606,13 +38651,13 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="701" t="s">
+      <c r="B31" s="637" t="s">
         <v>1188</v>
       </c>
-      <c r="C31" s="702" t="s">
+      <c r="C31" s="638" t="s">
         <v>1190</v>
       </c>
-      <c r="D31" s="703">
+      <c r="D31" s="639">
         <v>151306.5</v>
       </c>
       <c r="E31" s="224"/>
@@ -38632,10 +38677,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="699" t="s">
+      <c r="B32" s="635" t="s">
         <v>1191</v>
       </c>
-      <c r="C32" s="700" t="s">
+      <c r="C32" s="636" t="s">
         <v>1192</v>
       </c>
       <c r="D32" s="515">
@@ -38658,13 +38703,13 @@
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="701" t="s">
+      <c r="B33" s="637" t="s">
         <v>1193</v>
       </c>
-      <c r="C33" s="702" t="s">
+      <c r="C33" s="638" t="s">
         <v>1194</v>
       </c>
-      <c r="D33" s="703">
+      <c r="D33" s="639">
         <v>25796.65</v>
       </c>
       <c r="E33" s="224"/>
@@ -38684,10 +38729,10 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="699" t="s">
+      <c r="B34" s="635" t="s">
         <v>1193</v>
       </c>
-      <c r="C34" s="700" t="s">
+      <c r="C34" s="636" t="s">
         <v>1195</v>
       </c>
       <c r="D34" s="515">
@@ -38710,13 +38755,13 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="701" t="s">
+      <c r="B35" s="637" t="s">
         <v>1196</v>
       </c>
-      <c r="C35" s="702" t="s">
+      <c r="C35" s="638" t="s">
         <v>1197</v>
       </c>
-      <c r="D35" s="703">
+      <c r="D35" s="639">
         <v>9028.2800000000007</v>
       </c>
       <c r="E35" s="224"/>
@@ -38736,10 +38781,10 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="699" t="s">
+      <c r="B36" s="635" t="s">
         <v>1198</v>
       </c>
-      <c r="C36" s="700" t="s">
+      <c r="C36" s="636" t="s">
         <v>1199</v>
       </c>
       <c r="D36" s="515">
@@ -38762,10 +38807,10 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="699" t="s">
+      <c r="B37" s="635" t="s">
         <v>1198</v>
       </c>
-      <c r="C37" s="700" t="s">
+      <c r="C37" s="636" t="s">
         <v>1200</v>
       </c>
       <c r="D37" s="515">
@@ -38788,10 +38833,10 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="699" t="s">
+      <c r="B38" s="635" t="s">
         <v>1198</v>
       </c>
-      <c r="C38" s="700" t="s">
+      <c r="C38" s="636" t="s">
         <v>1201</v>
       </c>
       <c r="D38" s="515">
@@ -38814,13 +38859,13 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="701" t="s">
+      <c r="B39" s="637" t="s">
         <v>1202</v>
       </c>
-      <c r="C39" s="702" t="s">
+      <c r="C39" s="638" t="s">
         <v>1203</v>
       </c>
-      <c r="D39" s="703">
+      <c r="D39" s="639">
         <v>10211.08</v>
       </c>
       <c r="E39" s="238"/>
@@ -38840,13 +38885,13 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="701" t="s">
+      <c r="B40" s="637" t="s">
         <v>1202</v>
       </c>
-      <c r="C40" s="702" t="s">
+      <c r="C40" s="638" t="s">
         <v>1204</v>
       </c>
-      <c r="D40" s="703">
+      <c r="D40" s="639">
         <v>16114.29</v>
       </c>
       <c r="E40" s="238"/>
@@ -38866,10 +38911,10 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="699" t="s">
+      <c r="B41" s="635" t="s">
         <v>1205</v>
       </c>
-      <c r="C41" s="700" t="s">
+      <c r="C41" s="636" t="s">
         <v>1206</v>
       </c>
       <c r="D41" s="515">
@@ -38892,13 +38937,13 @@
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="701" t="s">
+      <c r="B42" s="637" t="s">
         <v>1205</v>
       </c>
-      <c r="C42" s="702" t="s">
+      <c r="C42" s="638" t="s">
         <v>1207</v>
       </c>
-      <c r="D42" s="703">
+      <c r="D42" s="639">
         <v>614.20000000000005</v>
       </c>
       <c r="E42" s="238"/>
@@ -38918,10 +38963,10 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="699" t="s">
+      <c r="B43" s="635" t="s">
         <v>1205</v>
       </c>
-      <c r="C43" s="700" t="s">
+      <c r="C43" s="636" t="s">
         <v>1208</v>
       </c>
       <c r="D43" s="515">
@@ -38944,13 +38989,13 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="701" t="s">
+      <c r="B44" s="637" t="s">
         <v>1205</v>
       </c>
-      <c r="C44" s="702" t="s">
+      <c r="C44" s="638" t="s">
         <v>1209</v>
       </c>
-      <c r="D44" s="703">
+      <c r="D44" s="639">
         <v>3422</v>
       </c>
       <c r="E44" s="238"/>
@@ -38970,10 +39015,10 @@
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="699" t="s">
+      <c r="B45" s="635" t="s">
         <v>1210</v>
       </c>
-      <c r="C45" s="700" t="s">
+      <c r="C45" s="636" t="s">
         <v>1211</v>
       </c>
       <c r="D45" s="515">
@@ -38996,13 +39041,13 @@
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="701" t="s">
+      <c r="B46" s="637" t="s">
         <v>1212</v>
       </c>
-      <c r="C46" s="702" t="s">
+      <c r="C46" s="638" t="s">
         <v>1213</v>
       </c>
-      <c r="D46" s="703">
+      <c r="D46" s="639">
         <v>0</v>
       </c>
       <c r="E46" s="238"/>
@@ -39022,10 +39067,10 @@
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="699" t="s">
+      <c r="B47" s="635" t="s">
         <v>1212</v>
       </c>
-      <c r="C47" s="700" t="s">
+      <c r="C47" s="636" t="s">
         <v>1214</v>
       </c>
       <c r="D47" s="515">
@@ -39077,10 +39122,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="674" t="s">
+      <c r="I49" s="679" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="675"/>
+      <c r="J49" s="680"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -39099,8 +39144,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="676"/>
-      <c r="J50" s="677"/>
+      <c r="I50" s="681"/>
+      <c r="J50" s="682"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -39119,8 +39164,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="678"/>
-      <c r="J51" s="679"/>
+      <c r="I51" s="683"/>
+      <c r="J51" s="684"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -39396,10 +39441,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="680" t="s">
+      <c r="I65" s="685" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="681"/>
+      <c r="J65" s="686"/>
       <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>0</v>
@@ -39422,8 +39467,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I66" s="689"/>
-      <c r="J66" s="690"/>
+      <c r="I66" s="694"/>
+      <c r="J66" s="695"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -39487,7 +39532,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="684" t="s">
+      <c r="G70" s="689" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -39503,7 +39548,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="685"/>
+      <c r="G71" s="690"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="550"/>
@@ -40020,10 +40065,10 @@
   <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -40049,54 +40094,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="639"/>
-      <c r="C1" s="641" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="671" t="s">
         <v>1142</v>
       </c>
-      <c r="D1" s="642"/>
-      <c r="E1" s="642"/>
-      <c r="F1" s="642"/>
-      <c r="G1" s="642"/>
-      <c r="H1" s="642"/>
-      <c r="I1" s="642"/>
-      <c r="J1" s="642"/>
-      <c r="K1" s="642"/>
-      <c r="L1" s="642"/>
-      <c r="M1" s="642"/>
+      <c r="D1" s="672"/>
+      <c r="E1" s="672"/>
+      <c r="F1" s="672"/>
+      <c r="G1" s="672"/>
+      <c r="H1" s="672"/>
+      <c r="I1" s="672"/>
+      <c r="J1" s="672"/>
+      <c r="K1" s="672"/>
+      <c r="L1" s="672"/>
+      <c r="M1" s="672"/>
     </row>
     <row r="2" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="640"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="696" t="s">
+      <c r="J2" s="701" t="s">
         <v>1122</v>
       </c>
-      <c r="K2" s="697"/>
-      <c r="L2" s="697"/>
-      <c r="M2" s="698"/>
+      <c r="K2" s="702"/>
+      <c r="L2" s="702"/>
+      <c r="M2" s="703"/>
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="643" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="644"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="645" t="s">
+      <c r="H3" s="675" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="645"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="637" t="s">
+      <c r="P3" s="667" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="691" t="s">
+      <c r="R3" s="696" t="s">
         <v>3</v>
       </c>
     </row>
@@ -40111,14 +40156,14 @@
       <c r="D4" s="24">
         <v>45198</v>
       </c>
-      <c r="E4" s="648" t="s">
+      <c r="E4" s="642" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="649"/>
-      <c r="H4" s="650" t="s">
+      <c r="F4" s="643"/>
+      <c r="H4" s="644" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="651"/>
+      <c r="I4" s="645"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -40128,11 +40173,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="638"/>
+      <c r="P4" s="668"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="692"/>
+      <c r="R4" s="697"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -40356,36 +40401,44 @@
       <c r="B9" s="32">
         <v>45203</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="621"/>
+      <c r="C9" s="33">
+        <v>10075</v>
+      </c>
+      <c r="D9" s="621" t="s">
+        <v>1218</v>
+      </c>
       <c r="E9" s="35">
         <v>45203</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="36">
+        <v>126840</v>
+      </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38">
         <v>45203</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="39">
+        <v>2987</v>
+      </c>
       <c r="J9" s="40"/>
       <c r="K9" s="348"/>
       <c r="L9" s="49"/>
       <c r="M9" s="42">
-        <v>0</v>
+        <f>39530+25864.8+2100+2193+7700</f>
+        <v>77387.8</v>
       </c>
       <c r="N9" s="43">
-        <v>0</v>
+        <v>38204</v>
       </c>
       <c r="P9" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>128653.8</v>
       </c>
       <c r="Q9" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="390">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R9" s="355">
+        <v>1814</v>
       </c>
       <c r="S9" s="459"/>
       <c r="T9" s="233"/>
@@ -40399,36 +40452,50 @@
       <c r="B10" s="32">
         <v>45204</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="620"/>
+      <c r="C10" s="33">
+        <v>25247</v>
+      </c>
+      <c r="D10" s="620" t="s">
+        <v>1219</v>
+      </c>
       <c r="E10" s="35">
         <v>45204</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="36">
+        <v>140243</v>
+      </c>
       <c r="G10" s="37"/>
       <c r="H10" s="38">
         <v>45204</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="55"/>
+      <c r="I10" s="39">
+        <v>2204</v>
+      </c>
+      <c r="J10" s="40">
+        <v>45204</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>1220</v>
+      </c>
+      <c r="L10" s="55">
+        <v>8738</v>
+      </c>
       <c r="M10" s="42">
-        <v>0</v>
+        <f>88964+4193.72+1241.84</f>
+        <v>94399.56</v>
       </c>
       <c r="N10" s="43">
-        <v>0</v>
+        <v>39154</v>
       </c>
       <c r="P10" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>169742.56</v>
       </c>
       <c r="Q10" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="390">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R10" s="355">
+        <v>29500</v>
       </c>
       <c r="S10" s="233"/>
       <c r="T10" s="233"/>
@@ -40442,36 +40509,50 @@
       <c r="B11" s="32">
         <v>45205</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="619"/>
+      <c r="C11" s="33">
+        <v>13527</v>
+      </c>
+      <c r="D11" s="619" t="s">
+        <v>1221</v>
+      </c>
       <c r="E11" s="35">
         <v>45205</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="36">
+        <v>164798</v>
+      </c>
       <c r="G11" s="37"/>
       <c r="H11" s="38">
         <v>45205</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="49"/>
+      <c r="I11" s="39">
+        <v>3540</v>
+      </c>
+      <c r="J11" s="52">
+        <v>45205</v>
+      </c>
+      <c r="K11" s="704" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L11" s="49">
+        <v>12669</v>
+      </c>
       <c r="M11" s="42">
-        <v>0</v>
+        <f>63600+31366+3533</f>
+        <v>98499</v>
       </c>
       <c r="N11" s="43">
-        <v>0</v>
+        <v>54135</v>
       </c>
       <c r="P11" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>182370</v>
       </c>
       <c r="Q11" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="390">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R11" s="355">
+        <v>17572</v>
       </c>
       <c r="S11" s="233"/>
       <c r="T11" s="233"/>
@@ -40485,30 +40566,45 @@
       <c r="B12" s="32">
         <v>45206</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="619"/>
+      <c r="C12" s="33">
+        <v>9677</v>
+      </c>
+      <c r="D12" s="619" t="s">
+        <v>1223</v>
+      </c>
       <c r="E12" s="35">
         <v>45206</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="36">
+        <v>165775</v>
+      </c>
       <c r="G12" s="37"/>
       <c r="H12" s="38">
         <v>45206</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="342"/>
-      <c r="L12" s="49"/>
+      <c r="I12" s="39">
+        <v>4956.5</v>
+      </c>
+      <c r="J12" s="40">
+        <v>45206</v>
+      </c>
+      <c r="K12" s="705" t="s">
+        <v>1224</v>
+      </c>
+      <c r="L12" s="49">
+        <v>21280</v>
+      </c>
       <c r="M12" s="42">
-        <v>0</v>
+        <f>70771.5+5416+1169</f>
+        <v>77356.5</v>
       </c>
       <c r="N12" s="43">
-        <v>0</v>
+        <v>52505</v>
       </c>
       <c r="O12" s="192"/>
       <c r="P12" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>165775</v>
       </c>
       <c r="Q12" s="45">
         <f t="shared" ref="Q12:Q47" si="2">P12-F12</f>
@@ -40529,30 +40625,39 @@
       <c r="B13" s="32">
         <v>45207</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="621"/>
+      <c r="C13" s="33">
+        <v>19776</v>
+      </c>
+      <c r="D13" s="621" t="s">
+        <v>1225</v>
+      </c>
       <c r="E13" s="35">
         <v>45207</v>
       </c>
-      <c r="F13" s="36"/>
+      <c r="F13" s="36">
+        <v>116076</v>
+      </c>
       <c r="G13" s="37"/>
       <c r="H13" s="38">
         <v>45207</v>
       </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="39">
+        <v>875</v>
+      </c>
       <c r="J13" s="40"/>
       <c r="K13" s="343"/>
       <c r="L13" s="49"/>
       <c r="M13" s="42">
-        <v>0</v>
+        <f>42563+7125</f>
+        <v>49688</v>
       </c>
       <c r="N13" s="43">
-        <v>0</v>
+        <v>45737</v>
       </c>
       <c r="O13" s="192"/>
       <c r="P13" s="49">
         <f>N13+M13+L13+I13+C13</f>
-        <v>0</v>
+        <v>116076</v>
       </c>
       <c r="Q13" s="45">
         <f t="shared" si="2"/>
@@ -40573,30 +40678,38 @@
       <c r="B14" s="32">
         <v>45208</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="620"/>
+      <c r="C14" s="33">
+        <v>34442</v>
+      </c>
+      <c r="D14" s="620" t="s">
+        <v>1226</v>
+      </c>
       <c r="E14" s="35">
         <v>45208</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="36">
+        <v>117869</v>
+      </c>
       <c r="G14" s="37"/>
       <c r="H14" s="38">
         <v>45208</v>
       </c>
-      <c r="I14" s="39"/>
+      <c r="I14" s="39">
+        <v>3858</v>
+      </c>
       <c r="J14" s="40"/>
       <c r="K14" s="65"/>
       <c r="L14" s="49"/>
       <c r="M14" s="42">
-        <v>0</v>
+        <v>36679</v>
       </c>
       <c r="N14" s="43">
-        <v>0</v>
+        <v>42890</v>
       </c>
       <c r="O14" s="193"/>
       <c r="P14" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>117869</v>
       </c>
       <c r="Q14" s="45">
         <f t="shared" si="2"/>
@@ -40605,7 +40718,9 @@
       <c r="R14" s="46">
         <v>0</v>
       </c>
-      <c r="S14" s="233"/>
+      <c r="S14" s="233">
+        <v>4</v>
+      </c>
       <c r="T14" s="233"/>
       <c r="U14" s="233"/>
       <c r="V14" s="233"/>
@@ -40617,36 +40732,45 @@
       <c r="B15" s="32">
         <v>45209</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="620"/>
+      <c r="C15" s="33">
+        <v>28772</v>
+      </c>
+      <c r="D15" s="620" t="s">
+        <v>1227</v>
+      </c>
       <c r="E15" s="35">
         <v>45209</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="36">
+        <v>202882</v>
+      </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38">
         <v>45209</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="39">
+        <v>3932.5</v>
+      </c>
       <c r="J15" s="40"/>
       <c r="K15" s="65"/>
       <c r="L15" s="49"/>
       <c r="M15" s="42">
-        <v>0</v>
+        <f>34741.5+11080+2289+27950+7700+325</f>
+        <v>84085.5</v>
       </c>
       <c r="N15" s="43">
-        <v>0</v>
+        <v>86092</v>
       </c>
       <c r="P15" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>202882</v>
       </c>
       <c r="Q15" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R15" s="46">
-        <v>0</v>
+      <c r="R15" s="46" t="s">
+        <v>11</v>
       </c>
       <c r="S15" s="233"/>
       <c r="T15" s="233"/>
@@ -40660,29 +40784,38 @@
       <c r="B16" s="32">
         <v>45210</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="620"/>
+      <c r="C16" s="33">
+        <v>17209</v>
+      </c>
+      <c r="D16" s="620" t="s">
+        <v>1228</v>
+      </c>
       <c r="E16" s="35">
         <v>45210</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="36">
+        <v>156596</v>
+      </c>
       <c r="G16" s="37"/>
       <c r="H16" s="38">
         <v>45210</v>
       </c>
-      <c r="I16" s="39"/>
+      <c r="I16" s="39">
+        <v>1120</v>
+      </c>
       <c r="J16" s="40"/>
       <c r="K16" s="342"/>
       <c r="L16" s="13"/>
       <c r="M16" s="42">
-        <v>0</v>
+        <f>54775+2155+3466+6600</f>
+        <v>66996</v>
       </c>
       <c r="N16" s="43">
-        <v>0</v>
+        <v>71271</v>
       </c>
       <c r="P16" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>156596</v>
       </c>
       <c r="Q16" s="45">
         <f t="shared" si="2"/>
@@ -40698,37 +40831,51 @@
       <c r="U16" s="233"/>
       <c r="V16" s="233"/>
     </row>
-    <row r="17" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="504" t="s">
         <v>654</v>
       </c>
       <c r="B17" s="32">
         <v>45211</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="619"/>
+      <c r="C17" s="33">
+        <v>11679</v>
+      </c>
+      <c r="D17" s="619" t="s">
+        <v>1229</v>
+      </c>
       <c r="E17" s="35">
         <v>45211</v>
       </c>
-      <c r="F17" s="36"/>
+      <c r="F17" s="36">
+        <v>167432</v>
+      </c>
       <c r="G17" s="37"/>
       <c r="H17" s="38">
         <v>45211</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="55"/>
+      <c r="I17" s="39">
+        <v>1845</v>
+      </c>
+      <c r="J17" s="40">
+        <v>45211</v>
+      </c>
+      <c r="K17" s="342" t="s">
+        <v>1230</v>
+      </c>
+      <c r="L17" s="55">
+        <v>11658</v>
+      </c>
       <c r="M17" s="42">
-        <v>0</v>
+        <v>75157</v>
       </c>
       <c r="N17" s="43">
-        <v>0</v>
+        <v>67093</v>
       </c>
       <c r="O17" s="499"/>
       <c r="P17" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167432</v>
       </c>
       <c r="Q17" s="45">
         <f t="shared" si="2"/>
@@ -41438,9 +41585,15 @@
       <c r="G35" s="37"/>
       <c r="H35" s="38"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="342"/>
-      <c r="L35" s="89"/>
+      <c r="J35" s="87">
+        <v>45206</v>
+      </c>
+      <c r="K35" s="342" t="s">
+        <v>1224</v>
+      </c>
+      <c r="L35" s="89">
+        <v>27588</v>
+      </c>
       <c r="M35" s="42">
         <v>0</v>
       </c>
@@ -41857,19 +42010,19 @@
       <c r="J49" s="338"/>
       <c r="K49" s="471"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="657">
+      <c r="M49" s="651">
         <f>SUM(M5:M40)</f>
-        <v>321633.5</v>
-      </c>
-      <c r="N49" s="657">
+        <v>981881.86</v>
+      </c>
+      <c r="N49" s="651">
         <f>SUM(N5:N40)</f>
-        <v>238407</v>
+        <v>735488</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>680946.5</v>
-      </c>
-      <c r="Q49" s="669">
+        <v>2088342.86</v>
+      </c>
+      <c r="Q49" s="663">
         <f>SUM(Q5:Q40)</f>
         <v>4.5</v>
       </c>
@@ -41890,13 +42043,13 @@
       <c r="J50" s="338"/>
       <c r="K50" s="343"/>
       <c r="L50" s="49"/>
-      <c r="M50" s="658"/>
-      <c r="N50" s="658"/>
+      <c r="M50" s="652"/>
+      <c r="N50" s="652"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="670"/>
+      <c r="Q50" s="664"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
-        <v>5952</v>
+        <v>54838</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41948,11 +42101,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="635">
+      <c r="M53" s="665">
         <f>M49+N49</f>
-        <v>560040.5</v>
-      </c>
-      <c r="N53" s="636"/>
+        <v>1717369.8599999999</v>
+      </c>
+      <c r="N53" s="666"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -42413,7 +42566,7 @@
       </c>
       <c r="C79" s="519">
         <f>SUM(C5:C78)</f>
-        <v>77706</v>
+        <v>248110</v>
       </c>
       <c r="D79" s="520"/>
       <c r="E79" s="521" t="s">
@@ -42421,7 +42574,7 @@
       </c>
       <c r="F79" s="522">
         <f>SUM(F5:F61)</f>
-        <v>676240</v>
+        <v>2034751</v>
       </c>
       <c r="G79" s="523"/>
       <c r="H79" s="521" t="s">
@@ -42429,7 +42582,7 @@
       </c>
       <c r="I79" s="524">
         <f>SUM(I5:I61)</f>
-        <v>13566</v>
+        <v>38884</v>
       </c>
       <c r="J79" s="525"/>
       <c r="K79" s="526" t="s">
@@ -42437,7 +42590,7 @@
       </c>
       <c r="L79" s="527">
         <f>SUM(L5:L77)-L26</f>
-        <v>54145</v>
+        <v>136078</v>
       </c>
       <c r="M79" s="150"/>
       <c r="N79" s="150"/>
@@ -42455,50 +42608,50 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="665" t="s">
+      <c r="H81" s="659" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="666"/>
+      <c r="I81" s="660"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="667">
+      <c r="K81" s="661">
         <f>I79+L79</f>
-        <v>67711</v>
-      </c>
-      <c r="L81" s="668"/>
+        <v>174962</v>
+      </c>
+      <c r="L81" s="662"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="659" t="s">
+      <c r="D82" s="653" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="659"/>
+      <c r="E82" s="653"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
-        <v>530823</v>
+        <v>1611679</v>
       </c>
       <c r="I82" s="157"/>
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="660" t="s">
+      <c r="D83" s="654" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="660"/>
+      <c r="E83" s="654"/>
       <c r="F83" s="101">
         <v>0</v>
       </c>
-      <c r="I83" s="661" t="s">
+      <c r="I83" s="655" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="662"/>
-      <c r="K83" s="663">
+      <c r="J83" s="656"/>
+      <c r="K83" s="657">
         <f>F85+F86+F87</f>
-        <v>4304326.4000000004</v>
-      </c>
-      <c r="L83" s="663"/>
+        <v>5385182.4000000004</v>
+      </c>
+      <c r="L83" s="657"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -42532,18 +42685,18 @@
       </c>
       <c r="F85" s="150">
         <f>SUM(F82:F84)</f>
-        <v>530823</v>
+        <v>1611679</v>
       </c>
       <c r="H85" s="168"/>
       <c r="I85" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="664">
+      <c r="K85" s="658">
         <f>-C4</f>
         <v>-3340512.21</v>
       </c>
-      <c r="L85" s="663"/>
+      <c r="L85" s="657"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -42561,20 +42714,20 @@
       <c r="C87" s="172">
         <v>45226</v>
       </c>
-      <c r="D87" s="652" t="s">
+      <c r="D87" s="646" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="653"/>
+      <c r="E87" s="647"/>
       <c r="F87" s="173">
         <v>3773503.4</v>
       </c>
-      <c r="I87" s="654"/>
-      <c r="J87" s="655"/>
-      <c r="K87" s="656">
+      <c r="I87" s="648"/>
+      <c r="J87" s="649"/>
+      <c r="K87" s="650">
         <f>K83+K85</f>
-        <v>963814.19000000041</v>
-      </c>
-      <c r="L87" s="656"/>
+        <v>2044670.1900000004</v>
+      </c>
+      <c r="L87" s="650"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -42719,18 +42872,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="K85:L85"/>
     <mergeCell ref="D87:E87"/>
     <mergeCell ref="I87:J87"/>
@@ -42742,10 +42883,23 @@
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="I83:J83"/>
     <mergeCell ref="K83:L83"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -44117,10 +44271,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="671"/>
-      <c r="J36" s="672"/>
-      <c r="K36" s="672"/>
-      <c r="L36" s="673"/>
+      <c r="I36" s="676"/>
+      <c r="J36" s="677"/>
+      <c r="K36" s="677"/>
+      <c r="L36" s="678"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -44147,10 +44301,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="671"/>
-      <c r="J37" s="672"/>
-      <c r="K37" s="672"/>
-      <c r="L37" s="673"/>
+      <c r="I37" s="676"/>
+      <c r="J37" s="677"/>
+      <c r="K37" s="677"/>
+      <c r="L37" s="678"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -44207,10 +44361,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="674" t="s">
+      <c r="I40" s="679" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="675"/>
+      <c r="J40" s="680"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -44229,8 +44383,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="676"/>
-      <c r="J41" s="677"/>
+      <c r="I41" s="681"/>
+      <c r="J41" s="682"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -44249,8 +44403,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="678"/>
-      <c r="J42" s="679"/>
+      <c r="I42" s="683"/>
+      <c r="J42" s="684"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -44754,10 +44908,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="680" t="s">
+      <c r="I67" s="685" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="681"/>
+      <c r="J67" s="686"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -44777,11 +44931,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="684" t="s">
+      <c r="G68" s="689" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="682"/>
-      <c r="J68" s="683"/>
+      <c r="I68" s="687"/>
+      <c r="J68" s="688"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -44792,7 +44946,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="685"/>
+      <c r="G69" s="690"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -46421,10 +46575,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="674" t="s">
+      <c r="I49" s="679" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="675"/>
+      <c r="J49" s="680"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -46443,8 +46597,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="676"/>
-      <c r="J50" s="677"/>
+      <c r="I50" s="681"/>
+      <c r="J50" s="682"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -46463,8 +46617,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="678"/>
-      <c r="J51" s="679"/>
+      <c r="I51" s="683"/>
+      <c r="J51" s="684"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -46740,10 +46894,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="680" t="s">
+      <c r="I65" s="685" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="681"/>
+      <c r="J65" s="686"/>
       <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>0</v>
@@ -46766,8 +46920,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I66" s="689"/>
-      <c r="J66" s="690"/>
+      <c r="I66" s="694"/>
+      <c r="J66" s="695"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -46831,7 +46985,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="684" t="s">
+      <c r="G70" s="689" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -46847,7 +47001,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="685"/>
+      <c r="G71" s="690"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="550"/>
@@ -47416,23 +47570,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="639"/>
-      <c r="C1" s="641" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="671" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="642"/>
-      <c r="E1" s="642"/>
-      <c r="F1" s="642"/>
-      <c r="G1" s="642"/>
-      <c r="H1" s="642"/>
-      <c r="I1" s="642"/>
-      <c r="J1" s="642"/>
-      <c r="K1" s="642"/>
-      <c r="L1" s="642"/>
-      <c r="M1" s="642"/>
+      <c r="D1" s="672"/>
+      <c r="E1" s="672"/>
+      <c r="F1" s="672"/>
+      <c r="G1" s="672"/>
+      <c r="H1" s="672"/>
+      <c r="I1" s="672"/>
+      <c r="J1" s="672"/>
+      <c r="K1" s="672"/>
+      <c r="L1" s="672"/>
+      <c r="M1" s="672"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="640"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -47442,24 +47596,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="643" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="644"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="645" t="s">
+      <c r="H3" s="675" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="645"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="637" t="s">
+      <c r="P3" s="667" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="646" t="s">
+      <c r="R3" s="640" t="s">
         <v>3</v>
       </c>
     </row>
@@ -47474,14 +47628,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="648" t="s">
+      <c r="E4" s="642" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="649"/>
-      <c r="H4" s="650" t="s">
+      <c r="F4" s="643"/>
+      <c r="H4" s="644" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="651"/>
+      <c r="I4" s="645"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -47491,11 +47645,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="638"/>
+      <c r="P4" s="668"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="647"/>
+      <c r="R4" s="641"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -49471,11 +49625,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="657">
+      <c r="M49" s="651">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="657">
+      <c r="N49" s="651">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -49483,7 +49637,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="669">
+      <c r="Q49" s="663">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -49516,10 +49670,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="658"/>
-      <c r="N50" s="658"/>
+      <c r="M50" s="652"/>
+      <c r="N50" s="652"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="670"/>
+      <c r="Q50" s="664"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -49610,11 +49764,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="635">
+      <c r="M53" s="665">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="636"/>
+      <c r="N53" s="666"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -50173,26 +50327,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="665" t="s">
+      <c r="H77" s="659" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="666"/>
+      <c r="I77" s="660"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="667">
+      <c r="K77" s="661">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="668"/>
+      <c r="L77" s="662"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="659" t="s">
+      <c r="D78" s="653" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="659"/>
+      <c r="E78" s="653"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -50201,22 +50355,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="660" t="s">
+      <c r="D79" s="654" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="660"/>
+      <c r="E79" s="654"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="661" t="s">
+      <c r="I79" s="655" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="662"/>
-      <c r="K79" s="663">
+      <c r="J79" s="656"/>
+      <c r="K79" s="657">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="663"/>
+      <c r="L79" s="657"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -50257,11 +50411,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="664">
+      <c r="K81" s="658">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="663"/>
+      <c r="L81" s="657"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -50278,22 +50432,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="652" t="s">
+      <c r="D83" s="646" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="653"/>
+      <c r="E83" s="647"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="686" t="s">
+      <c r="I83" s="691" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="687"/>
-      <c r="K83" s="688">
+      <c r="J83" s="692"/>
+      <c r="K83" s="693">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="688"/>
+      <c r="L83" s="693"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -50440,12 +50594,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -50462,6 +50610,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51873,10 +52027,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="671"/>
-      <c r="J36" s="672"/>
-      <c r="K36" s="672"/>
-      <c r="L36" s="673"/>
+      <c r="I36" s="676"/>
+      <c r="J36" s="677"/>
+      <c r="K36" s="677"/>
+      <c r="L36" s="678"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -51903,10 +52057,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="671"/>
-      <c r="J37" s="672"/>
-      <c r="K37" s="672"/>
-      <c r="L37" s="673"/>
+      <c r="I37" s="676"/>
+      <c r="J37" s="677"/>
+      <c r="K37" s="677"/>
+      <c r="L37" s="678"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -51973,10 +52127,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="674" t="s">
+      <c r="I40" s="679" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="675"/>
+      <c r="J40" s="680"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -51995,8 +52149,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="676"/>
-      <c r="J41" s="677"/>
+      <c r="I41" s="681"/>
+      <c r="J41" s="682"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -52015,8 +52169,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="678"/>
-      <c r="J42" s="679"/>
+      <c r="I42" s="683"/>
+      <c r="J42" s="684"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -52520,10 +52674,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="680" t="s">
+      <c r="I67" s="685" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="681"/>
+      <c r="J67" s="686"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -52543,11 +52697,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="684" t="s">
+      <c r="G68" s="689" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="689"/>
-      <c r="J68" s="690"/>
+      <c r="I68" s="694"/>
+      <c r="J68" s="695"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -52558,7 +52712,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="685"/>
+      <c r="G69" s="690"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -53173,23 +53327,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="639"/>
-      <c r="C1" s="641" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="671" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="642"/>
-      <c r="E1" s="642"/>
-      <c r="F1" s="642"/>
-      <c r="G1" s="642"/>
-      <c r="H1" s="642"/>
-      <c r="I1" s="642"/>
-      <c r="J1" s="642"/>
-      <c r="K1" s="642"/>
-      <c r="L1" s="642"/>
-      <c r="M1" s="642"/>
+      <c r="D1" s="672"/>
+      <c r="E1" s="672"/>
+      <c r="F1" s="672"/>
+      <c r="G1" s="672"/>
+      <c r="H1" s="672"/>
+      <c r="I1" s="672"/>
+      <c r="J1" s="672"/>
+      <c r="K1" s="672"/>
+      <c r="L1" s="672"/>
+      <c r="M1" s="672"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="640"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -53199,24 +53353,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="643" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="644"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="645" t="s">
+      <c r="H3" s="675" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="645"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="637" t="s">
+      <c r="P3" s="667" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="691" t="s">
+      <c r="R3" s="696" t="s">
         <v>3</v>
       </c>
     </row>
@@ -53231,14 +53385,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="648" t="s">
+      <c r="E4" s="642" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="649"/>
-      <c r="H4" s="650" t="s">
+      <c r="F4" s="643"/>
+      <c r="H4" s="644" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="651"/>
+      <c r="I4" s="645"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -53248,11 +53402,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="638"/>
+      <c r="P4" s="668"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="692"/>
+      <c r="R4" s="697"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -55233,11 +55387,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="657">
+      <c r="M49" s="651">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="657">
+      <c r="N49" s="651">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -55245,7 +55399,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="669">
+      <c r="Q49" s="663">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -55278,10 +55432,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="658"/>
-      <c r="N50" s="658"/>
+      <c r="M50" s="652"/>
+      <c r="N50" s="652"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="670"/>
+      <c r="Q50" s="664"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -55372,11 +55526,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="635">
+      <c r="M53" s="665">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="636"/>
+      <c r="N53" s="666"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -55855,26 +56009,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="665" t="s">
+      <c r="H77" s="659" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="666"/>
+      <c r="I77" s="660"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="667">
+      <c r="K77" s="661">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="668"/>
+      <c r="L77" s="662"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="659" t="s">
+      <c r="D78" s="653" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="659"/>
+      <c r="E78" s="653"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -55883,22 +56037,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="660" t="s">
+      <c r="D79" s="654" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="660"/>
+      <c r="E79" s="654"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="661" t="s">
+      <c r="I79" s="655" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="662"/>
-      <c r="K79" s="663">
+      <c r="J79" s="656"/>
+      <c r="K79" s="657">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="663"/>
+      <c r="L79" s="657"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -55939,11 +56093,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="664">
+      <c r="K81" s="658">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="663"/>
+      <c r="L81" s="657"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -55960,22 +56114,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="652" t="s">
+      <c r="D83" s="646" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="653"/>
+      <c r="E83" s="647"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="654" t="s">
+      <c r="I83" s="648" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="655"/>
-      <c r="K83" s="656">
+      <c r="J83" s="649"/>
+      <c r="K83" s="650">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="656"/>
+      <c r="L83" s="650"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -56122,6 +56276,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -56138,12 +56298,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -57446,10 +57600,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="671"/>
-      <c r="J36" s="672"/>
-      <c r="K36" s="672"/>
-      <c r="L36" s="673"/>
+      <c r="I36" s="676"/>
+      <c r="J36" s="677"/>
+      <c r="K36" s="677"/>
+      <c r="L36" s="678"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -57466,10 +57620,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="671"/>
-      <c r="J37" s="672"/>
-      <c r="K37" s="672"/>
-      <c r="L37" s="673"/>
+      <c r="I37" s="676"/>
+      <c r="J37" s="677"/>
+      <c r="K37" s="677"/>
+      <c r="L37" s="678"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -57526,10 +57680,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="674" t="s">
+      <c r="I40" s="679" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="675"/>
+      <c r="J40" s="680"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -57548,8 +57702,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="676"/>
-      <c r="J41" s="677"/>
+      <c r="I41" s="681"/>
+      <c r="J41" s="682"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -57568,8 +57722,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="678"/>
-      <c r="J42" s="679"/>
+      <c r="I42" s="683"/>
+      <c r="J42" s="684"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -58073,10 +58227,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="680" t="s">
+      <c r="I67" s="685" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="681"/>
+      <c r="J67" s="686"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -58096,11 +58250,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="684" t="s">
+      <c r="G68" s="689" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="689"/>
-      <c r="J68" s="690"/>
+      <c r="I68" s="694"/>
+      <c r="J68" s="695"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -58111,7 +58265,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="685"/>
+      <c r="G69" s="690"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -58717,23 +58871,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="639"/>
-      <c r="C1" s="641" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="671" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="642"/>
-      <c r="E1" s="642"/>
-      <c r="F1" s="642"/>
-      <c r="G1" s="642"/>
-      <c r="H1" s="642"/>
-      <c r="I1" s="642"/>
-      <c r="J1" s="642"/>
-      <c r="K1" s="642"/>
-      <c r="L1" s="642"/>
-      <c r="M1" s="642"/>
+      <c r="D1" s="672"/>
+      <c r="E1" s="672"/>
+      <c r="F1" s="672"/>
+      <c r="G1" s="672"/>
+      <c r="H1" s="672"/>
+      <c r="I1" s="672"/>
+      <c r="J1" s="672"/>
+      <c r="K1" s="672"/>
+      <c r="L1" s="672"/>
+      <c r="M1" s="672"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="640"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -58743,24 +58897,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="643" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="644"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="645" t="s">
+      <c r="H3" s="675" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="645"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="637" t="s">
+      <c r="P3" s="667" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="691" t="s">
+      <c r="R3" s="696" t="s">
         <v>3</v>
       </c>
     </row>
@@ -58775,14 +58929,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="648" t="s">
+      <c r="E4" s="642" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="649"/>
-      <c r="H4" s="650" t="s">
+      <c r="F4" s="643"/>
+      <c r="H4" s="644" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="651"/>
+      <c r="I4" s="645"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -58792,11 +58946,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="638"/>
+      <c r="P4" s="668"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="692"/>
+      <c r="R4" s="697"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -60817,11 +60971,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="657">
+      <c r="M49" s="651">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="657">
+      <c r="N49" s="651">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -60829,7 +60983,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="669">
+      <c r="Q49" s="663">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -60856,10 +61010,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="658"/>
-      <c r="N50" s="658"/>
+      <c r="M50" s="652"/>
+      <c r="N50" s="652"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="670"/>
+      <c r="Q50" s="664"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -60933,11 +61087,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="635">
+      <c r="M53" s="665">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="636"/>
+      <c r="N53" s="666"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -61566,26 +61720,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="665" t="s">
+      <c r="H79" s="659" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="666"/>
+      <c r="I79" s="660"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="667">
+      <c r="K79" s="661">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="668"/>
+      <c r="L79" s="662"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="659" t="s">
+      <c r="D80" s="653" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="659"/>
+      <c r="E80" s="653"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -61594,22 +61748,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="660" t="s">
+      <c r="D81" s="654" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="660"/>
+      <c r="E81" s="654"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="661" t="s">
+      <c r="I81" s="655" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="662"/>
-      <c r="K81" s="663">
+      <c r="J81" s="656"/>
+      <c r="K81" s="657">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="663"/>
+      <c r="L81" s="657"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -61650,11 +61804,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="664">
+      <c r="K83" s="658">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="663"/>
+      <c r="L83" s="657"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -61671,22 +61825,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="652" t="s">
+      <c r="D85" s="646" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="653"/>
+      <c r="E85" s="647"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="654" t="s">
+      <c r="I85" s="648" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="655"/>
-      <c r="K85" s="656">
+      <c r="J85" s="649"/>
+      <c r="K85" s="650">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="656"/>
+      <c r="L85" s="650"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -61834,12 +61988,6 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -61856,6 +62004,12 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -63175,10 +63329,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="671"/>
-      <c r="J36" s="672"/>
-      <c r="K36" s="672"/>
-      <c r="L36" s="673"/>
+      <c r="I36" s="676"/>
+      <c r="J36" s="677"/>
+      <c r="K36" s="677"/>
+      <c r="L36" s="678"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -63201,10 +63355,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="671"/>
-      <c r="J37" s="672"/>
-      <c r="K37" s="672"/>
-      <c r="L37" s="673"/>
+      <c r="I37" s="676"/>
+      <c r="J37" s="677"/>
+      <c r="K37" s="677"/>
+      <c r="L37" s="678"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -63279,10 +63433,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="674" t="s">
+      <c r="I40" s="679" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="675"/>
+      <c r="J40" s="680"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -63307,8 +63461,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="676"/>
-      <c r="J41" s="677"/>
+      <c r="I41" s="681"/>
+      <c r="J41" s="682"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -63333,8 +63487,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="678"/>
-      <c r="J42" s="679"/>
+      <c r="I42" s="683"/>
+      <c r="J42" s="684"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -63856,10 +64010,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="680" t="s">
+      <c r="I67" s="685" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="681"/>
+      <c r="J67" s="686"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -63879,11 +64033,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="684" t="s">
+      <c r="G68" s="689" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="689"/>
-      <c r="J68" s="690"/>
+      <c r="I68" s="694"/>
+      <c r="J68" s="695"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -63894,7 +64048,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="685"/>
+      <c r="G69" s="690"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -64510,23 +64664,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="639"/>
-      <c r="C1" s="641" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="671" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="642"/>
-      <c r="E1" s="642"/>
-      <c r="F1" s="642"/>
-      <c r="G1" s="642"/>
-      <c r="H1" s="642"/>
-      <c r="I1" s="642"/>
-      <c r="J1" s="642"/>
-      <c r="K1" s="642"/>
-      <c r="L1" s="642"/>
-      <c r="M1" s="642"/>
+      <c r="D1" s="672"/>
+      <c r="E1" s="672"/>
+      <c r="F1" s="672"/>
+      <c r="G1" s="672"/>
+      <c r="H1" s="672"/>
+      <c r="I1" s="672"/>
+      <c r="J1" s="672"/>
+      <c r="K1" s="672"/>
+      <c r="L1" s="672"/>
+      <c r="M1" s="672"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="640"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -64536,27 +64690,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="643" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="644"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="645" t="s">
+      <c r="H3" s="675" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="645"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="637" t="s">
+      <c r="P3" s="667" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="691" t="s">
+      <c r="R3" s="696" t="s">
         <v>3</v>
       </c>
     </row>
@@ -64571,14 +64725,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="648" t="s">
+      <c r="E4" s="642" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="649"/>
-      <c r="H4" s="650" t="s">
+      <c r="F4" s="643"/>
+      <c r="H4" s="644" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="651"/>
+      <c r="I4" s="645"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -64588,11 +64742,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="638"/>
+      <c r="P4" s="668"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="692"/>
+      <c r="R4" s="697"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -66595,11 +66749,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="657">
+      <c r="M49" s="651">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="657">
+      <c r="N49" s="651">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -66607,7 +66761,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="669">
+      <c r="Q49" s="663">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -66640,10 +66794,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="658"/>
-      <c r="N50" s="658"/>
+      <c r="M50" s="652"/>
+      <c r="N50" s="652"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="670"/>
+      <c r="Q50" s="664"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -66722,11 +66876,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="635">
+      <c r="M53" s="665">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="636"/>
+      <c r="N53" s="666"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -67205,26 +67359,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="665" t="s">
+      <c r="H77" s="659" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="666"/>
+      <c r="I77" s="660"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="667">
+      <c r="K77" s="661">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="668"/>
+      <c r="L77" s="662"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="659" t="s">
+      <c r="D78" s="653" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="659"/>
+      <c r="E78" s="653"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -67233,22 +67387,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="660" t="s">
+      <c r="D79" s="654" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="660"/>
+      <c r="E79" s="654"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="661" t="s">
+      <c r="I79" s="655" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="662"/>
-      <c r="K79" s="663">
+      <c r="J79" s="656"/>
+      <c r="K79" s="657">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="663"/>
+      <c r="L79" s="657"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -67289,11 +67443,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="664">
+      <c r="K81" s="658">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="663"/>
+      <c r="L81" s="657"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -67310,22 +67464,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="652" t="s">
+      <c r="D83" s="646" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="653"/>
+      <c r="E83" s="647"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="686" t="s">
+      <c r="I83" s="691" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="687"/>
-      <c r="K83" s="688">
+      <c r="J83" s="692"/>
+      <c r="K83" s="693">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="688"/>
+      <c r="L83" s="693"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -67473,6 +67627,12 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -67489,12 +67649,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #10 OCTUBRE 2023/BALANCE  ZAVALETA   OCTUBRE  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #10 OCTUBRE 2023/BALANCE  ZAVALETA   OCTUBRE  2023.xlsx
@@ -793,7 +793,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="1232">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4486,6 +4486,9 @@
   </si>
   <si>
     <t>Vacaciones Daniela--KAREN</t>
+  </si>
+  <si>
+    <t>ACEITE-VINAGRE-QUESOS-PASTOR-</t>
   </si>
 </sst>
 </file>
@@ -7488,6 +7491,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="22" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7562,39 +7604,6 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7679,12 +7688,6 @@
     </xf>
     <xf numFmtId="165" fontId="17" fillId="25" borderId="93" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="22" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12397,23 +12400,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="671" t="s">
+      <c r="B1" s="646"/>
+      <c r="C1" s="648" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
-      <c r="J1" s="672"/>
-      <c r="K1" s="672"/>
-      <c r="L1" s="672"/>
-      <c r="M1" s="672"/>
+      <c r="D1" s="649"/>
+      <c r="E1" s="649"/>
+      <c r="F1" s="649"/>
+      <c r="G1" s="649"/>
+      <c r="H1" s="649"/>
+      <c r="I1" s="649"/>
+      <c r="J1" s="649"/>
+      <c r="K1" s="649"/>
+      <c r="L1" s="649"/>
+      <c r="M1" s="649"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="647"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -12423,24 +12426,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="650" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="651"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="652" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="652"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="667" t="s">
+      <c r="P3" s="644" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="640" t="s">
+      <c r="R3" s="653" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12455,14 +12458,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="642" t="s">
+      <c r="E4" s="655" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="643"/>
-      <c r="H4" s="644" t="s">
+      <c r="F4" s="656"/>
+      <c r="H4" s="657" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="645"/>
+      <c r="I4" s="658"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -12472,11 +12475,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="668"/>
+      <c r="P4" s="645"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="641"/>
+      <c r="R4" s="654"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -14311,11 +14314,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="651">
+      <c r="M49" s="664">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="651">
+      <c r="N49" s="664">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -14323,7 +14326,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="663">
+      <c r="Q49" s="676">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -14344,10 +14347,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="652"/>
-      <c r="N50" s="652"/>
+      <c r="M50" s="665"/>
+      <c r="N50" s="665"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="664"/>
+      <c r="Q50" s="677"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -14402,11 +14405,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="665">
+      <c r="M53" s="642">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="666"/>
+      <c r="N53" s="643"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -14831,26 +14834,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="659" t="s">
+      <c r="H77" s="672" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="660"/>
+      <c r="I77" s="673"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="661">
+      <c r="K77" s="674">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="662"/>
+      <c r="L77" s="675"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="653" t="s">
+      <c r="D78" s="666" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="653"/>
+      <c r="E78" s="666"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -14859,22 +14862,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="654" t="s">
+      <c r="D79" s="667" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="654"/>
+      <c r="E79" s="667"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="655" t="s">
+      <c r="I79" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="656"/>
-      <c r="K79" s="657">
+      <c r="J79" s="669"/>
+      <c r="K79" s="670">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="657"/>
+      <c r="L79" s="670"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -14915,11 +14918,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="658">
+      <c r="K81" s="671">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="657"/>
+      <c r="L81" s="670"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -14936,22 +14939,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="646" t="s">
+      <c r="D83" s="659" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="647"/>
+      <c r="E83" s="660"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="648" t="s">
+      <c r="I83" s="661" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="649"/>
-      <c r="K83" s="650">
+      <c r="J83" s="662"/>
+      <c r="K83" s="663">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="650"/>
+      <c r="L83" s="663"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -15098,12 +15101,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15120,6 +15117,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16289,10 +16292,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="679" t="s">
+      <c r="I37" s="681" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="680"/>
+      <c r="J37" s="682"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -16311,8 +16314,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="681"/>
-      <c r="J38" s="682"/>
+      <c r="I38" s="683"/>
+      <c r="J38" s="684"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -16331,8 +16334,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="683"/>
-      <c r="J39" s="684"/>
+      <c r="I39" s="685"/>
+      <c r="J39" s="686"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -16890,10 +16893,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="685" t="s">
+      <c r="I67" s="687" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="686"/>
+      <c r="J67" s="688"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -16915,11 +16918,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="689" t="s">
+      <c r="G68" s="691" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="694"/>
-      <c r="J68" s="695"/>
+      <c r="I68" s="696"/>
+      <c r="J68" s="697"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -16930,7 +16933,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="690"/>
+      <c r="G69" s="692"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -17518,23 +17521,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="671" t="s">
+      <c r="B1" s="646"/>
+      <c r="C1" s="648" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
-      <c r="J1" s="672"/>
-      <c r="K1" s="672"/>
-      <c r="L1" s="672"/>
-      <c r="M1" s="672"/>
+      <c r="D1" s="649"/>
+      <c r="E1" s="649"/>
+      <c r="F1" s="649"/>
+      <c r="G1" s="649"/>
+      <c r="H1" s="649"/>
+      <c r="I1" s="649"/>
+      <c r="J1" s="649"/>
+      <c r="K1" s="649"/>
+      <c r="L1" s="649"/>
+      <c r="M1" s="649"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="647"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -17544,27 +17547,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="650" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="651"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="652" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="652"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="667" t="s">
+      <c r="P3" s="644" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="696" t="s">
+      <c r="R3" s="698" t="s">
         <v>3</v>
       </c>
     </row>
@@ -17579,14 +17582,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="642" t="s">
+      <c r="E4" s="655" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="643"/>
-      <c r="H4" s="644" t="s">
+      <c r="F4" s="656"/>
+      <c r="H4" s="657" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="645"/>
+      <c r="I4" s="658"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -17596,11 +17599,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="668"/>
+      <c r="P4" s="645"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="697"/>
+      <c r="R4" s="699"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -19656,11 +19659,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="651">
+      <c r="M49" s="664">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="651">
+      <c r="N49" s="664">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -19668,7 +19671,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="663">
+      <c r="Q49" s="676">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -19701,10 +19704,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="652"/>
-      <c r="N50" s="652"/>
+      <c r="M50" s="665"/>
+      <c r="N50" s="665"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="664"/>
+      <c r="Q50" s="677"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -19789,11 +19792,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="665">
+      <c r="M53" s="642">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="666"/>
+      <c r="N53" s="643"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -20122,26 +20125,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="659" t="s">
+      <c r="H69" s="672" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="660"/>
+      <c r="I69" s="673"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="661">
+      <c r="K69" s="674">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="662"/>
+      <c r="L69" s="675"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="653" t="s">
+      <c r="D70" s="666" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="653"/>
+      <c r="E70" s="666"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -20150,23 +20153,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="654" t="s">
+      <c r="D71" s="667" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="654"/>
+      <c r="E71" s="667"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="655" t="s">
+      <c r="I71" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="656"/>
-      <c r="K71" s="657">
+      <c r="J71" s="669"/>
+      <c r="K71" s="670">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="657"/>
+      <c r="L71" s="670"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -20208,11 +20211,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="658">
+      <c r="K73" s="671">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="657"/>
+      <c r="L73" s="670"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -20229,22 +20232,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="646" t="s">
+      <c r="D75" s="659" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="647"/>
+      <c r="E75" s="660"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="648" t="s">
+      <c r="I75" s="661" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="649"/>
-      <c r="K75" s="650">
+      <c r="J75" s="662"/>
+      <c r="K75" s="663">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="650"/>
+      <c r="L75" s="663"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -20392,6 +20395,12 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20408,12 +20417,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21583,10 +21586,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="679" t="s">
+      <c r="I37" s="681" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="680"/>
+      <c r="J37" s="682"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -21605,8 +21608,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="681"/>
-      <c r="J38" s="682"/>
+      <c r="I38" s="683"/>
+      <c r="J38" s="684"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -21625,8 +21628,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="683"/>
-      <c r="J39" s="684"/>
+      <c r="I39" s="685"/>
+      <c r="J39" s="686"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -22184,10 +22187,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="685" t="s">
+      <c r="I67" s="687" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="686"/>
+      <c r="J67" s="688"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -22209,11 +22212,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="689" t="s">
+      <c r="G68" s="691" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="694"/>
-      <c r="J68" s="695"/>
+      <c r="I68" s="696"/>
+      <c r="J68" s="697"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -22224,7 +22227,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="690"/>
+      <c r="G69" s="692"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -22813,23 +22816,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="671" t="s">
+      <c r="B1" s="646"/>
+      <c r="C1" s="648" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
-      <c r="J1" s="672"/>
-      <c r="K1" s="672"/>
-      <c r="L1" s="672"/>
-      <c r="M1" s="672"/>
+      <c r="D1" s="649"/>
+      <c r="E1" s="649"/>
+      <c r="F1" s="649"/>
+      <c r="G1" s="649"/>
+      <c r="H1" s="649"/>
+      <c r="I1" s="649"/>
+      <c r="J1" s="649"/>
+      <c r="K1" s="649"/>
+      <c r="L1" s="649"/>
+      <c r="M1" s="649"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="647"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -22839,25 +22842,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="650" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="651"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="652" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="652"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="667" t="s">
+      <c r="P3" s="644" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="696" t="s">
+      <c r="R3" s="698" t="s">
         <v>3</v>
       </c>
     </row>
@@ -22872,14 +22875,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="642" t="s">
+      <c r="E4" s="655" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="643"/>
-      <c r="H4" s="644" t="s">
+      <c r="F4" s="656"/>
+      <c r="H4" s="657" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="645"/>
+      <c r="I4" s="658"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -22889,11 +22892,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="668"/>
+      <c r="P4" s="645"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="697"/>
+      <c r="R4" s="699"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -25022,11 +25025,11 @@
       <c r="L49" s="49">
         <v>5250</v>
       </c>
-      <c r="M49" s="651">
+      <c r="M49" s="664">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="651">
+      <c r="N49" s="664">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -25034,7 +25037,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="663">
+      <c r="Q49" s="676">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -25067,10 +25070,10 @@
       <c r="L50" s="89">
         <v>3420</v>
       </c>
-      <c r="M50" s="652"/>
-      <c r="N50" s="652"/>
+      <c r="M50" s="665"/>
+      <c r="N50" s="665"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="664"/>
+      <c r="Q50" s="677"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -25161,11 +25164,11 @@
       <c r="L53" s="49">
         <v>8015.92</v>
       </c>
-      <c r="M53" s="665">
+      <c r="M53" s="642">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="666"/>
+      <c r="N53" s="643"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -25542,26 +25545,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="659" t="s">
+      <c r="H69" s="672" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="660"/>
+      <c r="I69" s="673"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="661">
+      <c r="K69" s="674">
         <f>I67+L67</f>
         <v>792651.90999999992</v>
       </c>
-      <c r="L69" s="662"/>
+      <c r="L69" s="675"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="653" t="s">
+      <c r="D70" s="666" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="653"/>
+      <c r="E70" s="666"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>896993.63999999966</v>
@@ -25570,22 +25573,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="654" t="s">
+      <c r="D71" s="667" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="654"/>
+      <c r="E71" s="667"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="655" t="s">
+      <c r="I71" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="656"/>
-      <c r="K71" s="657">
+      <c r="J71" s="669"/>
+      <c r="K71" s="670">
         <f>F73+F74+F75</f>
         <v>2818686.5799999996</v>
       </c>
-      <c r="L71" s="657"/>
+      <c r="L71" s="670"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -25630,11 +25633,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="658">
+      <c r="K73" s="671">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="657"/>
+      <c r="L73" s="670"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -25655,22 +25658,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="646" t="s">
+      <c r="D75" s="659" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="647"/>
+      <c r="E75" s="660"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="648" t="s">
+      <c r="I75" s="661" t="s">
         <v>220</v>
       </c>
-      <c r="J75" s="649"/>
-      <c r="K75" s="650">
+      <c r="J75" s="662"/>
+      <c r="K75" s="663">
         <f>K71+K73</f>
         <v>-312700.46000000043</v>
       </c>
-      <c r="L75" s="650"/>
+      <c r="L75" s="663"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -25818,6 +25821,12 @@
     <sortCondition ref="J40:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25834,12 +25843,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27107,10 +27110,10 @@
         <f t="shared" si="0"/>
         <v>9903.85</v>
       </c>
-      <c r="I37" s="679" t="s">
+      <c r="I37" s="681" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="680"/>
+      <c r="J37" s="682"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -27135,8 +27138,8 @@
         <f t="shared" si="0"/>
         <v>11767.68</v>
       </c>
-      <c r="I38" s="681"/>
-      <c r="J38" s="682"/>
+      <c r="I38" s="683"/>
+      <c r="J38" s="684"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -27161,8 +27164,8 @@
         <f t="shared" si="0"/>
         <v>24157.14</v>
       </c>
-      <c r="I39" s="683"/>
-      <c r="J39" s="684"/>
+      <c r="I39" s="685"/>
+      <c r="J39" s="686"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -27768,10 +27771,10 @@
         <f>SUM(G3:G66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I67" s="685" t="s">
+      <c r="I67" s="687" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="686"/>
+      <c r="J67" s="688"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>122543.6</v>
@@ -27793,11 +27796,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="689" t="s">
+      <c r="G68" s="691" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="694"/>
-      <c r="J68" s="695"/>
+      <c r="I68" s="696"/>
+      <c r="J68" s="697"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -27808,7 +27811,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="690"/>
+      <c r="G69" s="692"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -28396,23 +28399,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="671" t="s">
+      <c r="B1" s="646"/>
+      <c r="C1" s="648" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
-      <c r="J1" s="672"/>
-      <c r="K1" s="672"/>
-      <c r="L1" s="672"/>
-      <c r="M1" s="672"/>
+      <c r="D1" s="649"/>
+      <c r="E1" s="649"/>
+      <c r="F1" s="649"/>
+      <c r="G1" s="649"/>
+      <c r="H1" s="649"/>
+      <c r="I1" s="649"/>
+      <c r="J1" s="649"/>
+      <c r="K1" s="649"/>
+      <c r="L1" s="649"/>
+      <c r="M1" s="649"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="647"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -28422,25 +28425,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="650" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="651"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="652" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="652"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="667" t="s">
+      <c r="P3" s="644" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="696" t="s">
+      <c r="R3" s="698" t="s">
         <v>3</v>
       </c>
     </row>
@@ -28455,14 +28458,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="642" t="s">
+      <c r="E4" s="655" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="643"/>
-      <c r="H4" s="644" t="s">
+      <c r="F4" s="656"/>
+      <c r="H4" s="657" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="645"/>
+      <c r="I4" s="658"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -28472,11 +28475,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="668"/>
+      <c r="P4" s="645"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="697"/>
+      <c r="R4" s="699"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -30703,11 +30706,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="349"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="651">
+      <c r="M49" s="664">
         <f>SUM(M5:M40)</f>
         <v>2901103.23</v>
       </c>
-      <c r="N49" s="651">
+      <c r="N49" s="664">
         <f>SUM(N5:N40)</f>
         <v>2054394</v>
       </c>
@@ -30715,7 +30718,7 @@
         <f>SUM(P5:P40)</f>
         <v>6121324.54</v>
       </c>
-      <c r="Q49" s="663">
+      <c r="Q49" s="676">
         <f>SUM(Q5:Q40)</f>
         <v>-1197.4599999999919</v>
       </c>
@@ -30748,10 +30751,10 @@
       <c r="L50" s="89">
         <v>2958</v>
       </c>
-      <c r="M50" s="652"/>
-      <c r="N50" s="652"/>
+      <c r="M50" s="665"/>
+      <c r="N50" s="665"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="664"/>
+      <c r="Q50" s="677"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>146522</v>
@@ -30842,11 +30845,11 @@
       <c r="L53" s="49">
         <v>1100.01</v>
       </c>
-      <c r="M53" s="665">
+      <c r="M53" s="642">
         <f>M49+N49</f>
         <v>4955497.2300000004</v>
       </c>
-      <c r="N53" s="666"/>
+      <c r="N53" s="643"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -31561,26 +31564,26 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="659" t="s">
+      <c r="H81" s="672" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="660"/>
+      <c r="I81" s="673"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="661">
+      <c r="K81" s="674">
         <f>I79+L79</f>
         <v>778945.87000000011</v>
       </c>
-      <c r="L81" s="662"/>
+      <c r="L81" s="675"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="653" t="s">
+      <c r="D82" s="666" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="653"/>
+      <c r="E82" s="666"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
         <v>1583916.4599999995</v>
@@ -31589,22 +31592,22 @@
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="654" t="s">
+      <c r="D83" s="667" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="654"/>
+      <c r="E83" s="667"/>
       <c r="F83" s="101">
         <v>-1249902.31</v>
       </c>
-      <c r="I83" s="655" t="s">
+      <c r="I83" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="656"/>
-      <c r="K83" s="657">
+      <c r="J83" s="669"/>
+      <c r="K83" s="670">
         <f>F85+F86+F87</f>
         <v>3373322.2099999995</v>
       </c>
-      <c r="L83" s="657"/>
+      <c r="L83" s="670"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -31645,11 +31648,11 @@
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="658">
+      <c r="K85" s="671">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L85" s="657"/>
+      <c r="L85" s="670"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -31667,22 +31670,22 @@
       <c r="C87" s="172">
         <v>45171</v>
       </c>
-      <c r="D87" s="646" t="s">
+      <c r="D87" s="659" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="647"/>
+      <c r="E87" s="660"/>
       <c r="F87" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I87" s="698" t="s">
+      <c r="I87" s="700" t="s">
         <v>1143</v>
       </c>
-      <c r="J87" s="699"/>
-      <c r="K87" s="700">
+      <c r="J87" s="701"/>
+      <c r="K87" s="702">
         <f>K83+K85</f>
         <v>552770.89999999944</v>
       </c>
-      <c r="L87" s="700"/>
+      <c r="L87" s="702"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -31830,12 +31833,6 @@
     <sortCondition ref="B44:B74"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -31852,6 +31849,12 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33593,10 +33596,10 @@
         <f t="shared" si="0"/>
         <v>11880</v>
       </c>
-      <c r="I49" s="679" t="s">
+      <c r="I49" s="681" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="680"/>
+      <c r="J49" s="682"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -33621,8 +33624,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="681"/>
-      <c r="J50" s="682"/>
+      <c r="I50" s="683"/>
+      <c r="J50" s="684"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -33647,8 +33650,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="683"/>
-      <c r="J51" s="684"/>
+      <c r="I51" s="685"/>
+      <c r="J51" s="686"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -34008,10 +34011,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="685" t="s">
+      <c r="I65" s="687" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="686"/>
+      <c r="J65" s="688"/>
       <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>226585.60000000003</v>
@@ -34040,8 +34043,8 @@
         <f t="shared" ref="G66:G68" si="2">D66-F66</f>
         <v>0</v>
       </c>
-      <c r="I66" s="694"/>
-      <c r="J66" s="695"/>
+      <c r="I66" s="696"/>
+      <c r="J66" s="697"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -34117,7 +34120,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="689" t="s">
+      <c r="G70" s="691" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -34133,7 +34136,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="690"/>
+      <c r="G71" s="692"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="550"/>
@@ -34678,54 +34681,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="669"/>
-      <c r="C1" s="671" t="s">
+      <c r="B1" s="646"/>
+      <c r="C1" s="648" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
-      <c r="J1" s="672"/>
-      <c r="K1" s="672"/>
-      <c r="L1" s="672"/>
-      <c r="M1" s="672"/>
+      <c r="D1" s="649"/>
+      <c r="E1" s="649"/>
+      <c r="F1" s="649"/>
+      <c r="G1" s="649"/>
+      <c r="H1" s="649"/>
+      <c r="I1" s="649"/>
+      <c r="J1" s="649"/>
+      <c r="K1" s="649"/>
+      <c r="L1" s="649"/>
+      <c r="M1" s="649"/>
     </row>
     <row r="2" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="670"/>
+      <c r="B2" s="647"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="701" t="s">
+      <c r="J2" s="703" t="s">
         <v>1122</v>
       </c>
-      <c r="K2" s="702"/>
-      <c r="L2" s="702"/>
-      <c r="M2" s="703"/>
+      <c r="K2" s="704"/>
+      <c r="L2" s="704"/>
+      <c r="M2" s="705"/>
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="650" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="651"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="652" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="652"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="667" t="s">
+      <c r="P3" s="644" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="696" t="s">
+      <c r="R3" s="698" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34740,14 +34743,14 @@
       <c r="D4" s="24">
         <v>45171</v>
       </c>
-      <c r="E4" s="642" t="s">
+      <c r="E4" s="655" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="643"/>
-      <c r="H4" s="644" t="s">
+      <c r="F4" s="656"/>
+      <c r="H4" s="657" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="645"/>
+      <c r="I4" s="658"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -34757,11 +34760,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="668"/>
+      <c r="P4" s="645"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="697"/>
+      <c r="R4" s="699"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -36878,11 +36881,11 @@
       <c r="L49" s="369">
         <v>8488</v>
       </c>
-      <c r="M49" s="651">
+      <c r="M49" s="664">
         <f>SUM(M5:M40)</f>
         <v>2549017.7400000002</v>
       </c>
-      <c r="N49" s="651">
+      <c r="N49" s="664">
         <f>SUM(N5:N40)</f>
         <v>1551885</v>
       </c>
@@ -36890,7 +36893,7 @@
         <f>SUM(P5:P40)</f>
         <v>4761795.24</v>
       </c>
-      <c r="Q49" s="663">
+      <c r="Q49" s="676">
         <f>SUM(Q5:Q40)</f>
         <v>5.2399999999906868</v>
       </c>
@@ -36923,10 +36926,10 @@
       <c r="L50" s="369">
         <v>1856</v>
       </c>
-      <c r="M50" s="652"/>
-      <c r="N50" s="652"/>
+      <c r="M50" s="665"/>
+      <c r="N50" s="665"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="664"/>
+      <c r="Q50" s="677"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>37814</v>
@@ -37011,11 +37014,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="665">
+      <c r="M53" s="642">
         <f>M49+N49</f>
         <v>4100902.74</v>
       </c>
-      <c r="N53" s="666"/>
+      <c r="N53" s="643"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -37524,26 +37527,26 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="659" t="s">
+      <c r="H81" s="672" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="660"/>
+      <c r="I81" s="673"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="661">
+      <c r="K81" s="674">
         <f>I79+L79</f>
         <v>366832.13999999996</v>
       </c>
-      <c r="L81" s="662"/>
+      <c r="L81" s="675"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="653" t="s">
+      <c r="D82" s="666" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="653"/>
+      <c r="E82" s="666"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
         <v>1964745.67</v>
@@ -37552,22 +37555,22 @@
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="654" t="s">
+      <c r="D83" s="667" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="654"/>
+      <c r="E83" s="667"/>
       <c r="F83" s="101">
         <v>0</v>
       </c>
-      <c r="I83" s="655" t="s">
+      <c r="I83" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="656"/>
-      <c r="K83" s="657">
+      <c r="J83" s="669"/>
+      <c r="K83" s="670">
         <f>F85+F86+F87</f>
         <v>5604393.8799999999</v>
       </c>
-      <c r="L83" s="657"/>
+      <c r="L83" s="670"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -37608,11 +37611,11 @@
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="658">
+      <c r="K85" s="671">
         <f>-C4</f>
         <v>-3146460.66</v>
       </c>
-      <c r="L85" s="657"/>
+      <c r="L85" s="670"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -37630,20 +37633,20 @@
       <c r="C87" s="172">
         <v>45198</v>
       </c>
-      <c r="D87" s="646" t="s">
+      <c r="D87" s="659" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="647"/>
+      <c r="E87" s="660"/>
       <c r="F87" s="173">
         <v>3340512.21</v>
       </c>
-      <c r="I87" s="648"/>
-      <c r="J87" s="649"/>
-      <c r="K87" s="650">
+      <c r="I87" s="661"/>
+      <c r="J87" s="662"/>
+      <c r="K87" s="663">
         <f>K83+K85</f>
         <v>2457933.2199999997</v>
       </c>
-      <c r="L87" s="650"/>
+      <c r="L87" s="663"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -37788,13 +37791,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J2:M2"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -37811,6 +37807,13 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -39122,10 +39125,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="679" t="s">
+      <c r="I49" s="681" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="680"/>
+      <c r="J49" s="682"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -39144,8 +39147,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="681"/>
-      <c r="J50" s="682"/>
+      <c r="I50" s="683"/>
+      <c r="J50" s="684"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -39164,8 +39167,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="683"/>
-      <c r="J51" s="684"/>
+      <c r="I51" s="685"/>
+      <c r="J51" s="686"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -39441,10 +39444,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="685" t="s">
+      <c r="I65" s="687" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="686"/>
+      <c r="J65" s="688"/>
       <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>0</v>
@@ -39467,8 +39470,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I66" s="694"/>
-      <c r="J66" s="695"/>
+      <c r="I66" s="696"/>
+      <c r="J66" s="697"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -39532,7 +39535,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="689" t="s">
+      <c r="G70" s="691" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -39548,7 +39551,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="690"/>
+      <c r="G71" s="692"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="550"/>
@@ -40068,7 +40071,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -40094,54 +40097,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="669"/>
-      <c r="C1" s="671" t="s">
+      <c r="B1" s="646"/>
+      <c r="C1" s="648" t="s">
         <v>1142</v>
       </c>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
-      <c r="J1" s="672"/>
-      <c r="K1" s="672"/>
-      <c r="L1" s="672"/>
-      <c r="M1" s="672"/>
+      <c r="D1" s="649"/>
+      <c r="E1" s="649"/>
+      <c r="F1" s="649"/>
+      <c r="G1" s="649"/>
+      <c r="H1" s="649"/>
+      <c r="I1" s="649"/>
+      <c r="J1" s="649"/>
+      <c r="K1" s="649"/>
+      <c r="L1" s="649"/>
+      <c r="M1" s="649"/>
     </row>
     <row r="2" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="670"/>
+      <c r="B2" s="647"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="701" t="s">
+      <c r="J2" s="703" t="s">
         <v>1122</v>
       </c>
-      <c r="K2" s="702"/>
-      <c r="L2" s="702"/>
-      <c r="M2" s="703"/>
+      <c r="K2" s="704"/>
+      <c r="L2" s="704"/>
+      <c r="M2" s="705"/>
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="650" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="651"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="652" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="652"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="667" t="s">
+      <c r="P3" s="644" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="696" t="s">
+      <c r="R3" s="698" t="s">
         <v>3</v>
       </c>
     </row>
@@ -40156,14 +40159,14 @@
       <c r="D4" s="24">
         <v>45198</v>
       </c>
-      <c r="E4" s="642" t="s">
+      <c r="E4" s="655" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="643"/>
-      <c r="H4" s="644" t="s">
+      <c r="F4" s="656"/>
+      <c r="H4" s="657" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="645"/>
+      <c r="I4" s="658"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -40173,11 +40176,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="668"/>
+      <c r="P4" s="645"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="697"/>
+      <c r="R4" s="699"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -40273,7 +40276,7 @@
         <v>117181.5</v>
       </c>
       <c r="Q6" s="45">
-        <f t="shared" ref="Q6:Q11" si="1">P6-F6</f>
+        <f t="shared" ref="Q6:Q8" si="1">P6-F6</f>
         <v>4.5</v>
       </c>
       <c r="R6" s="390">
@@ -40531,7 +40534,7 @@
       <c r="J11" s="52">
         <v>45205</v>
       </c>
-      <c r="K11" s="704" t="s">
+      <c r="K11" s="640" t="s">
         <v>1222</v>
       </c>
       <c r="L11" s="49">
@@ -40588,7 +40591,7 @@
       <c r="J12" s="40">
         <v>45206</v>
       </c>
-      <c r="K12" s="705" t="s">
+      <c r="K12" s="641" t="s">
         <v>1224</v>
       </c>
       <c r="L12" s="49">
@@ -40896,33 +40899,42 @@
       <c r="B18" s="32">
         <v>45212</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="621"/>
+      <c r="C18" s="33">
+        <v>11696</v>
+      </c>
+      <c r="D18" s="621" t="s">
+        <v>1231</v>
+      </c>
       <c r="E18" s="35">
         <v>45212</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="36">
+        <v>166672</v>
+      </c>
       <c r="G18" s="37"/>
       <c r="H18" s="38">
         <v>45212</v>
       </c>
-      <c r="I18" s="39"/>
+      <c r="I18" s="39">
+        <v>2471</v>
+      </c>
       <c r="J18" s="40"/>
       <c r="K18" s="616"/>
       <c r="L18" s="49"/>
       <c r="M18" s="42">
-        <v>0</v>
+        <f>85080+5633+539</f>
+        <v>91252</v>
       </c>
       <c r="N18" s="43">
-        <v>0</v>
+        <v>58232</v>
       </c>
       <c r="P18" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="45">
+        <v>163651</v>
+      </c>
+      <c r="Q18" s="285">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3021</v>
       </c>
       <c r="R18" s="46" t="s">
         <v>10</v>
@@ -42010,21 +42022,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="471"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="651">
+      <c r="M49" s="664">
         <f>SUM(M5:M40)</f>
-        <v>981881.86</v>
-      </c>
-      <c r="N49" s="651">
+        <v>1073133.8599999999</v>
+      </c>
+      <c r="N49" s="664">
         <f>SUM(N5:N40)</f>
-        <v>735488</v>
+        <v>793720</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>2088342.86</v>
-      </c>
-      <c r="Q49" s="663">
+        <v>2251993.8600000003</v>
+      </c>
+      <c r="Q49" s="676">
         <f>SUM(Q5:Q40)</f>
-        <v>4.5</v>
+        <v>-3016.5</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -42043,10 +42055,10 @@
       <c r="J50" s="338"/>
       <c r="K50" s="343"/>
       <c r="L50" s="49"/>
-      <c r="M50" s="652"/>
-      <c r="N50" s="652"/>
+      <c r="M50" s="665"/>
+      <c r="N50" s="665"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="664"/>
+      <c r="Q50" s="677"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>54838</v>
@@ -42101,11 +42113,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="665">
+      <c r="M53" s="642">
         <f>M49+N49</f>
-        <v>1717369.8599999999</v>
-      </c>
-      <c r="N53" s="666"/>
+        <v>1866853.8599999999</v>
+      </c>
+      <c r="N53" s="643"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -42566,7 +42578,7 @@
       </c>
       <c r="C79" s="519">
         <f>SUM(C5:C78)</f>
-        <v>248110</v>
+        <v>259806</v>
       </c>
       <c r="D79" s="520"/>
       <c r="E79" s="521" t="s">
@@ -42574,7 +42586,7 @@
       </c>
       <c r="F79" s="522">
         <f>SUM(F5:F61)</f>
-        <v>2034751</v>
+        <v>2201423</v>
       </c>
       <c r="G79" s="523"/>
       <c r="H79" s="521" t="s">
@@ -42582,7 +42594,7 @@
       </c>
       <c r="I79" s="524">
         <f>SUM(I5:I61)</f>
-        <v>38884</v>
+        <v>41355</v>
       </c>
       <c r="J79" s="525"/>
       <c r="K79" s="526" t="s">
@@ -42608,50 +42620,50 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="659" t="s">
+      <c r="H81" s="672" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="660"/>
+      <c r="I81" s="673"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="661">
+      <c r="K81" s="674">
         <f>I79+L79</f>
-        <v>174962</v>
-      </c>
-      <c r="L81" s="662"/>
+        <v>177433</v>
+      </c>
+      <c r="L81" s="675"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="653" t="s">
+      <c r="D82" s="666" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="653"/>
+      <c r="E82" s="666"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
-        <v>1611679</v>
+        <v>1764184</v>
       </c>
       <c r="I82" s="157"/>
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="654" t="s">
+      <c r="D83" s="667" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="654"/>
+      <c r="E83" s="667"/>
       <c r="F83" s="101">
         <v>0</v>
       </c>
-      <c r="I83" s="655" t="s">
+      <c r="I83" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="656"/>
-      <c r="K83" s="657">
+      <c r="J83" s="669"/>
+      <c r="K83" s="670">
         <f>F85+F86+F87</f>
-        <v>5385182.4000000004</v>
-      </c>
-      <c r="L83" s="657"/>
+        <v>5537687.4000000004</v>
+      </c>
+      <c r="L83" s="670"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -42685,18 +42697,18 @@
       </c>
       <c r="F85" s="150">
         <f>SUM(F82:F84)</f>
-        <v>1611679</v>
+        <v>1764184</v>
       </c>
       <c r="H85" s="168"/>
       <c r="I85" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="658">
+      <c r="K85" s="671">
         <f>-C4</f>
         <v>-3340512.21</v>
       </c>
-      <c r="L85" s="657"/>
+      <c r="L85" s="670"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -42714,20 +42726,20 @@
       <c r="C87" s="172">
         <v>45226</v>
       </c>
-      <c r="D87" s="646" t="s">
+      <c r="D87" s="659" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="647"/>
+      <c r="E87" s="660"/>
       <c r="F87" s="173">
         <v>3773503.4</v>
       </c>
-      <c r="I87" s="648"/>
-      <c r="J87" s="649"/>
-      <c r="K87" s="650">
+      <c r="I87" s="661"/>
+      <c r="J87" s="662"/>
+      <c r="K87" s="663">
         <f>K83+K85</f>
-        <v>2044670.1900000004</v>
-      </c>
-      <c r="L87" s="650"/>
+        <v>2197175.1900000004</v>
+      </c>
+      <c r="L87" s="663"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -42872,6 +42884,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="K85:L85"/>
     <mergeCell ref="D87:E87"/>
     <mergeCell ref="I87:J87"/>
@@ -42883,18 +42907,6 @@
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="I83:J83"/>
     <mergeCell ref="K83:L83"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44271,10 +44283,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="676"/>
-      <c r="J36" s="677"/>
-      <c r="K36" s="677"/>
-      <c r="L36" s="678"/>
+      <c r="I36" s="678"/>
+      <c r="J36" s="679"/>
+      <c r="K36" s="679"/>
+      <c r="L36" s="680"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -44301,10 +44313,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="676"/>
-      <c r="J37" s="677"/>
-      <c r="K37" s="677"/>
-      <c r="L37" s="678"/>
+      <c r="I37" s="678"/>
+      <c r="J37" s="679"/>
+      <c r="K37" s="679"/>
+      <c r="L37" s="680"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -44361,10 +44373,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="679" t="s">
+      <c r="I40" s="681" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="680"/>
+      <c r="J40" s="682"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -44383,8 +44395,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="681"/>
-      <c r="J41" s="682"/>
+      <c r="I41" s="683"/>
+      <c r="J41" s="684"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -44403,8 +44415,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="683"/>
-      <c r="J42" s="684"/>
+      <c r="I42" s="685"/>
+      <c r="J42" s="686"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -44908,10 +44920,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="685" t="s">
+      <c r="I67" s="687" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="686"/>
+      <c r="J67" s="688"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -44931,11 +44943,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="689" t="s">
+      <c r="G68" s="691" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="687"/>
-      <c r="J68" s="688"/>
+      <c r="I68" s="689"/>
+      <c r="J68" s="690"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -44946,7 +44958,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="690"/>
+      <c r="G69" s="692"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -46575,10 +46587,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="679" t="s">
+      <c r="I49" s="681" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="680"/>
+      <c r="J49" s="682"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -46597,8 +46609,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="681"/>
-      <c r="J50" s="682"/>
+      <c r="I50" s="683"/>
+      <c r="J50" s="684"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -46617,8 +46629,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="683"/>
-      <c r="J51" s="684"/>
+      <c r="I51" s="685"/>
+      <c r="J51" s="686"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -46894,10 +46906,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="685" t="s">
+      <c r="I65" s="687" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="686"/>
+      <c r="J65" s="688"/>
       <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>0</v>
@@ -46920,8 +46932,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I66" s="694"/>
-      <c r="J66" s="695"/>
+      <c r="I66" s="696"/>
+      <c r="J66" s="697"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -46985,7 +46997,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="689" t="s">
+      <c r="G70" s="691" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -47001,7 +47013,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="690"/>
+      <c r="G71" s="692"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="550"/>
@@ -47570,23 +47582,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="671" t="s">
+      <c r="B1" s="646"/>
+      <c r="C1" s="648" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
-      <c r="J1" s="672"/>
-      <c r="K1" s="672"/>
-      <c r="L1" s="672"/>
-      <c r="M1" s="672"/>
+      <c r="D1" s="649"/>
+      <c r="E1" s="649"/>
+      <c r="F1" s="649"/>
+      <c r="G1" s="649"/>
+      <c r="H1" s="649"/>
+      <c r="I1" s="649"/>
+      <c r="J1" s="649"/>
+      <c r="K1" s="649"/>
+      <c r="L1" s="649"/>
+      <c r="M1" s="649"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="647"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -47596,24 +47608,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="650" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="651"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="652" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="652"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="667" t="s">
+      <c r="P3" s="644" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="640" t="s">
+      <c r="R3" s="653" t="s">
         <v>3</v>
       </c>
     </row>
@@ -47628,14 +47640,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="642" t="s">
+      <c r="E4" s="655" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="643"/>
-      <c r="H4" s="644" t="s">
+      <c r="F4" s="656"/>
+      <c r="H4" s="657" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="645"/>
+      <c r="I4" s="658"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -47645,11 +47657,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="668"/>
+      <c r="P4" s="645"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="641"/>
+      <c r="R4" s="654"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -49625,11 +49637,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="651">
+      <c r="M49" s="664">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="651">
+      <c r="N49" s="664">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -49637,7 +49649,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="663">
+      <c r="Q49" s="676">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -49670,10 +49682,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="652"/>
-      <c r="N50" s="652"/>
+      <c r="M50" s="665"/>
+      <c r="N50" s="665"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="664"/>
+      <c r="Q50" s="677"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -49764,11 +49776,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="665">
+      <c r="M53" s="642">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="666"/>
+      <c r="N53" s="643"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -50327,26 +50339,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="659" t="s">
+      <c r="H77" s="672" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="660"/>
+      <c r="I77" s="673"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="661">
+      <c r="K77" s="674">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="662"/>
+      <c r="L77" s="675"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="653" t="s">
+      <c r="D78" s="666" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="653"/>
+      <c r="E78" s="666"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -50355,22 +50367,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="654" t="s">
+      <c r="D79" s="667" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="654"/>
+      <c r="E79" s="667"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="655" t="s">
+      <c r="I79" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="656"/>
-      <c r="K79" s="657">
+      <c r="J79" s="669"/>
+      <c r="K79" s="670">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="657"/>
+      <c r="L79" s="670"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -50411,11 +50423,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="658">
+      <c r="K81" s="671">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="657"/>
+      <c r="L81" s="670"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -50432,22 +50444,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="646" t="s">
+      <c r="D83" s="659" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="647"/>
+      <c r="E83" s="660"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="691" t="s">
+      <c r="I83" s="693" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="692"/>
-      <c r="K83" s="693">
+      <c r="J83" s="694"/>
+      <c r="K83" s="695">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="693"/>
+      <c r="L83" s="695"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -50594,6 +50606,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -50610,12 +50628,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -52027,10 +52039,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="676"/>
-      <c r="J36" s="677"/>
-      <c r="K36" s="677"/>
-      <c r="L36" s="678"/>
+      <c r="I36" s="678"/>
+      <c r="J36" s="679"/>
+      <c r="K36" s="679"/>
+      <c r="L36" s="680"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -52057,10 +52069,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="676"/>
-      <c r="J37" s="677"/>
-      <c r="K37" s="677"/>
-      <c r="L37" s="678"/>
+      <c r="I37" s="678"/>
+      <c r="J37" s="679"/>
+      <c r="K37" s="679"/>
+      <c r="L37" s="680"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -52127,10 +52139,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="679" t="s">
+      <c r="I40" s="681" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="680"/>
+      <c r="J40" s="682"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -52149,8 +52161,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="681"/>
-      <c r="J41" s="682"/>
+      <c r="I41" s="683"/>
+      <c r="J41" s="684"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -52169,8 +52181,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="683"/>
-      <c r="J42" s="684"/>
+      <c r="I42" s="685"/>
+      <c r="J42" s="686"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -52674,10 +52686,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="685" t="s">
+      <c r="I67" s="687" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="686"/>
+      <c r="J67" s="688"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -52697,11 +52709,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="689" t="s">
+      <c r="G68" s="691" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="694"/>
-      <c r="J68" s="695"/>
+      <c r="I68" s="696"/>
+      <c r="J68" s="697"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -52712,7 +52724,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="690"/>
+      <c r="G69" s="692"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -53327,23 +53339,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="671" t="s">
+      <c r="B1" s="646"/>
+      <c r="C1" s="648" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
-      <c r="J1" s="672"/>
-      <c r="K1" s="672"/>
-      <c r="L1" s="672"/>
-      <c r="M1" s="672"/>
+      <c r="D1" s="649"/>
+      <c r="E1" s="649"/>
+      <c r="F1" s="649"/>
+      <c r="G1" s="649"/>
+      <c r="H1" s="649"/>
+      <c r="I1" s="649"/>
+      <c r="J1" s="649"/>
+      <c r="K1" s="649"/>
+      <c r="L1" s="649"/>
+      <c r="M1" s="649"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="647"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -53353,24 +53365,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="650" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="651"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="652" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="652"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="667" t="s">
+      <c r="P3" s="644" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="696" t="s">
+      <c r="R3" s="698" t="s">
         <v>3</v>
       </c>
     </row>
@@ -53385,14 +53397,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="642" t="s">
+      <c r="E4" s="655" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="643"/>
-      <c r="H4" s="644" t="s">
+      <c r="F4" s="656"/>
+      <c r="H4" s="657" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="645"/>
+      <c r="I4" s="658"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -53402,11 +53414,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="668"/>
+      <c r="P4" s="645"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="697"/>
+      <c r="R4" s="699"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -55387,11 +55399,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="651">
+      <c r="M49" s="664">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="651">
+      <c r="N49" s="664">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -55399,7 +55411,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="663">
+      <c r="Q49" s="676">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -55432,10 +55444,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="652"/>
-      <c r="N50" s="652"/>
+      <c r="M50" s="665"/>
+      <c r="N50" s="665"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="664"/>
+      <c r="Q50" s="677"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -55526,11 +55538,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="665">
+      <c r="M53" s="642">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="666"/>
+      <c r="N53" s="643"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -56009,26 +56021,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="659" t="s">
+      <c r="H77" s="672" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="660"/>
+      <c r="I77" s="673"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="661">
+      <c r="K77" s="674">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="662"/>
+      <c r="L77" s="675"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="653" t="s">
+      <c r="D78" s="666" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="653"/>
+      <c r="E78" s="666"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -56037,22 +56049,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="654" t="s">
+      <c r="D79" s="667" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="654"/>
+      <c r="E79" s="667"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="655" t="s">
+      <c r="I79" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="656"/>
-      <c r="K79" s="657">
+      <c r="J79" s="669"/>
+      <c r="K79" s="670">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="657"/>
+      <c r="L79" s="670"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -56093,11 +56105,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="658">
+      <c r="K81" s="671">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="657"/>
+      <c r="L81" s="670"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -56114,22 +56126,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="646" t="s">
+      <c r="D83" s="659" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="647"/>
+      <c r="E83" s="660"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="648" t="s">
+      <c r="I83" s="661" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="649"/>
-      <c r="K83" s="650">
+      <c r="J83" s="662"/>
+      <c r="K83" s="663">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="650"/>
+      <c r="L83" s="663"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -56276,12 +56288,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -56298,6 +56304,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -57600,10 +57612,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="676"/>
-      <c r="J36" s="677"/>
-      <c r="K36" s="677"/>
-      <c r="L36" s="678"/>
+      <c r="I36" s="678"/>
+      <c r="J36" s="679"/>
+      <c r="K36" s="679"/>
+      <c r="L36" s="680"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -57620,10 +57632,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="676"/>
-      <c r="J37" s="677"/>
-      <c r="K37" s="677"/>
-      <c r="L37" s="678"/>
+      <c r="I37" s="678"/>
+      <c r="J37" s="679"/>
+      <c r="K37" s="679"/>
+      <c r="L37" s="680"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -57680,10 +57692,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="679" t="s">
+      <c r="I40" s="681" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="680"/>
+      <c r="J40" s="682"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -57702,8 +57714,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="681"/>
-      <c r="J41" s="682"/>
+      <c r="I41" s="683"/>
+      <c r="J41" s="684"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -57722,8 +57734,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="683"/>
-      <c r="J42" s="684"/>
+      <c r="I42" s="685"/>
+      <c r="J42" s="686"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -58227,10 +58239,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="685" t="s">
+      <c r="I67" s="687" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="686"/>
+      <c r="J67" s="688"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -58250,11 +58262,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="689" t="s">
+      <c r="G68" s="691" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="694"/>
-      <c r="J68" s="695"/>
+      <c r="I68" s="696"/>
+      <c r="J68" s="697"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -58265,7 +58277,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="690"/>
+      <c r="G69" s="692"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -58871,23 +58883,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="671" t="s">
+      <c r="B1" s="646"/>
+      <c r="C1" s="648" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
-      <c r="J1" s="672"/>
-      <c r="K1" s="672"/>
-      <c r="L1" s="672"/>
-      <c r="M1" s="672"/>
+      <c r="D1" s="649"/>
+      <c r="E1" s="649"/>
+      <c r="F1" s="649"/>
+      <c r="G1" s="649"/>
+      <c r="H1" s="649"/>
+      <c r="I1" s="649"/>
+      <c r="J1" s="649"/>
+      <c r="K1" s="649"/>
+      <c r="L1" s="649"/>
+      <c r="M1" s="649"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="647"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -58897,24 +58909,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="650" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="651"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="652" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="652"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="667" t="s">
+      <c r="P3" s="644" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="696" t="s">
+      <c r="R3" s="698" t="s">
         <v>3</v>
       </c>
     </row>
@@ -58929,14 +58941,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="642" t="s">
+      <c r="E4" s="655" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="643"/>
-      <c r="H4" s="644" t="s">
+      <c r="F4" s="656"/>
+      <c r="H4" s="657" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="645"/>
+      <c r="I4" s="658"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -58946,11 +58958,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="668"/>
+      <c r="P4" s="645"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="697"/>
+      <c r="R4" s="699"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -60971,11 +60983,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="651">
+      <c r="M49" s="664">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="651">
+      <c r="N49" s="664">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -60983,7 +60995,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="663">
+      <c r="Q49" s="676">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -61010,10 +61022,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="652"/>
-      <c r="N50" s="652"/>
+      <c r="M50" s="665"/>
+      <c r="N50" s="665"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="664"/>
+      <c r="Q50" s="677"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -61087,11 +61099,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="665">
+      <c r="M53" s="642">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="666"/>
+      <c r="N53" s="643"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -61720,26 +61732,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="659" t="s">
+      <c r="H79" s="672" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="660"/>
+      <c r="I79" s="673"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="661">
+      <c r="K79" s="674">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="662"/>
+      <c r="L79" s="675"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="653" t="s">
+      <c r="D80" s="666" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="653"/>
+      <c r="E80" s="666"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -61748,22 +61760,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="654" t="s">
+      <c r="D81" s="667" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="654"/>
+      <c r="E81" s="667"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="655" t="s">
+      <c r="I81" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="656"/>
-      <c r="K81" s="657">
+      <c r="J81" s="669"/>
+      <c r="K81" s="670">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="657"/>
+      <c r="L81" s="670"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -61804,11 +61816,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="658">
+      <c r="K83" s="671">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="657"/>
+      <c r="L83" s="670"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -61825,22 +61837,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="646" t="s">
+      <c r="D85" s="659" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="647"/>
+      <c r="E85" s="660"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="648" t="s">
+      <c r="I85" s="661" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="649"/>
-      <c r="K85" s="650">
+      <c r="J85" s="662"/>
+      <c r="K85" s="663">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="650"/>
+      <c r="L85" s="663"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -61988,6 +62000,12 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -62004,12 +62022,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -63329,10 +63341,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="676"/>
-      <c r="J36" s="677"/>
-      <c r="K36" s="677"/>
-      <c r="L36" s="678"/>
+      <c r="I36" s="678"/>
+      <c r="J36" s="679"/>
+      <c r="K36" s="679"/>
+      <c r="L36" s="680"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -63355,10 +63367,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="676"/>
-      <c r="J37" s="677"/>
-      <c r="K37" s="677"/>
-      <c r="L37" s="678"/>
+      <c r="I37" s="678"/>
+      <c r="J37" s="679"/>
+      <c r="K37" s="679"/>
+      <c r="L37" s="680"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -63433,10 +63445,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="679" t="s">
+      <c r="I40" s="681" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="680"/>
+      <c r="J40" s="682"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -63461,8 +63473,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="681"/>
-      <c r="J41" s="682"/>
+      <c r="I41" s="683"/>
+      <c r="J41" s="684"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -63487,8 +63499,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="683"/>
-      <c r="J42" s="684"/>
+      <c r="I42" s="685"/>
+      <c r="J42" s="686"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -64010,10 +64022,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="685" t="s">
+      <c r="I67" s="687" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="686"/>
+      <c r="J67" s="688"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -64033,11 +64045,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="689" t="s">
+      <c r="G68" s="691" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="694"/>
-      <c r="J68" s="695"/>
+      <c r="I68" s="696"/>
+      <c r="J68" s="697"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -64048,7 +64060,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="690"/>
+      <c r="G69" s="692"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -64664,23 +64676,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="671" t="s">
+      <c r="B1" s="646"/>
+      <c r="C1" s="648" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
-      <c r="J1" s="672"/>
-      <c r="K1" s="672"/>
-      <c r="L1" s="672"/>
-      <c r="M1" s="672"/>
+      <c r="D1" s="649"/>
+      <c r="E1" s="649"/>
+      <c r="F1" s="649"/>
+      <c r="G1" s="649"/>
+      <c r="H1" s="649"/>
+      <c r="I1" s="649"/>
+      <c r="J1" s="649"/>
+      <c r="K1" s="649"/>
+      <c r="L1" s="649"/>
+      <c r="M1" s="649"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="647"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -64690,27 +64702,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="650" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="651"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="652" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="652"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="667" t="s">
+      <c r="P3" s="644" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="696" t="s">
+      <c r="R3" s="698" t="s">
         <v>3</v>
       </c>
     </row>
@@ -64725,14 +64737,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="642" t="s">
+      <c r="E4" s="655" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="643"/>
-      <c r="H4" s="644" t="s">
+      <c r="F4" s="656"/>
+      <c r="H4" s="657" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="645"/>
+      <c r="I4" s="658"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -64742,11 +64754,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="668"/>
+      <c r="P4" s="645"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="697"/>
+      <c r="R4" s="699"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -66749,11 +66761,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="651">
+      <c r="M49" s="664">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="651">
+      <c r="N49" s="664">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -66761,7 +66773,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="663">
+      <c r="Q49" s="676">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -66794,10 +66806,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="652"/>
-      <c r="N50" s="652"/>
+      <c r="M50" s="665"/>
+      <c r="N50" s="665"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="664"/>
+      <c r="Q50" s="677"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -66876,11 +66888,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="665">
+      <c r="M53" s="642">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="666"/>
+      <c r="N53" s="643"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -67359,26 +67371,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="659" t="s">
+      <c r="H77" s="672" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="660"/>
+      <c r="I77" s="673"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="661">
+      <c r="K77" s="674">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="662"/>
+      <c r="L77" s="675"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="653" t="s">
+      <c r="D78" s="666" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="653"/>
+      <c r="E78" s="666"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -67387,22 +67399,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="654" t="s">
+      <c r="D79" s="667" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="654"/>
+      <c r="E79" s="667"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="655" t="s">
+      <c r="I79" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="656"/>
-      <c r="K79" s="657">
+      <c r="J79" s="669"/>
+      <c r="K79" s="670">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="657"/>
+      <c r="L79" s="670"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -67443,11 +67455,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="658">
+      <c r="K81" s="671">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="657"/>
+      <c r="L81" s="670"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -67464,22 +67476,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="646" t="s">
+      <c r="D83" s="659" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="647"/>
+      <c r="E83" s="660"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="691" t="s">
+      <c r="I83" s="693" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="692"/>
-      <c r="K83" s="693">
+      <c r="J83" s="694"/>
+      <c r="K83" s="695">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="693"/>
+      <c r="L83" s="695"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -67627,12 +67639,6 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -67649,6 +67655,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
